--- a/benedictions.xlsx
+++ b/benedictions.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -495,25 +495,25 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>tirucciṟṟampalam</v>
+        <v>mukāya nama</v>
       </c>
       <c r="B5" t="str">
-        <v>tirucciṟṟampalam</v>
+        <v>mukāya nama</v>
       </c>
       <c r="C5" t="str">
-        <v>Indien 531</v>
+        <v>Indien 504</v>
       </c>
       <c r="D5" t="str">
         <v>BnF</v>
       </c>
       <c r="E5" t="str">
-        <v>Periya Purāṇam, preceded by the Tiruttoṇṭattokai and the Tiruttoṇṭar Tiruvantāti.</v>
+        <v>Collection (2 works)</v>
       </c>
       <c r="F5" t="str">
-        <v>U2b</v>
+        <v>U3c</v>
       </c>
       <c r="G5" t="str">
-        <v>folio 3r</v>
+        <v>folio [35]v</v>
       </c>
       <c r="H5" t="str">
         <v>left margin</v>
@@ -524,28 +524,28 @@
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>kuruvē namaḥ {pcs} {pcl}</v>
+        <v>tirucciṟṟampalam</v>
       </c>
       <c r="B6" t="str">
-        <v>kuruvē namaḥ {pcs} {pcl}</v>
+        <v>tirucciṟṟampalam</v>
       </c>
       <c r="C6" t="str">
-        <v>Indien 943</v>
+        <v>Indien 531</v>
       </c>
       <c r="D6" t="str">
         <v>BnF</v>
       </c>
       <c r="E6" t="str">
-        <v>Periya Purāṇam, preceded by the Tiruttoṇṭattokai.</v>
+        <v>Periya Purāṇam, preceded by the Tiruttoṇṭattokai and the Tiruttoṇṭar Tiruvantāti.</v>
       </c>
       <c r="F6" t="str">
         <v>U2b</v>
       </c>
       <c r="G6" t="str">
-        <v>folio 286v</v>
+        <v>folio 3r</v>
       </c>
       <c r="H6" t="str">
-        <v>main text area</v>
+        <v>left margin</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -553,25 +553,25 @@
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>On tat sat·={pcl}</v>
+        <v>kuruvē namaḥ {pcs} {pcl}</v>
       </c>
       <c r="B7" t="str">
-        <v>On tat sat·={pcl}</v>
+        <v>kuruvē namaḥ {pcs} {pcl}</v>
       </c>
       <c r="C7" t="str">
-        <v>Sanscrit 815</v>
+        <v>Indien 943</v>
       </c>
       <c r="D7" t="str">
         <v>BnF</v>
       </c>
       <c r="E7" t="str">
-        <v>Dharmaśāstra Works (Ducler Dharmaśāstra, volume 1)</v>
+        <v>Periya Purāṇam, preceded by the Tiruttoṇṭattokai.</v>
       </c>
       <c r="F7" t="str">
-        <v>U3</v>
+        <v>U2b</v>
       </c>
       <c r="G7" t="str">
-        <v>folio 287r</v>
+        <v>folio 286v</v>
       </c>
       <c r="H7" t="str">
         <v>main text area</v>
@@ -582,25 +582,25 @@
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>śrī-rāmacandrāya parabrahmaṇe¡nma!namaḥ</v>
+        <v>On tat sat·={pcl}</v>
       </c>
       <c r="B8" t="str">
-        <v>śrīrāmacandrāya parabrahmaṇe nmanamaḥ</v>
+        <v>On tat sat·={pcl}</v>
       </c>
       <c r="C8" t="str">
-        <v>Sanscrit 816</v>
+        <v>Sanscrit 815</v>
       </c>
       <c r="D8" t="str">
         <v>BnF</v>
       </c>
       <c r="E8" t="str">
-        <v>Mitākṣarā</v>
+        <v>Dharmaśāstra Works (Ducler Dharmaśāstra, volume 1)</v>
       </c>
       <c r="F8" t="str">
-        <v>U2</v>
+        <v>U3</v>
       </c>
       <c r="G8" t="str">
-        <v>folio 201r</v>
+        <v>folio 287r</v>
       </c>
       <c r="H8" t="str">
         <v>main text area</v>
@@ -611,25 +611,25 @@
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>śrī-mahā-tripurasundaryyai namaḥ {pcl}</v>
+        <v>śrī-rāmacandrāya parabrahmaṇe¡nma!namaḥ</v>
       </c>
       <c r="B9" t="str">
-        <v>śrīmahātripurasundaryyai namaḥ {pcl}</v>
+        <v>śrīrāmacandrāya parabrahmaṇe nmanamaḥ</v>
       </c>
       <c r="C9" t="str">
-        <v>Sanscrit 818</v>
+        <v>Sanscrit 816</v>
       </c>
       <c r="D9" t="str">
         <v>BnF</v>
       </c>
       <c r="E9" t="str">
-        <v>Smṛtimuktaphala (Ducler Dharmaśāstra, volume 2)</v>
+        <v>Mitākṣarā</v>
       </c>
       <c r="F9" t="str">
-        <v>U4</v>
+        <v>U2</v>
       </c>
       <c r="G9" t="str">
-        <v>folio 317r</v>
+        <v>folio 201r</v>
       </c>
       <c r="H9" t="str">
         <v>main text area</v>
@@ -638,9 +638,38 @@
         <v>0</v>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>śrī-mahā-tripurasundaryyai namaḥ {pcl}</v>
+      </c>
+      <c r="B10" t="str">
+        <v>śrīmahātripurasundaryyai namaḥ {pcl}</v>
+      </c>
+      <c r="C10" t="str">
+        <v>Sanscrit 818</v>
+      </c>
+      <c r="D10" t="str">
+        <v>BnF</v>
+      </c>
+      <c r="E10" t="str">
+        <v>Smṛtimuktaphala (Ducler Dharmaśāstra, volume 2)</v>
+      </c>
+      <c r="F10" t="str">
+        <v>U4</v>
+      </c>
+      <c r="G10" t="str">
+        <v>folio 317r</v>
+      </c>
+      <c r="H10" t="str">
+        <v>main text area</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:I9"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:I10"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/benedictions.xlsx
+++ b/benedictions.xlsx
@@ -652,7 +652,7 @@
         <v>BnF</v>
       </c>
       <c r="E10" t="str">
-        <v>Smṛtimuktaphala (Ducler Dharmaśāstra, volume 2)</v>
+        <v>Smṛtimuktāphala (Ducler Dharmaśāstra, volume 2)</v>
       </c>
       <c r="F10" t="str">
         <v>U4</v>

--- a/benedictions.xlsx
+++ b/benedictions.xlsx
@@ -42,8 +42,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -375,7 +376,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I44"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -437,10 +438,10 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>vēlumayilum tuṇai</v>
+        <v>caṟkuru kaṭāṣ=cam</v>
       </c>
       <c r="B3" t="str">
-        <v>vēlumayilum tuṇai</v>
+        <v>caṟkuru kaṭāṣcam</v>
       </c>
       <c r="C3" t="str">
         <v>Indien 294</v>
@@ -452,71 +453,71 @@
         <v>Periya Purāṇam</v>
       </c>
       <c r="F3" t="str">
-        <v>U4a</v>
+        <v>U2</v>
       </c>
       <c r="G3" t="str">
-        <v>folio [1]r</v>
-      </c>
-      <c r="H3" t="str">
-        <v>column 2</v>
+        <v>folio 1r</v>
+      </c>
+      <c r="H3" s="1">
+        <v>36952</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>vēl uṇṭu viṉai y-illai</v>
+        <v>vēlumayilum tuṇai</v>
       </c>
       <c r="B4" t="str">
-        <v>vēl uṇṭu viṉai yillai</v>
+        <v>vēlumayilum tuṇai</v>
       </c>
       <c r="C4" t="str">
-        <v>Indien 420</v>
+        <v>Indien 294</v>
       </c>
       <c r="D4" t="str">
         <v>BnF</v>
       </c>
       <c r="E4" t="str">
-        <v>Nālu Mantiri Katai</v>
+        <v>Periya Purāṇam</v>
       </c>
       <c r="F4" t="str">
-        <v>U2</v>
+        <v>U4a</v>
       </c>
       <c r="G4" t="str">
-        <v>folio 53v</v>
+        <v>folio [1]r</v>
       </c>
       <c r="H4" t="str">
-        <v>main text area</v>
+        <v>column 2</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>mukāya nama</v>
+        <v>vēl uṇṭu viṉai y-illai</v>
       </c>
       <c r="B5" t="str">
-        <v>mukāya nama</v>
+        <v>vēl uṇṭu viṉai yillai</v>
       </c>
       <c r="C5" t="str">
-        <v>Indien 504</v>
+        <v>Indien 420</v>
       </c>
       <c r="D5" t="str">
         <v>BnF</v>
       </c>
       <c r="E5" t="str">
-        <v>Collection (2 works)</v>
+        <v>Nālu Mantiri Katai</v>
       </c>
       <c r="F5" t="str">
-        <v>U3c</v>
+        <v>U2</v>
       </c>
       <c r="G5" t="str">
-        <v>folio [35]v</v>
+        <v>folio 53v</v>
       </c>
       <c r="H5" t="str">
-        <v>left margin</v>
+        <v>main text area</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -524,25 +525,25 @@
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>tirucciṟṟampalam</v>
+        <v>mukāya nama</v>
       </c>
       <c r="B6" t="str">
-        <v>tirucciṟṟampalam</v>
+        <v>mukāya nama</v>
       </c>
       <c r="C6" t="str">
-        <v>Indien 531</v>
+        <v>Indien 504</v>
       </c>
       <c r="D6" t="str">
         <v>BnF</v>
       </c>
       <c r="E6" t="str">
-        <v>Periya Purāṇam, preceded by the Tiruttoṇṭattokai and the Tiruttoṇṭar Tiruvantāti.</v>
+        <v>Collection (2 works)</v>
       </c>
       <c r="F6" t="str">
-        <v>U2b</v>
+        <v>U3c</v>
       </c>
       <c r="G6" t="str">
-        <v>folio 3r</v>
+        <v>folio [35]v</v>
       </c>
       <c r="H6" t="str">
         <v>left margin</v>
@@ -553,25 +554,25 @@
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>kuruvē namaḥ {pcs} {pcl}</v>
+        <v>vēḻamukatu viṉāyakaṉait toḻ vāḻvu mikuttu varum {pcs}</v>
       </c>
       <c r="B7" t="str">
-        <v>kuruvē namaḥ {pcs} {pcl}</v>
+        <v>vēḻamukatu viṉāyakaṉait toḻ vāḻvu mikuttu varum {pcs}</v>
       </c>
       <c r="C7" t="str">
-        <v>Indien 943</v>
+        <v>Indien 531</v>
       </c>
       <c r="D7" t="str">
         <v>BnF</v>
       </c>
       <c r="E7" t="str">
-        <v>Periya Purāṇam, preceded by the Tiruttoṇṭattokai.</v>
+        <v>Periya Purāṇam, preceded by the Tiruttoṇṭattokai and the Tiruttoṇṭar Tiruvantāti.</v>
       </c>
       <c r="F7" t="str">
-        <v>U2b</v>
+        <v>U1</v>
       </c>
       <c r="G7" t="str">
-        <v>folio 286v</v>
+        <v>folio [1]r</v>
       </c>
       <c r="H7" t="str">
         <v>main text area</v>
@@ -582,57 +583,57 @@
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>On tat sat·={pcl}</v>
+        <v>vēlumayilun tuṇai</v>
       </c>
       <c r="B8" t="str">
-        <v>On tat sat·={pcl}</v>
+        <v>vēlumayilun tuṇai</v>
       </c>
       <c r="C8" t="str">
-        <v>Sanscrit 815</v>
+        <v>Indien 531</v>
       </c>
       <c r="D8" t="str">
         <v>BnF</v>
       </c>
       <c r="E8" t="str">
-        <v>Dharmaśāstra Works (Ducler Dharmaśāstra, volume 1)</v>
+        <v>Periya Purāṇam, preceded by the Tiruttoṇṭattokai and the Tiruttoṇṭar Tiruvantāti.</v>
       </c>
       <c r="F8" t="str">
-        <v>U3</v>
+        <v>U1</v>
       </c>
       <c r="G8" t="str">
-        <v>folio 287r</v>
+        <v>folio [1]r</v>
       </c>
       <c r="H8" t="str">
         <v>main text area</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>śrī-rāmacandrāya parabrahmaṇe¡nma!namaḥ</v>
+        <v>tirucciṟṟampalam</v>
       </c>
       <c r="B9" t="str">
-        <v>śrīrāmacandrāya parabrahmaṇe nmanamaḥ</v>
+        <v>tirucciṟṟampalam</v>
       </c>
       <c r="C9" t="str">
-        <v>Sanscrit 816</v>
+        <v>Indien 531</v>
       </c>
       <c r="D9" t="str">
         <v>BnF</v>
       </c>
       <c r="E9" t="str">
-        <v>Mitākṣarā</v>
+        <v>Periya Purāṇam, preceded by the Tiruttoṇṭattokai and the Tiruttoṇṭar Tiruvantāti.</v>
       </c>
       <c r="F9" t="str">
-        <v>U2</v>
+        <v>U2b</v>
       </c>
       <c r="G9" t="str">
-        <v>folio 201r</v>
+        <v>folio 3r</v>
       </c>
       <c r="H9" t="str">
-        <v>main text area</v>
+        <v>left margin</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -640,36 +641,1022 @@
     </row>
     <row r="10">
       <c r="A10" t="str">
+        <v>kuruvē namaḥ {pcs} {pcl}</v>
+      </c>
+      <c r="B10" t="str">
+        <v>kuruvē namaḥ {pcs} {pcl}</v>
+      </c>
+      <c r="C10" t="str">
+        <v>Indien 943</v>
+      </c>
+      <c r="D10" t="str">
+        <v>BnF</v>
+      </c>
+      <c r="E10" t="str">
+        <v>Periya Purāṇam, preceded by the Tiruttoṇṭattokai.</v>
+      </c>
+      <c r="F10" t="str">
+        <v>U2b</v>
+      </c>
+      <c r="G10" t="str">
+        <v>folio 286v</v>
+      </c>
+      <c r="H10" t="str">
+        <v>main text area</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>Avighnam astu</v>
+      </c>
+      <c r="B11" t="str">
+        <v>Avighnam astu</v>
+      </c>
+      <c r="C11" t="str">
+        <v>Sanscrit 815</v>
+      </c>
+      <c r="D11" t="str">
+        <v>BnF</v>
+      </c>
+      <c r="E11" t="str">
+        <v>Dharmaśāstra Works (Ducler Dharmaśāstra, volume 1)</v>
+      </c>
+      <c r="F11" t="str">
+        <v>U1</v>
+      </c>
+      <c r="G11" t="str">
+        <v>folio 1r</v>
+      </c>
+      <c r="H11" s="1">
+        <v>36951</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>śrī-gurubhyo¡nmaḥ!namaḥ| {pcl}</v>
+      </c>
+      <c r="B12" t="str">
+        <v>śrīgurubhyo nmaḥnamaḥ {pcl}</v>
+      </c>
+      <c r="C12" t="str">
+        <v>Sanscrit 815</v>
+      </c>
+      <c r="D12" t="str">
+        <v>BnF</v>
+      </c>
+      <c r="E12" t="str">
+        <v>Dharmaśāstra Works (Ducler Dharmaśāstra, volume 1)</v>
+      </c>
+      <c r="F12" t="str">
+        <v>U1</v>
+      </c>
+      <c r="G12" t="str">
+        <v>folio 1r</v>
+      </c>
+      <c r="H12" t="str">
+        <v>main text area</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>śubham astu {pcl}</v>
+      </c>
+      <c r="B13" t="str">
+        <v>śubham astu {pcl}</v>
+      </c>
+      <c r="C13" t="str">
+        <v>Sanscrit 815</v>
+      </c>
+      <c r="D13" t="str">
+        <v>BnF</v>
+      </c>
+      <c r="E13" t="str">
+        <v>Dharmaśāstra Works (Ducler Dharmaśāstra, volume 1)</v>
+      </c>
+      <c r="F13" t="str">
+        <v>U1</v>
+      </c>
+      <c r="G13" t="str">
+        <v>folio 1r</v>
+      </c>
+      <c r="H13" t="str">
+        <v>main text area</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>śubham astu={pcl}</v>
+      </c>
+      <c r="B14" t="str">
+        <v>śubham astu={pcl}</v>
+      </c>
+      <c r="C14" t="str">
+        <v>Sanscrit 815</v>
+      </c>
+      <c r="D14" t="str">
+        <v>BnF</v>
+      </c>
+      <c r="E14" t="str">
+        <v>Dharmaśāstra Works (Ducler Dharmaśāstra, volume 1)</v>
+      </c>
+      <c r="F14" t="str">
+        <v>U1</v>
+      </c>
+      <c r="G14" t="str">
+        <v>folio 148v</v>
+      </c>
+      <c r="H14" t="str">
+        <v>main text area</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>Avighnam astu</v>
+      </c>
+      <c r="B15" t="str">
+        <v>Avighnam astu</v>
+      </c>
+      <c r="C15" t="str">
+        <v>Sanscrit 815</v>
+      </c>
+      <c r="D15" t="str">
+        <v>BnF</v>
+      </c>
+      <c r="E15" t="str">
+        <v>Dharmaśāstra Works (Ducler Dharmaśāstra, volume 1)</v>
+      </c>
+      <c r="F15" t="str">
+        <v>U1</v>
+      </c>
+      <c r="G15" t="str">
+        <v>folio 148v</v>
+      </c>
+      <c r="H15" t="str">
+        <v>main text area</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>śrī-mahāsarasvatyai¡nmaḥ!namaḥ| {pcl}</v>
+      </c>
+      <c r="B16" t="str">
+        <v>śrīmahāsarasvatyai nmaḥnamaḥ {pcl}</v>
+      </c>
+      <c r="C16" t="str">
+        <v>Sanscrit 815</v>
+      </c>
+      <c r="D16" t="str">
+        <v>BnF</v>
+      </c>
+      <c r="E16" t="str">
+        <v>Dharmaśāstra Works (Ducler Dharmaśāstra, volume 1)</v>
+      </c>
+      <c r="F16" t="str">
+        <v>U1</v>
+      </c>
+      <c r="G16" t="str">
+        <v>folio 148v</v>
+      </c>
+      <c r="H16" t="str">
+        <v>main text area</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>śrī-vedavyāsāya¡nmaḥ!namaḥ| {pcl}}</v>
+      </c>
+      <c r="B17" t="str">
+        <v>śrīvedavyāsāya nmaḥnamaḥ {pcl}}</v>
+      </c>
+      <c r="C17" t="str">
+        <v>Sanscrit 815</v>
+      </c>
+      <c r="D17" t="str">
+        <v>BnF</v>
+      </c>
+      <c r="E17" t="str">
+        <v>Dharmaśāstra Works (Ducler Dharmaśāstra, volume 1)</v>
+      </c>
+      <c r="F17" t="str">
+        <v>U1</v>
+      </c>
+      <c r="G17" t="str">
+        <v>folio 148v</v>
+      </c>
+      <c r="H17" t="str">
+        <v>main text area</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>śrī-pūrṇeśvarī-sameta-śrīma¿da?d-darbhāraṇyeśvara-svāmī sahāyaḥ | {pcl}</v>
+      </c>
+      <c r="B18" t="str">
+        <v>śrīpūrṇeśvarīsametaśrīmadaddarbhāraṇyeśvarasvāmī sahāyaḥ {pcl}</v>
+      </c>
+      <c r="C18" t="str">
+        <v>Sanscrit 815</v>
+      </c>
+      <c r="D18" t="str">
+        <v>BnF</v>
+      </c>
+      <c r="E18" t="str">
+        <v>Dharmaśāstra Works (Ducler Dharmaśāstra, volume 1)</v>
+      </c>
+      <c r="F18" t="str">
+        <v>U1</v>
+      </c>
+      <c r="G18" t="str">
+        <v>folio 148v</v>
+      </c>
+      <c r="H18" t="str">
+        <v>main text area</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>On tat sat·</v>
+      </c>
+      <c r="B19" t="str">
+        <v>On tat sat·</v>
+      </c>
+      <c r="C19" t="str">
+        <v>Sanscrit 815</v>
+      </c>
+      <c r="D19" t="str">
+        <v>BnF</v>
+      </c>
+      <c r="E19" t="str">
+        <v>Dharmaśāstra Works (Ducler Dharmaśāstra, volume 1)</v>
+      </c>
+      <c r="F19" t="str">
+        <v>U1</v>
+      </c>
+      <c r="G19" t="str">
+        <v>folio 148v</v>
+      </c>
+      <c r="H19" t="str">
+        <v>main text area</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>śrī-kṛṣṇā(rpa)ṇam astu {pcl}</v>
+      </c>
+      <c r="B20" t="str">
+        <v>śrīkṛṣṇārpaṇam astu {pcl}</v>
+      </c>
+      <c r="C20" t="str">
+        <v>Sanscrit 815</v>
+      </c>
+      <c r="D20" t="str">
+        <v>BnF</v>
+      </c>
+      <c r="E20" t="str">
+        <v>Dharmaśāstra Works (Ducler Dharmaśāstra, volume 1)</v>
+      </c>
+      <c r="F20" t="str">
+        <v>U1</v>
+      </c>
+      <c r="G20" t="str">
+        <v>folio 148v</v>
+      </c>
+      <c r="H20" t="str">
+        <v>main text area</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>śubham astu</v>
+      </c>
+      <c r="B21" t="str">
+        <v>śubham astu</v>
+      </c>
+      <c r="C21" t="str">
+        <v>Sanscrit 815</v>
+      </c>
+      <c r="D21" t="str">
+        <v>BnF</v>
+      </c>
+      <c r="E21" t="str">
+        <v>Dharmaśāstra Works (Ducler Dharmaśāstra, volume 1)</v>
+      </c>
+      <c r="F21" t="str">
+        <v>U3</v>
+      </c>
+      <c r="G21" t="str">
+        <v>folio 155r</v>
+      </c>
+      <c r="H21" t="str">
+        <v>main text area</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>śubham astu</v>
+      </c>
+      <c r="B22" t="str">
+        <v>śubham astu</v>
+      </c>
+      <c r="C22" t="str">
+        <v>Sanscrit 815</v>
+      </c>
+      <c r="D22" t="str">
+        <v>BnF</v>
+      </c>
+      <c r="E22" t="str">
+        <v>Dharmaśāstra Works (Ducler Dharmaśāstra, volume 1)</v>
+      </c>
+      <c r="F22" t="str">
+        <v>U3</v>
+      </c>
+      <c r="G22" t="str">
+        <v>folio 286v</v>
+      </c>
+      <c r="H22" t="str">
+        <v>main text area</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>śrīgurubhhyo namaḥ | {pcl}</v>
+      </c>
+      <c r="B23" t="str">
+        <v>śrīgurubhhyo namaḥ {pcl}</v>
+      </c>
+      <c r="C23" t="str">
+        <v>Sanscrit 815</v>
+      </c>
+      <c r="D23" t="str">
+        <v>BnF</v>
+      </c>
+      <c r="E23" t="str">
+        <v>Dharmaśāstra Works (Ducler Dharmaśāstra, volume 1)</v>
+      </c>
+      <c r="F23" t="str">
+        <v>U3</v>
+      </c>
+      <c r="G23" t="str">
+        <v>folio 286v</v>
+      </c>
+      <c r="H23" t="str">
+        <v>main text area</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>Om· śrīmat·-pārvvati-nāyakī-sameta-śrīmat·-parvvatava(ḍi)teśvara-svāmine namaḥ | {pcl}</v>
+      </c>
+      <c r="B24" t="str">
+        <v>Om· śrīmat·pārvvatināyakīsametaśrīmat·parvvatavaḍiteśvarasvāmine namaḥ {pcl}</v>
+      </c>
+      <c r="C24" t="str">
+        <v>Sanscrit 815</v>
+      </c>
+      <c r="D24" t="str">
+        <v>BnF</v>
+      </c>
+      <c r="E24" t="str">
+        <v>Dharmaśāstra Works (Ducler Dharmaśāstra, volume 1)</v>
+      </c>
+      <c r="F24" t="str">
+        <v>U3</v>
+      </c>
+      <c r="G24" t="str">
+        <v>folio 287r</v>
+      </c>
+      <c r="H24" t="str">
+        <v>main text area</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>śrīvāsudevārpaṇam astu {pcl}</v>
+      </c>
+      <c r="B25" t="str">
+        <v>śrīvāsudevārpaṇam astu {pcl}</v>
+      </c>
+      <c r="C25" t="str">
+        <v>Sanscrit 815</v>
+      </c>
+      <c r="D25" t="str">
+        <v>BnF</v>
+      </c>
+      <c r="E25" t="str">
+        <v>Dharmaśāstra Works (Ducler Dharmaśāstra, volume 1)</v>
+      </c>
+      <c r="F25" t="str">
+        <v>U3</v>
+      </c>
+      <c r="G25" t="str">
+        <v>folio 287r</v>
+      </c>
+      <c r="H25" t="str">
+        <v>main text area</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>śrī-mahāsarasvatyai namaḥ | {pcl}</v>
+      </c>
+      <c r="B26" t="str">
+        <v>śrīmahāsarasvatyai namaḥ {pcl}</v>
+      </c>
+      <c r="C26" t="str">
+        <v>Sanscrit 815</v>
+      </c>
+      <c r="D26" t="str">
+        <v>BnF</v>
+      </c>
+      <c r="E26" t="str">
+        <v>Dharmaśāstra Works (Ducler Dharmaśāstra, volume 1)</v>
+      </c>
+      <c r="F26" t="str">
+        <v>U3</v>
+      </c>
+      <c r="G26" t="str">
+        <v>folio 287r</v>
+      </c>
+      <c r="H26" t="str">
+        <v>main text area</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>śrī-vedavyāsāya namaḥ |</v>
+      </c>
+      <c r="B27" t="str">
+        <v>śrīvedavyāsāya namaḥ</v>
+      </c>
+      <c r="C27" t="str">
+        <v>Sanscrit 815</v>
+      </c>
+      <c r="D27" t="str">
+        <v>BnF</v>
+      </c>
+      <c r="E27" t="str">
+        <v>Dharmaśāstra Works (Ducler Dharmaśāstra, volume 1)</v>
+      </c>
+      <c r="F27" t="str">
+        <v>U3</v>
+      </c>
+      <c r="G27" t="str">
+        <v>folio 287r</v>
+      </c>
+      <c r="H27" t="str">
+        <v>main text area</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>On tat sat·={pcl}</v>
+      </c>
+      <c r="B28" t="str">
+        <v>On tat sat·={pcl}</v>
+      </c>
+      <c r="C28" t="str">
+        <v>Sanscrit 815</v>
+      </c>
+      <c r="D28" t="str">
+        <v>BnF</v>
+      </c>
+      <c r="E28" t="str">
+        <v>Dharmaśāstra Works (Ducler Dharmaśāstra, volume 1)</v>
+      </c>
+      <c r="F28" t="str">
+        <v>U3</v>
+      </c>
+      <c r="G28" t="str">
+        <v>folio 287r</v>
+      </c>
+      <c r="H28" t="str">
+        <v>main text area</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>Avighnam astu</v>
+      </c>
+      <c r="B29" t="str">
+        <v>Avighnam astu</v>
+      </c>
+      <c r="C29" t="str">
+        <v>Sanscrit 816</v>
+      </c>
+      <c r="D29" t="str">
+        <v>BnF</v>
+      </c>
+      <c r="E29" t="str">
+        <v>Mitākṣarā</v>
+      </c>
+      <c r="F29" t="str">
+        <v>U2</v>
+      </c>
+      <c r="G29" t="str">
+        <v>folio 1r</v>
+      </c>
+      <c r="H29" t="str">
+        <v>left margin</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>śrīgurubhyo¡nma!namaḥ | {pcl}</v>
+      </c>
+      <c r="B30" t="str">
+        <v>śrīgurubhyo nmanamaḥ {pcl}</v>
+      </c>
+      <c r="C30" t="str">
+        <v>Sanscrit 816</v>
+      </c>
+      <c r="D30" t="str">
+        <v>BnF</v>
+      </c>
+      <c r="E30" t="str">
+        <v>Mitākṣarā</v>
+      </c>
+      <c r="F30" t="str">
+        <v>U2</v>
+      </c>
+      <c r="G30" t="str">
+        <v>folio 1r</v>
+      </c>
+      <c r="H30" t="str">
+        <v>main text area</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>Avighnam astu {pcl}</v>
+      </c>
+      <c r="B31" t="str">
+        <v>Avighnam astu {pcl}</v>
+      </c>
+      <c r="C31" t="str">
+        <v>Sanscrit 816</v>
+      </c>
+      <c r="D31" t="str">
+        <v>BnF</v>
+      </c>
+      <c r="E31" t="str">
+        <v>Mitākṣarā</v>
+      </c>
+      <c r="F31" t="str">
+        <v>U2</v>
+      </c>
+      <c r="G31" t="str">
+        <v>folio 1r</v>
+      </c>
+      <c r="H31" t="str">
+        <v>main text area</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>Avighnam astu={pcl}</v>
+      </c>
+      <c r="B32" t="str">
+        <v>Avighnam astu={pcl}</v>
+      </c>
+      <c r="C32" t="str">
+        <v>Sanscrit 816</v>
+      </c>
+      <c r="D32" t="str">
+        <v>BnF</v>
+      </c>
+      <c r="E32" t="str">
+        <v>Mitākṣarā</v>
+      </c>
+      <c r="F32" t="str">
+        <v>U2</v>
+      </c>
+      <c r="G32" t="str">
+        <v>folio 200v</v>
+      </c>
+      <c r="H32" t="str">
+        <v>main text area</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>śrī-gurubhyo¡nma!namaḥ | {pcl}</v>
+      </c>
+      <c r="B33" t="str">
+        <v>śrīgurubhyo nmanamaḥ {pcl}</v>
+      </c>
+      <c r="C33" t="str">
+        <v>Sanscrit 816</v>
+      </c>
+      <c r="D33" t="str">
+        <v>BnF</v>
+      </c>
+      <c r="E33" t="str">
+        <v>Mitākṣarā</v>
+      </c>
+      <c r="F33" t="str">
+        <v>U2</v>
+      </c>
+      <c r="G33" t="str">
+        <v>folio 201r</v>
+      </c>
+      <c r="H33" t="str">
+        <v>main text area</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>śrī-sāṃbaśivārpaṇam astu</v>
+      </c>
+      <c r="B34" t="str">
+        <v>śrīsāṃbaśivārpaṇam astu</v>
+      </c>
+      <c r="C34" t="str">
+        <v>Sanscrit 816</v>
+      </c>
+      <c r="D34" t="str">
+        <v>BnF</v>
+      </c>
+      <c r="E34" t="str">
+        <v>Mitākṣarā</v>
+      </c>
+      <c r="F34" t="str">
+        <v>U2</v>
+      </c>
+      <c r="G34" t="str">
+        <v>folio 201r</v>
+      </c>
+      <c r="H34" t="str">
+        <v>main text area</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>śrī-rāmacandrāya parabrahmaṇe¡nma!namaḥ</v>
+      </c>
+      <c r="B35" t="str">
+        <v>śrīrāmacandrāya parabrahmaṇe nmanamaḥ</v>
+      </c>
+      <c r="C35" t="str">
+        <v>Sanscrit 816</v>
+      </c>
+      <c r="D35" t="str">
+        <v>BnF</v>
+      </c>
+      <c r="E35" t="str">
+        <v>Mitākṣarā</v>
+      </c>
+      <c r="F35" t="str">
+        <v>U2</v>
+      </c>
+      <c r="G35" t="str">
+        <v>folio 201r</v>
+      </c>
+      <c r="H35" t="str">
+        <v>main text area</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>Avighnam astu</v>
+      </c>
+      <c r="B36" t="str">
+        <v>Avighnam astu</v>
+      </c>
+      <c r="C36" t="str">
+        <v>Sanscrit 818</v>
+      </c>
+      <c r="D36" t="str">
+        <v>BnF</v>
+      </c>
+      <c r="E36" t="str">
+        <v>Smṛtimuktāphala (Ducler Dharmaśāstra, volume 2)</v>
+      </c>
+      <c r="F36" t="str">
+        <v>U2</v>
+      </c>
+      <c r="G36" t="str">
+        <v>folio 1r</v>
+      </c>
+      <c r="H36" s="1">
+        <v>36951</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>hariḥ Om· tat sat·</v>
+      </c>
+      <c r="B37" t="str">
+        <v>hariḥ Om· tat sat·</v>
+      </c>
+      <c r="C37" t="str">
+        <v>Sanscrit 818</v>
+      </c>
+      <c r="D37" t="str">
+        <v>BnF</v>
+      </c>
+      <c r="E37" t="str">
+        <v>Smṛtimuktāphala (Ducler Dharmaśāstra, volume 2)</v>
+      </c>
+      <c r="F37" t="str">
+        <v>U2</v>
+      </c>
+      <c r="G37" t="str">
+        <v>folio 87v</v>
+      </c>
+      <c r="H37" t="str">
+        <v>main text area</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>śrī-kṛṣṇārpaṇam astu {pcl}</v>
+      </c>
+      <c r="B38" t="str">
+        <v>śrīkṛṣṇārpaṇam astu {pcl}</v>
+      </c>
+      <c r="C38" t="str">
+        <v>Sanscrit 818</v>
+      </c>
+      <c r="D38" t="str">
+        <v>BnF</v>
+      </c>
+      <c r="E38" t="str">
+        <v>Smṛtimuktāphala (Ducler Dharmaśāstra, volume 2)</v>
+      </c>
+      <c r="F38" t="str">
+        <v>U2</v>
+      </c>
+      <c r="G38" t="str">
+        <v>folio 87v</v>
+      </c>
+      <c r="H38" t="str">
+        <v>main text area</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>śrīmahāsarasvatyai¡nma!namaḥ {pcl}</v>
+      </c>
+      <c r="B39" t="str">
+        <v>śrīmahāsarasvatyai nmanamaḥ {pcl}</v>
+      </c>
+      <c r="C39" t="str">
+        <v>Sanscrit 818</v>
+      </c>
+      <c r="D39" t="str">
+        <v>BnF</v>
+      </c>
+      <c r="E39" t="str">
+        <v>Smṛtimuktāphala (Ducler Dharmaśāstra, volume 2)</v>
+      </c>
+      <c r="F39" t="str">
+        <v>U2</v>
+      </c>
+      <c r="G39" t="str">
+        <v>folio 87v</v>
+      </c>
+      <c r="H39" t="str">
+        <v>main text area</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>Avighnam astu={pcl}</v>
+      </c>
+      <c r="B40" t="str">
+        <v>Avighnam astu={pcl}</v>
+      </c>
+      <c r="C40" t="str">
+        <v>Sanscrit 818</v>
+      </c>
+      <c r="D40" t="str">
+        <v>BnF</v>
+      </c>
+      <c r="E40" t="str">
+        <v>Smṛtimuktāphala (Ducler Dharmaśāstra, volume 2)</v>
+      </c>
+      <c r="F40" t="str">
+        <v>U2</v>
+      </c>
+      <c r="G40" t="str">
+        <v>folio 87v</v>
+      </c>
+      <c r="H40" t="str">
+        <v>main text area</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>śubham astu</v>
+      </c>
+      <c r="B41" t="str">
+        <v>śubham astu</v>
+      </c>
+      <c r="C41" t="str">
+        <v>Sanscrit 818</v>
+      </c>
+      <c r="D41" t="str">
+        <v>BnF</v>
+      </c>
+      <c r="E41" t="str">
+        <v>Smṛtimuktāphala (Ducler Dharmaśāstra, volume 2)</v>
+      </c>
+      <c r="F41" t="str">
+        <v>U4</v>
+      </c>
+      <c r="G41" t="str">
+        <v>folio 88r</v>
+      </c>
+      <c r="H41" t="str">
+        <v>left margin</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>śubham astu</v>
+      </c>
+      <c r="B42" t="str">
+        <v>śubham astu</v>
+      </c>
+      <c r="C42" t="str">
+        <v>Sanscrit 818</v>
+      </c>
+      <c r="D42" t="str">
+        <v>BnF</v>
+      </c>
+      <c r="E42" t="str">
+        <v>Smṛtimuktāphala (Ducler Dharmaśāstra, volume 2)</v>
+      </c>
+      <c r="F42" t="str">
+        <v>U4</v>
+      </c>
+      <c r="G42" t="str">
+        <v>folio 317r</v>
+      </c>
+      <c r="H42" t="str">
+        <v>main text area</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>śrī-gurubhyo namaḥ</v>
+      </c>
+      <c r="B43" t="str">
+        <v>śrīgurubhyo namaḥ</v>
+      </c>
+      <c r="C43" t="str">
+        <v>Sanscrit 818</v>
+      </c>
+      <c r="D43" t="str">
+        <v>BnF</v>
+      </c>
+      <c r="E43" t="str">
+        <v>Smṛtimuktāphala (Ducler Dharmaśāstra, volume 2)</v>
+      </c>
+      <c r="F43" t="str">
+        <v>U4</v>
+      </c>
+      <c r="G43" t="str">
+        <v>folio 317r</v>
+      </c>
+      <c r="H43" t="str">
+        <v>main text area</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
         <v>śrī-mahā-tripurasundaryyai namaḥ {pcl}</v>
       </c>
-      <c r="B10" t="str">
+      <c r="B44" t="str">
         <v>śrīmahātripurasundaryyai namaḥ {pcl}</v>
       </c>
-      <c r="C10" t="str">
+      <c r="C44" t="str">
         <v>Sanscrit 818</v>
       </c>
-      <c r="D10" t="str">
-        <v>BnF</v>
-      </c>
-      <c r="E10" t="str">
+      <c r="D44" t="str">
+        <v>BnF</v>
+      </c>
+      <c r="E44" t="str">
         <v>Smṛtimuktāphala (Ducler Dharmaśāstra, volume 2)</v>
       </c>
-      <c r="F10" t="str">
+      <c r="F44" t="str">
         <v>U4</v>
       </c>
-      <c r="G10" t="str">
+      <c r="G44" t="str">
         <v>folio 317r</v>
       </c>
-      <c r="H10" t="str">
-        <v>main text area</v>
-      </c>
-      <c r="I10">
+      <c r="H44" t="str">
+        <v>main text area</v>
+      </c>
+      <c r="I44">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:I10"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:I44"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/benedictions.xlsx
+++ b/benedictions.xlsx
@@ -375,90 +375,90 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
-        <v>மறுளயா - ஐதரு சம்புறும் - அளறிசெல்லும் ?முலை??? மாரகழிம் - ய?ர யெழுதப்பட்ட அடமவர?ளறுதூவது ள - ள - கொரண மாகணக்கு புழகயானை குமாரன் அய்யாசாமிக்கு சேர்ந்த மாயிருக்கப்படது</v>
+        <v>Ākaiyiṉālē yinta vaḷḷiyammaipuṟāṇattai paṭitta pērum keṭṭa pērum Immaiyilē niṉaitta kāriyamum cittiyām maṟumaiyilē moṣṣamumm [i.e. mokṣamum] uṇṭām – kāṟttikai naṣṣattiram kantar caṣṭi cevvāykkiḻamai cōmavāram itukaḷilē Oru poḻutiruntu mu-k-kāla-k kēṭṭa pērum mu-k-kālap paṭitta pērum eḻutiṉa pērum – Ivarkaḷukk’ ellām kantacu¡pā!vāmi tuṇai-y iruppār</v>
       </c>
       <c r="B1" t="str">
-        <v>maṟul̥ayā aitaru campuṟum al̥aṟicellum ?mulai??? mārakaḻim ya?ra yeḻutappaṭṭa aṭamavara?l̥aṟutūvatu l̥a l̥a koraṇa mākaṇakku puḻakayāṉai kumāraṉ ayyācāmikku cērnta māyirukkappaṭatu</v>
+        <v>Ākaiyiṉālē yinta vaḷḷiyammaipuṟāṇattai paṭitta pērum keṭṭa pērum Immaiyilē niṉaitta kāriyamum cittiyām maṟumaiyilē moṣṣamumm [i.e. mokṣamum] uṇṭām – kāṟttikai naṣṣattiram kantar caṣṭi cevvāykkiḻamai cōmavāram itukaḷilē Oru poḻutiruntu mukkālak kēṭṭa pērum mukkālap paṭitta pērum eḻutiṉa pērum – Ivarkaḷukk’ ellām kantacupāvāmi tuṇaiy iruppār</v>
       </c>
       <c r="C1" t="str">
-        <v>Indien 289</v>
+        <v>Indien 309</v>
       </c>
       <c r="D1" t="str">
         <v>BnF</v>
       </c>
       <c r="E1" t="str">
-        <v>Tiruviḷaiyāṭaṟpurāṇam</v>
+        <v>Vaḷḷiyammaipuṟāṇacāram</v>
+      </c>
+      <c r="F1" t="str">
+        <v>U2</v>
       </c>
       <c r="G1" t="str">
-        <v>2 verso</v>
+        <v>folio 288r</v>
       </c>
       <c r="H1" t="str">
-        <v>beginning</v>
+        <v>left margin</v>
       </c>
       <c r="I1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Ākaiyiṉālē yinta vaḷḷiyammaipuṟāṇattai paṭitta pērum keṭṭa pērum Immaiyilē niṉaitta kāriyamum cittiyām maṟumaiyilē moṣṣamumm [i.e. mokṣamum] uṇṭām – kāṟttikai naṣṣattiram kantar caṣṭi cevvāykkiḻamai cōmavāram itukaḷilē Oru poḻutiruntu mu-k-kāla-k kēṭṭa pērum mu-k-kālap paṭitta pērum eḻutiṉa pērum – Ivarkaḷukk’ ellām kantacu¡pā!vāmi tuṇai-y iruppār</v>
+        <v>vēl uṇṭu viṉai y-illai</v>
       </c>
       <c r="B2" t="str">
-        <v>Ākaiyiṉālē yinta vaḷḷiyammaipuṟāṇattai paṭitta pērum keṭṭa pērum Immaiyilē niṉaitta kāriyamum cittiyām maṟumaiyilē moṣṣamumm [i.e. mokṣamum] uṇṭām – kāṟttikai naṣṣattiram kantar caṣṭi cevvāykkiḻamai cōmavāram itukaḷilē Oru poḻutiruntu mukkālak kēṭṭa pērum mukkālap paṭitta pērum eḻutiṉa pērum – Ivarkaḷukk’ ellām kantacupāvāmi tuṇaiy iruppār</v>
+        <v>vēl uṇṭu viṉai yillai</v>
       </c>
       <c r="C2" t="str">
-        <v>Indien 309</v>
+        <v>Indien 420</v>
       </c>
       <c r="D2" t="str">
         <v>BnF</v>
       </c>
       <c r="E2" t="str">
-        <v>Vaḷḷiyammaipuṟāṇacāram</v>
+        <v>Nālu Mantiri Katai</v>
       </c>
       <c r="F2" t="str">
         <v>U2</v>
       </c>
       <c r="G2" t="str">
-        <v>folio 288r</v>
+        <v>folio 53v</v>
       </c>
       <c r="H2" t="str">
-        <v>left margin</v>
+        <v>main text area</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>vēl uṇṭu viṉai y-illai</v>
+        <v>tēva-ñāṉa-p-piṟakāca-curupam-āy-irukkiṟa parāparavastu-v-ākiṟa pitā-v-ākiya caṟuvēcuraṉukku stottiramum avar-uṭaiya putti-vāṟtai y-ākiṟa y-ēka-cutaṉ-ākiya yēcu-ṉātacuvāmikku y-aṟcaṉaiyum pitāvukkum cutaṉukkum pantaṉam-āy-irukkiṟa tēvaciṉēkam ākiṟa svirittu-cāttuvukku y-ārātaṉaiyun tiṟittuva y-ēkatattu(va)māṉa kaṭavuḷukku namaskāramuñ cakala-paṭaippukaḷu(k)kum āṟutalum īṭeṟṟa y-aṭai māṉamum(āra)kkiṉiyum ākiṟa y-aṟciyaciṣṭa m-māriyavukku-p pukaḻcciyuñ cammaṉacukkaḷamutal-āṉa cakala-y-aṟciyaciṣṭa-pērkaḷukku y-ācaraṇaiyum uṇṭāka-k kaṭavatu({pcl})</v>
       </c>
       <c r="B3" t="str">
-        <v>vēl uṇṭu viṉai yillai</v>
+        <v>tēvañāṉappiṟakācacurupamāyirukkiṟa parāparavastuvākiṟa pitāvākiya caṟuvēcuraṉukku stottiramum avaruṭaiya puttivāṟtai yākiṟa yēkacutaṉākiya yēcuṉātacuvāmikku yaṟcaṉaiyum pitāvukkum cutaṉukkum pantaṉamāyirukkiṟa tēvaciṉēkam ākiṟa svirittucāttuvukku yārātaṉaiyun tiṟittuva yēkatattuvamāṉa kaṭavuḷukku namaskāramuñ cakalapaṭaippukaḷukkum āṟutalum īṭeṟṟa yaṭai māṉamum ārakkiṉiyum ākiṟa yaṟciyaciṣṭa mmāriyavukkup pukaḻcciyuñ cammaṉacukkaḷamutalāṉa cakalayaṟciyaciṣṭapērkaḷukku yācaraṇaiyum uṇṭākak kaṭavatu {pcl}</v>
       </c>
       <c r="C3" t="str">
-        <v>Indien 420</v>
+        <v>Indien 460</v>
       </c>
       <c r="D3" t="str">
         <v>BnF</v>
       </c>
       <c r="E3" t="str">
-        <v>Nālu Mantiri Katai</v>
+        <v>Ñāṉōpatēcam, Kāṇṭam 3 = Nobili's Catechism, Part 3</v>
       </c>
       <c r="F3" t="str">
         <v>U2</v>
       </c>
       <c r="G3" t="str">
-        <v>folio 53v</v>
-      </c>
-      <c r="H3" t="str">
-        <v>main text area</v>
+        <v>folio 366v</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -466,62 +466,36 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>tēva-ñāṉa-p-piṟakāca-curupam-āy-irukkiṟa parāparavastu-v-ākiṟa pitā-v-ākiya caṟuvēcuraṉukku stottiramum avar-uṭaiya putti-vāṟtai y-ākiṟa y-ēka-cutaṉ-ākiya yēcu-ṉātacuvāmikku y-aṟcaṉaiyum pitāvukkum cutaṉukkum pantaṉam-āy-irukkiṟa tēvaciṉēkam ākiṟa svirittu-cāttuvukku y-ārātaṉaiyun tiṟittuva y-ēkatattu(va)māṉa kaṭavuḷukku namaskāramuñ cakala-paṭaippukaḷu(k)kum āṟutalum īṭeṟṟa y-aṭai māṉamum(āra)kkiṉiyum ākiṟa y-aṟciyaciṣṭa m-māriyavukku-p pukaḻcciyuñ cammaṉacukkaḷamutal-āṉa cakala-y-aṟciyaciṣṭa-pērkaḷukku y-ācaraṇaiyum uṇṭāka-k kaṭavatu({pcl})</v>
+        <v>vēḻamukatu viṉāyakaṉait toḻ vāḻvu mikuttu varum {pcs}</v>
       </c>
       <c r="B4" t="str">
-        <v>tēvañāṉappiṟakācacurupamāyirukkiṟa parāparavastuvākiṟa pitāvākiya caṟuvēcuraṉukku stottiramum avaruṭaiya puttivāṟtai yākiṟa yēkacutaṉākiya yēcuṉātacuvāmikku yaṟcaṉaiyum pitāvukkum cutaṉukkum pantaṉamāyirukkiṟa tēvaciṉēkam ākiṟa svirittucāttuvukku yārātaṉaiyun tiṟittuva yēkatattuvamāṉa kaṭavuḷukku namaskāramuñ cakalapaṭaippukaḷukkum āṟutalum īṭeṟṟa yaṭai māṉamum ārakkiṉiyum ākiṟa yaṟciyaciṣṭa mmāriyavukkup pukaḻcciyuñ cammaṉacukkaḷamutalāṉa cakalayaṟciyaciṣṭapērkaḷukku yācaraṇaiyum uṇṭākak kaṭavatu {pcl}</v>
+        <v>vēḻamukatu viṉāyakaṉait toḻ vāḻvu mikuttu varum {pcs}</v>
       </c>
       <c r="C4" t="str">
-        <v>Indien 460</v>
+        <v>Indien 531</v>
       </c>
       <c r="D4" t="str">
         <v>BnF</v>
       </c>
       <c r="E4" t="str">
-        <v>Ñāṉōpatēcam, Kāṇṭam 3 = Nobili's Catechism, Part 3</v>
+        <v>Periya Purāṇam, preceded by the Tiruttoṇṭattokai and the Tiruttoṇṭar Tiruvantāti.</v>
       </c>
       <c r="F4" t="str">
-        <v>U2</v>
+        <v>U1</v>
       </c>
       <c r="G4" t="str">
-        <v>folio 366v</v>
+        <v>folio [1]r</v>
+      </c>
+      <c r="H4" t="str">
+        <v>main text area</v>
       </c>
       <c r="I4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>vēḻamukatu viṉāyakaṉait toḻ vāḻvu mikuttu varum {pcs}</v>
-      </c>
-      <c r="B5" t="str">
-        <v>vēḻamukatu viṉāyakaṉait toḻ vāḻvu mikuttu varum {pcs}</v>
-      </c>
-      <c r="C5" t="str">
-        <v>Indien 531</v>
-      </c>
-      <c r="D5" t="str">
-        <v>BnF</v>
-      </c>
-      <c r="E5" t="str">
-        <v>Periya Purāṇam, preceded by the Tiruttoṇṭattokai and the Tiruttoṇṭar Tiruvantāti.</v>
-      </c>
-      <c r="F5" t="str">
-        <v>U1</v>
-      </c>
-      <c r="G5" t="str">
-        <v>folio [1]r</v>
-      </c>
-      <c r="H5" t="str">
-        <v>main text area</v>
-      </c>
-      <c r="I5">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:I5"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:I4"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/benedictions.xlsx
+++ b/benedictions.xlsx
@@ -375,64 +375,46 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
-      <c r="A1" t="str">
-        <v>Ākaiyiṉālē yinta vaḷḷiyammaipuṟāṇattai paṭitta pērum keṭṭa pērum Immaiyilē niṉaitta kāriyamum cittiyām maṟumaiyilē moṣṣamumm [i.e. mokṣamum] uṇṭām – kāṟttikai naṣṣattiram kantar caṣṭi cevvāykkiḻamai cōmavāram itukaḷilē Oru poḻutiruntu mu-k-kāla-k kēṭṭa pērum mu-k-kālap paṭitta pērum eḻutiṉa pērum – Ivarkaḷukk’ ellām kantacu¡pā!vāmi tuṇai-y iruppār</v>
-      </c>
-      <c r="B1" t="str">
-        <v>Ākaiyiṉālē yinta vaḷḷiyammaipuṟāṇattai paṭitta pērum keṭṭa pērum Immaiyilē niṉaitta kāriyamum cittiyām maṟumaiyilē moṣṣamumm [i.e. mokṣamum] uṇṭām – kāṟttikai naṣṣattiram kantar caṣṭi cevvāykkiḻamai cōmavāram itukaḷilē Oru poḻutiruntu mukkālak kēṭṭa pērum mukkālap paṭitta pērum eḻutiṉa pērum – Ivarkaḷukk’ ellām kantacupāvāmi tuṇaiy iruppār</v>
-      </c>
       <c r="C1" t="str">
-        <v>Indien 309</v>
+        <v>Indien 101</v>
       </c>
       <c r="D1" t="str">
         <v>BnF</v>
       </c>
       <c r="E1" t="str">
-        <v>Vaḷḷiyammaipuṟāṇacāram</v>
+        <v>Agattiyar Aintu</v>
       </c>
       <c r="F1" t="str">
-        <v>U2</v>
-      </c>
-      <c r="G1" t="str">
-        <v>folio 288r</v>
+        <v>U5</v>
       </c>
       <c r="H1" t="str">
-        <v>left margin</v>
+        <v>end</v>
       </c>
       <c r="I1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="str">
-        <v>vēl uṇṭu viṉai y-illai</v>
-      </c>
-      <c r="B2" t="str">
-        <v>vēl uṇṭu viṉai yillai</v>
-      </c>
       <c r="C2" t="str">
-        <v>Indien 420</v>
+        <v>Indien 134</v>
       </c>
       <c r="D2" t="str">
         <v>BnF</v>
       </c>
       <c r="E2" t="str">
-        <v>Nālu Mantiri Katai</v>
+        <v>Cāsttiram Aintu</v>
       </c>
       <c r="F2" t="str">
-        <v>U2</v>
-      </c>
-      <c r="G2" t="str">
-        <v>folio 53v</v>
+        <v>U3</v>
       </c>
       <c r="H2" t="str">
-        <v>main text area</v>
+        <v>marginal</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -440,62 +422,120 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>tēva-ñāṉa-p-piṟakāca-curupam-āy-irukkiṟa parāparavastu-v-ākiṟa pitā-v-ākiya caṟuvēcuraṉukku stottiramum avar-uṭaiya putti-vāṟtai y-ākiṟa y-ēka-cutaṉ-ākiya yēcu-ṉātacuvāmikku y-aṟcaṉaiyum pitāvukkum cutaṉukkum pantaṉam-āy-irukkiṟa tēvaciṉēkam ākiṟa svirittu-cāttuvukku y-ārātaṉaiyun tiṟittuva y-ēkatattu(va)māṉa kaṭavuḷukku namaskāramuñ cakala-paṭaippukaḷu(k)kum āṟutalum īṭeṟṟa y-aṭai māṉamum(āra)kkiṉiyum ākiṟa y-aṟciyaciṣṭa m-māriyavukku-p pukaḻcciyuñ cammaṉacukkaḷamutal-āṉa cakala-y-aṟciyaciṣṭa-pērkaḷukku y-ācaraṇaiyum uṇṭāka-k kaṭavatu({pcl})</v>
+        <v>Ākaiyiṉālē yinta vaḷḷiyammaipuṟāṇattai paṭitta pērum keṭṭa pērum Immaiyilē niṉaitta kāriyamum cittiyām maṟumaiyilē moṣṣamumm [i.e. mokṣamum] uṇṭām – kāṟttikai naṣṣattiram kantar caṣṭi cevvāykkiḻamai cōmavāram itukaḷilē Oru poḻutiruntu mu-k-kāla-k kēṭṭa pērum mu-k-kālap paṭitta pērum eḻutiṉa pērum – Ivarkaḷukk’ ellām kantacu¡pā!vāmi tuṇai-y iruppār</v>
       </c>
       <c r="B3" t="str">
-        <v>tēvañāṉappiṟakācacurupamāyirukkiṟa parāparavastuvākiṟa pitāvākiya caṟuvēcuraṉukku stottiramum avaruṭaiya puttivāṟtai yākiṟa yēkacutaṉākiya yēcuṉātacuvāmikku yaṟcaṉaiyum pitāvukkum cutaṉukkum pantaṉamāyirukkiṟa tēvaciṉēkam ākiṟa svirittucāttuvukku yārātaṉaiyun tiṟittuva yēkatattuvamāṉa kaṭavuḷukku namaskāramuñ cakalapaṭaippukaḷukkum āṟutalum īṭeṟṟa yaṭai māṉamum ārakkiṉiyum ākiṟa yaṟciyaciṣṭa mmāriyavukkup pukaḻcciyuñ cammaṉacukkaḷamutalāṉa cakalayaṟciyaciṣṭapērkaḷukku yācaraṇaiyum uṇṭākak kaṭavatu {pcl}</v>
+        <v>Ākaiyiṉālē yinta vaḷḷiyammaipuṟāṇattai paṭitta pērum keṭṭa pērum Immaiyilē niṉaitta kāriyamum cittiyām maṟumaiyilē moṣṣamumm [i.e. mokṣamum] uṇṭām – kāṟttikai naṣṣattiram kantar caṣṭi cevvāykkiḻamai cōmavāram itukaḷilē Oru poḻutiruntu mukkālak kēṭṭa pērum mukkālap paṭitta pērum eḻutiṉa pērum – Ivarkaḷukk’ ellām kantacupāvāmi tuṇaiy iruppār</v>
       </c>
       <c r="C3" t="str">
-        <v>Indien 460</v>
+        <v>Indien 309</v>
       </c>
       <c r="D3" t="str">
         <v>BnF</v>
       </c>
       <c r="E3" t="str">
-        <v>Ñāṉōpatēcam, Kāṇṭam 3 = Nobili's Catechism, Part 3</v>
+        <v>Vaḷḷiyammaipuṟāṇacāram</v>
       </c>
       <c r="F3" t="str">
         <v>U2</v>
       </c>
       <c r="G3" t="str">
-        <v>folio 366v</v>
+        <v>folio 288r</v>
+      </c>
+      <c r="H3" t="str">
+        <v>left margin</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>vēḻamukatu viṉāyakaṉait toḻ vāḻvu mikuttu varum {pcs}</v>
+        <v>vēl uṇṭu viṉai y-illai</v>
       </c>
       <c r="B4" t="str">
-        <v>vēḻamukatu viṉāyakaṉait toḻ vāḻvu mikuttu varum {pcs}</v>
+        <v>vēl uṇṭu viṉai yillai</v>
       </c>
       <c r="C4" t="str">
-        <v>Indien 531</v>
+        <v>Indien 420</v>
       </c>
       <c r="D4" t="str">
         <v>BnF</v>
       </c>
       <c r="E4" t="str">
-        <v>Periya Purāṇam, preceded by the Tiruttoṇṭattokai and the Tiruttoṇṭar Tiruvantāti.</v>
+        <v>Nālu Mantiri Katai</v>
       </c>
       <c r="F4" t="str">
-        <v>U1</v>
+        <v>U2</v>
       </c>
       <c r="G4" t="str">
-        <v>folio [1]r</v>
+        <v>folio 53v</v>
       </c>
       <c r="H4" t="str">
         <v>main text area</v>
       </c>
       <c r="I4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>tēva-ñāṉa-p-piṟakāca-curupam-āy-irukkiṟa parāparavastu-v-ākiṟa pitā-v-ākiya caṟuvēcuraṉukku stottiramum avar-uṭaiya putti-vāṟtai y-ākiṟa y-ēka-cutaṉ-ākiya yēcu-ṉātacuvāmikku y-aṟcaṉaiyum pitāvukkum cutaṉukkum pantaṉam-āy-irukkiṟa tēvaciṉēkam ākiṟa svirittu-cāttuvukku y-ārātaṉaiyun tiṟittuva y-ēkatattu(va)māṉa kaṭavuḷukku namaskāramuñ cakala-paṭaippukaḷu(k)kum āṟutalum īṭeṟṟa y-aṭai māṉamum(āra)kkiṉiyum ākiṟa y-aṟciyaciṣṭa m-māriyavukku-p pukaḻcciyuñ cammaṉacukkaḷamutal-āṉa cakala-y-aṟciyaciṣṭa-pērkaḷukku y-ācaraṇaiyum uṇṭāka-k kaṭavatu({pcl})</v>
+      </c>
+      <c r="B5" t="str">
+        <v>tēvañāṉappiṟakācacurupamāyirukkiṟa parāparavastuvākiṟa pitāvākiya caṟuvēcuraṉukku stottiramum avaruṭaiya puttivāṟtai yākiṟa yēkacutaṉākiya yēcuṉātacuvāmikku yaṟcaṉaiyum pitāvukkum cutaṉukkum pantaṉamāyirukkiṟa tēvaciṉēkam ākiṟa svirittucāttuvukku yārātaṉaiyun tiṟittuva yēkatattuvamāṉa kaṭavuḷukku namaskāramuñ cakalapaṭaippukaḷukkum āṟutalum īṭeṟṟa yaṭai māṉamum ārakkiṉiyum ākiṟa yaṟciyaciṣṭa mmāriyavukkup pukaḻcciyuñ cammaṉacukkaḷamutalāṉa cakalayaṟciyaciṣṭapērkaḷukku yācaraṇaiyum uṇṭākak kaṭavatu {pcl}</v>
+      </c>
+      <c r="C5" t="str">
+        <v>Indien 460</v>
+      </c>
+      <c r="D5" t="str">
+        <v>BnF</v>
+      </c>
+      <c r="E5" t="str">
+        <v>Ñāṉōpatēcam, Kāṇṭam 3 = Nobili's Catechism, Part 3</v>
+      </c>
+      <c r="F5" t="str">
+        <v>U2</v>
+      </c>
+      <c r="G5" t="str">
+        <v>folio 366v</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>vēḻamukatu viṉāyakaṉait toḻ vāḻvu mikuttu varum {pcs}</v>
+      </c>
+      <c r="B6" t="str">
+        <v>vēḻamukatu viṉāyakaṉait toḻ vāḻvu mikuttu varum {pcs}</v>
+      </c>
+      <c r="C6" t="str">
+        <v>Indien 531</v>
+      </c>
+      <c r="D6" t="str">
+        <v>BnF</v>
+      </c>
+      <c r="E6" t="str">
+        <v>Periya Purāṇam, preceded by the Tiruttoṇṭattokai and the Tiruttoṇṭar Tiruvantāti.</v>
+      </c>
+      <c r="F6" t="str">
+        <v>U1</v>
+      </c>
+      <c r="G6" t="str">
+        <v>folio [1]r</v>
+      </c>
+      <c r="H6" t="str">
+        <v>main text area</v>
+      </c>
+      <c r="I6">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:I4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:I6"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/benedictions.xlsx
+++ b/benedictions.xlsx
@@ -375,46 +375,64 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
+      <c r="A1" t="str">
+        <v>Ākaiyiṉālē yinta vaḷḷiyammaipuṟāṇattai paṭitta pērum keṭṭa pērum Immaiyilē niṉaitta kāriyamum cittiyām maṟumaiyilē moṣṣamumm [i.e. mokṣamum] uṇṭām – kāṟttikai naṣṣattiram kantar caṣṭi cevvāykkiḻamai cōmavāram itukaḷilē Oru poḻutiruntu mu-k-kāla-k kēṭṭa pērum mu-k-kālap paṭitta pērum eḻutiṉa pērum – Ivarkaḷukk’ ellām kantacu¡pā!vāmi tuṇai-y iruppār</v>
+      </c>
+      <c r="B1" t="str">
+        <v>Ākaiyiṉālē yinta vaḷḷiyammaipuṟāṇattai paṭitta pērum keṭṭa pērum Immaiyilē niṉaitta kāriyamum cittiyām maṟumaiyilē moṣṣamumm [i.e. mokṣamum] uṇṭām – kāṟttikai naṣṣattiram kantar caṣṭi cevvāykkiḻamai cōmavāram itukaḷilē Oru poḻutiruntu mukkālak kēṭṭa pērum mukkālap paṭitta pērum eḻutiṉa pērum – Ivarkaḷukk’ ellām kantacupāvāmi tuṇaiy iruppār</v>
+      </c>
       <c r="C1" t="str">
-        <v>Indien 101</v>
+        <v>Indien 309</v>
       </c>
       <c r="D1" t="str">
         <v>BnF</v>
       </c>
       <c r="E1" t="str">
-        <v>Agattiyar Aintu</v>
+        <v>Vaḷḷiyammaipuṟāṇacāram</v>
       </c>
       <c r="F1" t="str">
-        <v>U5</v>
+        <v>U2</v>
+      </c>
+      <c r="G1" t="str">
+        <v>folio 288r</v>
       </c>
       <c r="H1" t="str">
-        <v>end</v>
+        <v>left margin</v>
       </c>
       <c r="I1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2">
+      <c r="A2" t="str">
+        <v>vēl uṇṭu viṉai y-illai</v>
+      </c>
+      <c r="B2" t="str">
+        <v>vēl uṇṭu viṉai yillai</v>
+      </c>
       <c r="C2" t="str">
-        <v>Indien 134</v>
+        <v>Indien 420</v>
       </c>
       <c r="D2" t="str">
         <v>BnF</v>
       </c>
       <c r="E2" t="str">
-        <v>Cāsttiram Aintu</v>
+        <v>Nālu Mantiri Katai</v>
       </c>
       <c r="F2" t="str">
-        <v>U3</v>
+        <v>U2</v>
+      </c>
+      <c r="G2" t="str">
+        <v>folio 53v</v>
       </c>
       <c r="H2" t="str">
-        <v>marginal</v>
+        <v>main text area</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -422,120 +440,62 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Ākaiyiṉālē yinta vaḷḷiyammaipuṟāṇattai paṭitta pērum keṭṭa pērum Immaiyilē niṉaitta kāriyamum cittiyām maṟumaiyilē moṣṣamumm [i.e. mokṣamum] uṇṭām – kāṟttikai naṣṣattiram kantar caṣṭi cevvāykkiḻamai cōmavāram itukaḷilē Oru poḻutiruntu mu-k-kāla-k kēṭṭa pērum mu-k-kālap paṭitta pērum eḻutiṉa pērum – Ivarkaḷukk’ ellām kantacu¡pā!vāmi tuṇai-y iruppār</v>
+        <v>tēva-ñāṉa-p-piṟakāca-curupam-āy-irukkiṟa parāparavastu-v-ākiṟa pitā-v-ākiya caṟuvēcuraṉukku stottiramum avar-uṭaiya putti-vāṟtai y-ākiṟa y-ēka-cutaṉ-ākiya yēcu-ṉātacuvāmikku y-aṟcaṉaiyum pitāvukkum cutaṉukkum pantaṉam-āy-irukkiṟa tēvaciṉēkam ākiṟa svirittu-cāttuvukku y-ārātaṉaiyun tiṟittuva y-ēkatattu(va)māṉa kaṭavuḷukku namaskāramuñ cakala-paṭaippukaḷu(k)kum āṟutalum īṭeṟṟa y-aṭai māṉamum(āra)kkiṉiyum ākiṟa y-aṟciyaciṣṭa m-māriyavukku-p pukaḻcciyuñ cammaṉacukkaḷamutal-āṉa cakala-y-aṟciyaciṣṭa-pērkaḷukku y-ācaraṇaiyum uṇṭāka-k kaṭavatu({pcl})</v>
       </c>
       <c r="B3" t="str">
-        <v>Ākaiyiṉālē yinta vaḷḷiyammaipuṟāṇattai paṭitta pērum keṭṭa pērum Immaiyilē niṉaitta kāriyamum cittiyām maṟumaiyilē moṣṣamumm [i.e. mokṣamum] uṇṭām – kāṟttikai naṣṣattiram kantar caṣṭi cevvāykkiḻamai cōmavāram itukaḷilē Oru poḻutiruntu mukkālak kēṭṭa pērum mukkālap paṭitta pērum eḻutiṉa pērum – Ivarkaḷukk’ ellām kantacupāvāmi tuṇaiy iruppār</v>
+        <v>tēvañāṉappiṟakācacurupamāyirukkiṟa parāparavastuvākiṟa pitāvākiya caṟuvēcuraṉukku stottiramum avaruṭaiya puttivāṟtai yākiṟa yēkacutaṉākiya yēcuṉātacuvāmikku yaṟcaṉaiyum pitāvukkum cutaṉukkum pantaṉamāyirukkiṟa tēvaciṉēkam ākiṟa svirittucāttuvukku yārātaṉaiyun tiṟittuva yēkatattuvamāṉa kaṭavuḷukku namaskāramuñ cakalapaṭaippukaḷukkum āṟutalum īṭeṟṟa yaṭai māṉamum ārakkiṉiyum ākiṟa yaṟciyaciṣṭa mmāriyavukkup pukaḻcciyuñ cammaṉacukkaḷamutalāṉa cakalayaṟciyaciṣṭapērkaḷukku yācaraṇaiyum uṇṭākak kaṭavatu {pcl}</v>
       </c>
       <c r="C3" t="str">
-        <v>Indien 309</v>
+        <v>Indien 460</v>
       </c>
       <c r="D3" t="str">
         <v>BnF</v>
       </c>
       <c r="E3" t="str">
-        <v>Vaḷḷiyammaipuṟāṇacāram</v>
+        <v>Ñāṉōpatēcam, Kāṇṭam 3 = Nobili's Catechism, Part 3</v>
       </c>
       <c r="F3" t="str">
         <v>U2</v>
       </c>
       <c r="G3" t="str">
-        <v>folio 288r</v>
-      </c>
-      <c r="H3" t="str">
-        <v>left margin</v>
+        <v>folio 366v</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>vēl uṇṭu viṉai y-illai</v>
+        <v>vēḻamukatu viṉāyakaṉait toḻ vāḻvu mikuttu varum {pcs}</v>
       </c>
       <c r="B4" t="str">
-        <v>vēl uṇṭu viṉai yillai</v>
+        <v>vēḻamukatu viṉāyakaṉait toḻ vāḻvu mikuttu varum {pcs}</v>
       </c>
       <c r="C4" t="str">
-        <v>Indien 420</v>
+        <v>Indien 531</v>
       </c>
       <c r="D4" t="str">
         <v>BnF</v>
       </c>
       <c r="E4" t="str">
-        <v>Nālu Mantiri Katai</v>
+        <v>Periya Purāṇam, preceded by the Tiruttoṇṭattokai and the Tiruttoṇṭar Tiruvantāti.</v>
       </c>
       <c r="F4" t="str">
-        <v>U2</v>
+        <v>U1</v>
       </c>
       <c r="G4" t="str">
-        <v>folio 53v</v>
+        <v>folio [1]r</v>
       </c>
       <c r="H4" t="str">
         <v>main text area</v>
       </c>
       <c r="I4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>tēva-ñāṉa-p-piṟakāca-curupam-āy-irukkiṟa parāparavastu-v-ākiṟa pitā-v-ākiya caṟuvēcuraṉukku stottiramum avar-uṭaiya putti-vāṟtai y-ākiṟa y-ēka-cutaṉ-ākiya yēcu-ṉātacuvāmikku y-aṟcaṉaiyum pitāvukkum cutaṉukkum pantaṉam-āy-irukkiṟa tēvaciṉēkam ākiṟa svirittu-cāttuvukku y-ārātaṉaiyun tiṟittuva y-ēkatattu(va)māṉa kaṭavuḷukku namaskāramuñ cakala-paṭaippukaḷu(k)kum āṟutalum īṭeṟṟa y-aṭai māṉamum(āra)kkiṉiyum ākiṟa y-aṟciyaciṣṭa m-māriyavukku-p pukaḻcciyuñ cammaṉacukkaḷamutal-āṉa cakala-y-aṟciyaciṣṭa-pērkaḷukku y-ācaraṇaiyum uṇṭāka-k kaṭavatu({pcl})</v>
-      </c>
-      <c r="B5" t="str">
-        <v>tēvañāṉappiṟakācacurupamāyirukkiṟa parāparavastuvākiṟa pitāvākiya caṟuvēcuraṉukku stottiramum avaruṭaiya puttivāṟtai yākiṟa yēkacutaṉākiya yēcuṉātacuvāmikku yaṟcaṉaiyum pitāvukkum cutaṉukkum pantaṉamāyirukkiṟa tēvaciṉēkam ākiṟa svirittucāttuvukku yārātaṉaiyun tiṟittuva yēkatattuvamāṉa kaṭavuḷukku namaskāramuñ cakalapaṭaippukaḷukkum āṟutalum īṭeṟṟa yaṭai māṉamum ārakkiṉiyum ākiṟa yaṟciyaciṣṭa mmāriyavukkup pukaḻcciyuñ cammaṉacukkaḷamutalāṉa cakalayaṟciyaciṣṭapērkaḷukku yācaraṇaiyum uṇṭākak kaṭavatu {pcl}</v>
-      </c>
-      <c r="C5" t="str">
-        <v>Indien 460</v>
-      </c>
-      <c r="D5" t="str">
-        <v>BnF</v>
-      </c>
-      <c r="E5" t="str">
-        <v>Ñāṉōpatēcam, Kāṇṭam 3 = Nobili's Catechism, Part 3</v>
-      </c>
-      <c r="F5" t="str">
-        <v>U2</v>
-      </c>
-      <c r="G5" t="str">
-        <v>folio 366v</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>vēḻamukatu viṉāyakaṉait toḻ vāḻvu mikuttu varum {pcs}</v>
-      </c>
-      <c r="B6" t="str">
-        <v>vēḻamukatu viṉāyakaṉait toḻ vāḻvu mikuttu varum {pcs}</v>
-      </c>
-      <c r="C6" t="str">
-        <v>Indien 531</v>
-      </c>
-      <c r="D6" t="str">
-        <v>BnF</v>
-      </c>
-      <c r="E6" t="str">
-        <v>Periya Purāṇam, preceded by the Tiruttoṇṭattokai and the Tiruttoṇṭar Tiruvantāti.</v>
-      </c>
-      <c r="F6" t="str">
-        <v>U1</v>
-      </c>
-      <c r="G6" t="str">
-        <v>folio [1]r</v>
-      </c>
-      <c r="H6" t="str">
-        <v>main text area</v>
-      </c>
-      <c r="I6">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:I6"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:I4"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/benedictions.xlsx
+++ b/benedictions.xlsx
@@ -375,90 +375,84 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
-      <c r="A1" t="str">
-        <v>Ākaiyiṉālē yinta vaḷḷiyammaipuṟāṇattai paṭitta pērum keṭṭa pērum Immaiyilē niṉaitta kāriyamum cittiyām maṟumaiyilē moṣṣamumm [i.e. mokṣamum] uṇṭām – kāṟttikai naṣṣattiram kantar caṣṭi cevvāykkiḻamai cōmavāram itukaḷilē Oru poḻutiruntu mu-k-kāla-k kēṭṭa pērum mu-k-kālap paṭitta pērum eḻutiṉa pērum – Ivarkaḷukk’ ellām kantacu¡pā!vāmi tuṇai-y iruppār</v>
-      </c>
-      <c r="B1" t="str">
-        <v>Ākaiyiṉālē yinta vaḷḷiyammaipuṟāṇattai paṭitta pērum keṭṭa pērum Immaiyilē niṉaitta kāriyamum cittiyām maṟumaiyilē moṣṣamumm [i.e. mokṣamum] uṇṭām – kāṟttikai naṣṣattiram kantar caṣṭi cevvāykkiḻamai cōmavāram itukaḷilē Oru poḻutiruntu mukkālak kēṭṭa pērum mukkālap paṭitta pērum eḻutiṉa pērum – Ivarkaḷukk’ ellām kantacupāvāmi tuṇaiy iruppār</v>
-      </c>
       <c r="C1" t="str">
-        <v>Indien 309</v>
+        <v>Indien 101</v>
       </c>
       <c r="D1" t="str">
         <v>BnF</v>
       </c>
       <c r="E1" t="str">
-        <v>Vaḷḷiyammaipuṟāṇacāram</v>
+        <v>Collection (5 works by Akattiyar)</v>
       </c>
       <c r="F1" t="str">
-        <v>U2</v>
-      </c>
-      <c r="G1" t="str">
-        <v>folio 288r</v>
+        <v>U5</v>
       </c>
       <c r="H1" t="str">
-        <v>left margin</v>
+        <v>end</v>
       </c>
       <c r="I1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>vēl uṇṭu viṉai y-illai</v>
+        <v>Ākaiyiṉālē yinta vaḷḷiyammaipuṟāṇattai paṭitta pērum keṭṭa pērum Immaiyilē niṉaitta kāriyamum cittiyām maṟumaiyilē moṣṣamumm [i.e. mokṣamum] uṇṭām – kāṟttikai naṣṣattiram kantar caṣṭi cevvāykkiḻamai cōmavāram itukaḷilē Oru poḻutiruntu mu-k-kāla-k kēṭṭa pērum mu-k-kālap paṭitta pērum eḻutiṉa pērum – Ivarkaḷukk’ ellām kantacu¡pā!vāmi tuṇai-y iruppār</v>
       </c>
       <c r="B2" t="str">
-        <v>vēl uṇṭu viṉai yillai</v>
+        <v>Ākaiyiṉālē yinta vaḷḷiyammaipuṟāṇattai paṭitta pērum keṭṭa pērum Immaiyilē niṉaitta kāriyamum cittiyām maṟumaiyilē moṣṣamumm [i.e. mokṣamum] uṇṭām – kāṟttikai naṣṣattiram kantar caṣṭi cevvāykkiḻamai cōmavāram itukaḷilē Oru poḻutiruntu mukkālak kēṭṭa pērum mukkālap paṭitta pērum eḻutiṉa pērum – Ivarkaḷukk’ ellām kantacupāvāmi tuṇaiy iruppār</v>
       </c>
       <c r="C2" t="str">
-        <v>Indien 420</v>
+        <v>Indien 309</v>
       </c>
       <c r="D2" t="str">
         <v>BnF</v>
       </c>
       <c r="E2" t="str">
-        <v>Nālu Mantiri Katai</v>
+        <v>Vaḷḷiyammaipuṟāṇacāram</v>
       </c>
       <c r="F2" t="str">
         <v>U2</v>
       </c>
       <c r="G2" t="str">
-        <v>folio 53v</v>
+        <v>folio 288r</v>
       </c>
       <c r="H2" t="str">
-        <v>main text area</v>
+        <v>left margin</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>tēva-ñāṉa-p-piṟakāca-curupam-āy-irukkiṟa parāparavastu-v-ākiṟa pitā-v-ākiya caṟuvēcuraṉukku stottiramum avar-uṭaiya putti-vāṟtai y-ākiṟa y-ēka-cutaṉ-ākiya yēcu-ṉātacuvāmikku y-aṟcaṉaiyum pitāvukkum cutaṉukkum pantaṉam-āy-irukkiṟa tēvaciṉēkam ākiṟa svirittu-cāttuvukku y-ārātaṉaiyun tiṟittuva y-ēkatattu(va)māṉa kaṭavuḷukku namaskāramuñ cakala-paṭaippukaḷu(k)kum āṟutalum īṭeṟṟa y-aṭai māṉamum(āra)kkiṉiyum ākiṟa y-aṟciyaciṣṭa m-māriyavukku-p pukaḻcciyuñ cammaṉacukkaḷamutal-āṉa cakala-y-aṟciyaciṣṭa-pērkaḷukku y-ācaraṇaiyum uṇṭāka-k kaṭavatu({pcl})</v>
+        <v>vēl uṇṭu viṉai y-illai</v>
       </c>
       <c r="B3" t="str">
-        <v>tēvañāṉappiṟakācacurupamāyirukkiṟa parāparavastuvākiṟa pitāvākiya caṟuvēcuraṉukku stottiramum avaruṭaiya puttivāṟtai yākiṟa yēkacutaṉākiya yēcuṉātacuvāmikku yaṟcaṉaiyum pitāvukkum cutaṉukkum pantaṉamāyirukkiṟa tēvaciṉēkam ākiṟa svirittucāttuvukku yārātaṉaiyun tiṟittuva yēkatattuvamāṉa kaṭavuḷukku namaskāramuñ cakalapaṭaippukaḷukkum āṟutalum īṭeṟṟa yaṭai māṉamum ārakkiṉiyum ākiṟa yaṟciyaciṣṭa mmāriyavukkup pukaḻcciyuñ cammaṉacukkaḷamutalāṉa cakalayaṟciyaciṣṭapērkaḷukku yācaraṇaiyum uṇṭākak kaṭavatu {pcl}</v>
+        <v>vēl uṇṭu viṉai yillai</v>
       </c>
       <c r="C3" t="str">
-        <v>Indien 460</v>
+        <v>Indien 420</v>
       </c>
       <c r="D3" t="str">
         <v>BnF</v>
       </c>
       <c r="E3" t="str">
-        <v>Ñāṉōpatēcam, Kāṇṭam 3 = Nobili's Catechism, Part 3</v>
+        <v>Nālu Mantiri Katai</v>
       </c>
       <c r="F3" t="str">
         <v>U2</v>
       </c>
       <c r="G3" t="str">
-        <v>folio 366v</v>
+        <v>folio 53v</v>
+      </c>
+      <c r="H3" t="str">
+        <v>main text area</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -466,36 +460,62 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>vēḻamukatu viṉāyakaṉait toḻ vāḻvu mikuttu varum {pcs}</v>
+        <v>tēva-ñāṉa-p-piṟakāca-curupam-āy-irukkiṟa parāparavastu-v-ākiṟa pitā-v-ākiya caṟuvēcuraṉukku stottiramum avar-uṭaiya putti-vāṟtai y-ākiṟa y-ēka-cutaṉ-ākiya yēcu-ṉātacuvāmikku y-aṟcaṉaiyum pitāvukkum cutaṉukkum pantaṉam-āy-irukkiṟa tēvaciṉēkam ākiṟa svirittu-cāttuvukku y-ārātaṉaiyun tiṟittuva y-ēkatattu(va)māṉa kaṭavuḷukku namaskāramuñ cakala-paṭaippukaḷu(k)kum āṟutalum īṭeṟṟa y-aṭai māṉamum(āra)kkiṉiyum ākiṟa y-aṟciyaciṣṭa m-māriyavukku-p pukaḻcciyuñ cammaṉacukkaḷamutal-āṉa cakala-y-aṟciyaciṣṭa-pērkaḷukku y-ācaraṇaiyum uṇṭāka-k kaṭavatu({pcl})</v>
       </c>
       <c r="B4" t="str">
-        <v>vēḻamukatu viṉāyakaṉait toḻ vāḻvu mikuttu varum {pcs}</v>
+        <v>tēvañāṉappiṟakācacurupamāyirukkiṟa parāparavastuvākiṟa pitāvākiya caṟuvēcuraṉukku stottiramum avaruṭaiya puttivāṟtai yākiṟa yēkacutaṉākiya yēcuṉātacuvāmikku yaṟcaṉaiyum pitāvukkum cutaṉukkum pantaṉamāyirukkiṟa tēvaciṉēkam ākiṟa svirittucāttuvukku yārātaṉaiyun tiṟittuva yēkatattuvamāṉa kaṭavuḷukku namaskāramuñ cakalapaṭaippukaḷukkum āṟutalum īṭeṟṟa yaṭai māṉamum ārakkiṉiyum ākiṟa yaṟciyaciṣṭa mmāriyavukkup pukaḻcciyuñ cammaṉacukkaḷamutalāṉa cakalayaṟciyaciṣṭapērkaḷukku yācaraṇaiyum uṇṭākak kaṭavatu {pcl}</v>
       </c>
       <c r="C4" t="str">
-        <v>Indien 531</v>
+        <v>Indien 460</v>
       </c>
       <c r="D4" t="str">
         <v>BnF</v>
       </c>
       <c r="E4" t="str">
+        <v>Ñāṉōpatēcam, Kāṇṭam 3 = Nobili's Catechism, Part 3</v>
+      </c>
+      <c r="F4" t="str">
+        <v>U2</v>
+      </c>
+      <c r="G4" t="str">
+        <v>folio 366v</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>vēḻamukatu viṉāyakaṉait toḻ vāḻvu mikuttu varum {pcs}</v>
+      </c>
+      <c r="B5" t="str">
+        <v>vēḻamukatu viṉāyakaṉait toḻ vāḻvu mikuttu varum {pcs}</v>
+      </c>
+      <c r="C5" t="str">
+        <v>Indien 531</v>
+      </c>
+      <c r="D5" t="str">
+        <v>BnF</v>
+      </c>
+      <c r="E5" t="str">
         <v>Periya Purāṇam, preceded by the Tiruttoṇṭattokai and the Tiruttoṇṭar Tiruvantāti.</v>
       </c>
-      <c r="F4" t="str">
+      <c r="F5" t="str">
         <v>U1</v>
       </c>
-      <c r="G4" t="str">
+      <c r="G5" t="str">
         <v>folio [1]r</v>
       </c>
-      <c r="H4" t="str">
+      <c r="H5" t="str">
         <v>main text area</v>
       </c>
-      <c r="I4">
+      <c r="I5">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:I4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:I5"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/benedictions.xlsx
+++ b/benedictions.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -401,84 +401,78 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="str">
-        <v>Ākaiyiṉālē yinta vaḷḷiyammaipuṟāṇattai paṭitta pērum keṭṭa pērum Immaiyilē niṉaitta kāriyamum cittiyām maṟumaiyilē moṣṣamumm [i.e. mokṣamum] uṇṭām – kāṟttikai naṣṣattiram kantar caṣṭi cevvāykkiḻamai cōmavāram itukaḷilē Oru poḻutiruntu mu-k-kāla-k kēṭṭa pērum mu-k-kālap paṭitta pērum eḻutiṉa pērum – Ivarkaḷukk’ ellām kantacu¡pā!vāmi tuṇai-y iruppār</v>
-      </c>
-      <c r="B2" t="str">
-        <v>Ākaiyiṉālē yinta vaḷḷiyammaipuṟāṇattai paṭitta pērum keṭṭa pērum Immaiyilē niṉaitta kāriyamum cittiyām maṟumaiyilē moṣṣamumm [i.e. mokṣamum] uṇṭām – kāṟttikai naṣṣattiram kantar caṣṭi cevvāykkiḻamai cōmavāram itukaḷilē Oru poḻutiruntu mukkālak kēṭṭa pērum mukkālap paṭitta pērum eḻutiṉa pērum – Ivarkaḷukk’ ellām kantacupāvāmi tuṇaiy iruppār</v>
-      </c>
       <c r="C2" t="str">
-        <v>Indien 309</v>
+        <v>Indien 134</v>
       </c>
       <c r="D2" t="str">
         <v>BnF</v>
       </c>
       <c r="E2" t="str">
-        <v>Vaḷḷiyammaipuṟāṇacāram</v>
+        <v>Cāsttiram Aintu</v>
       </c>
       <c r="F2" t="str">
-        <v>U2</v>
-      </c>
-      <c r="G2" t="str">
-        <v>folio 288r</v>
+        <v>U3</v>
       </c>
       <c r="H2" t="str">
-        <v>left margin</v>
+        <v>marginal</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>vēl uṇṭu viṉai y-illai</v>
+        <v>Ākaiyiṉālē yinta vaḷḷiyammaipuṟāṇattai paṭitta pērum keṭṭa pērum Immaiyilē niṉaitta kāriyamum cittiyām maṟumaiyilē moṣṣamumm [i.e. mokṣamum] uṇṭām – kāṟttikai naṣṣattiram kantar caṣṭi cevvāykkiḻamai cōmavāram itukaḷilē Oru poḻutiruntu mu-k-kāla-k kēṭṭa pērum mu-k-kālap paṭitta pērum eḻutiṉa pērum – Ivarkaḷukk’ ellām kantacu¡pā!vāmi tuṇai-y iruppār</v>
       </c>
       <c r="B3" t="str">
-        <v>vēl uṇṭu viṉai yillai</v>
+        <v>Ākaiyiṉālē yinta vaḷḷiyammaipuṟāṇattai paṭitta pērum keṭṭa pērum Immaiyilē niṉaitta kāriyamum cittiyām maṟumaiyilē moṣṣamumm [i.e. mokṣamum] uṇṭām – kāṟttikai naṣṣattiram kantar caṣṭi cevvāykkiḻamai cōmavāram itukaḷilē Oru poḻutiruntu mukkālak kēṭṭa pērum mukkālap paṭitta pērum eḻutiṉa pērum – Ivarkaḷukk’ ellām kantacupāvāmi tuṇaiy iruppār</v>
       </c>
       <c r="C3" t="str">
-        <v>Indien 420</v>
+        <v>Indien 309</v>
       </c>
       <c r="D3" t="str">
         <v>BnF</v>
       </c>
       <c r="E3" t="str">
-        <v>Nālu Mantiri Katai</v>
+        <v>Vaḷḷiyammaipuṟāṇacāram</v>
       </c>
       <c r="F3" t="str">
         <v>U2</v>
       </c>
       <c r="G3" t="str">
-        <v>folio 53v</v>
+        <v>folio 288r</v>
       </c>
       <c r="H3" t="str">
-        <v>main text area</v>
+        <v>left margin</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>tēva-ñāṉa-p-piṟakāca-curupam-āy-irukkiṟa parāparavastu-v-ākiṟa pitā-v-ākiya caṟuvēcuraṉukku stottiramum avar-uṭaiya putti-vāṟtai y-ākiṟa y-ēka-cutaṉ-ākiya yēcu-ṉātacuvāmikku y-aṟcaṉaiyum pitāvukkum cutaṉukkum pantaṉam-āy-irukkiṟa tēvaciṉēkam ākiṟa svirittu-cāttuvukku y-ārātaṉaiyun tiṟittuva y-ēkatattu(va)māṉa kaṭavuḷukku namaskāramuñ cakala-paṭaippukaḷu(k)kum āṟutalum īṭeṟṟa y-aṭai māṉamum(āra)kkiṉiyum ākiṟa y-aṟciyaciṣṭa m-māriyavukku-p pukaḻcciyuñ cammaṉacukkaḷamutal-āṉa cakala-y-aṟciyaciṣṭa-pērkaḷukku y-ācaraṇaiyum uṇṭāka-k kaṭavatu({pcl})</v>
+        <v>vēl uṇṭu viṉai y-illai</v>
       </c>
       <c r="B4" t="str">
-        <v>tēvañāṉappiṟakācacurupamāyirukkiṟa parāparavastuvākiṟa pitāvākiya caṟuvēcuraṉukku stottiramum avaruṭaiya puttivāṟtai yākiṟa yēkacutaṉākiya yēcuṉātacuvāmikku yaṟcaṉaiyum pitāvukkum cutaṉukkum pantaṉamāyirukkiṟa tēvaciṉēkam ākiṟa svirittucāttuvukku yārātaṉaiyun tiṟittuva yēkatattuvamāṉa kaṭavuḷukku namaskāramuñ cakalapaṭaippukaḷukkum āṟutalum īṭeṟṟa yaṭai māṉamum ārakkiṉiyum ākiṟa yaṟciyaciṣṭa mmāriyavukkup pukaḻcciyuñ cammaṉacukkaḷamutalāṉa cakalayaṟciyaciṣṭapērkaḷukku yācaraṇaiyum uṇṭākak kaṭavatu {pcl}</v>
+        <v>vēl uṇṭu viṉai yillai</v>
       </c>
       <c r="C4" t="str">
-        <v>Indien 460</v>
+        <v>Indien 420</v>
       </c>
       <c r="D4" t="str">
         <v>BnF</v>
       </c>
       <c r="E4" t="str">
-        <v>Ñāṉōpatēcam, Kāṇṭam 3 = Nobili's Catechism, Part 3</v>
+        <v>Nālu Mantiri Katai</v>
       </c>
       <c r="F4" t="str">
         <v>U2</v>
       </c>
       <c r="G4" t="str">
-        <v>folio 366v</v>
+        <v>folio 53v</v>
+      </c>
+      <c r="H4" t="str">
+        <v>main text area</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -486,36 +480,62 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>vēḻamukatu viṉāyakaṉait toḻ vāḻvu mikuttu varum {pcs}</v>
+        <v>tēva-ñāṉa-p-piṟakāca-curupam-āy-irukkiṟa parāparavastu-v-ākiṟa pitā-v-ākiya caṟuvēcuraṉukku stottiramum avar-uṭaiya putti-vāṟtai y-ākiṟa y-ēka-cutaṉ-ākiya yēcu-ṉātacuvāmikku y-aṟcaṉaiyum pitāvukkum cutaṉukkum pantaṉam-āy-irukkiṟa tēvaciṉēkam ākiṟa svirittu-cāttuvukku y-ārātaṉaiyun tiṟittuva y-ēkatattu(va)māṉa kaṭavuḷukku namaskāramuñ cakala-paṭaippukaḷu(k)kum āṟutalum īṭeṟṟa y-aṭai māṉamum(āra)kkiṉiyum ākiṟa y-aṟciyaciṣṭa m-māriyavukku-p pukaḻcciyuñ cammaṉacukkaḷamutal-āṉa cakala-y-aṟciyaciṣṭa-pērkaḷukku y-ācaraṇaiyum uṇṭāka-k kaṭavatu({pcl})</v>
       </c>
       <c r="B5" t="str">
-        <v>vēḻamukatu viṉāyakaṉait toḻ vāḻvu mikuttu varum {pcs}</v>
+        <v>tēvañāṉappiṟakācacurupamāyirukkiṟa parāparavastuvākiṟa pitāvākiya caṟuvēcuraṉukku stottiramum avaruṭaiya puttivāṟtai yākiṟa yēkacutaṉākiya yēcuṉātacuvāmikku yaṟcaṉaiyum pitāvukkum cutaṉukkum pantaṉamāyirukkiṟa tēvaciṉēkam ākiṟa svirittucāttuvukku yārātaṉaiyun tiṟittuva yēkatattuvamāṉa kaṭavuḷukku namaskāramuñ cakalapaṭaippukaḷukkum āṟutalum īṭeṟṟa yaṭai māṉamum ārakkiṉiyum ākiṟa yaṟciyaciṣṭa mmāriyavukkup pukaḻcciyuñ cammaṉacukkaḷamutalāṉa cakalayaṟciyaciṣṭapērkaḷukku yācaraṇaiyum uṇṭākak kaṭavatu {pcl}</v>
       </c>
       <c r="C5" t="str">
-        <v>Indien 531</v>
+        <v>Indien 460</v>
       </c>
       <c r="D5" t="str">
         <v>BnF</v>
       </c>
       <c r="E5" t="str">
+        <v>Ñāṉōpatēcam, Kāṇṭam 3 = Nobili's Catechism, Part 3</v>
+      </c>
+      <c r="F5" t="str">
+        <v>U2</v>
+      </c>
+      <c r="G5" t="str">
+        <v>folio 366v</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>vēḻamukatu viṉāyakaṉait toḻ vāḻvu mikuttu varum {pcs}</v>
+      </c>
+      <c r="B6" t="str">
+        <v>vēḻamukatu viṉāyakaṉait toḻ vāḻvu mikuttu varum {pcs}</v>
+      </c>
+      <c r="C6" t="str">
+        <v>Indien 531</v>
+      </c>
+      <c r="D6" t="str">
+        <v>BnF</v>
+      </c>
+      <c r="E6" t="str">
         <v>Periya Purāṇam, preceded by the Tiruttoṇṭattokai and the Tiruttoṇṭar Tiruvantāti.</v>
       </c>
-      <c r="F5" t="str">
+      <c r="F6" t="str">
         <v>U1</v>
       </c>
-      <c r="G5" t="str">
+      <c r="G6" t="str">
         <v>folio [1]r</v>
       </c>
-      <c r="H5" t="str">
+      <c r="H6" t="str">
         <v>main text area</v>
       </c>
-      <c r="I5">
+      <c r="I6">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:I5"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:I6"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/benedictions.xlsx
+++ b/benedictions.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -401,78 +401,84 @@
       </c>
     </row>
     <row r="2">
+      <c r="A2" t="str">
+        <v>Ākaiyiṉālē yinta vaḷḷiyammaipuṟāṇattai paṭitta pērum keṭṭa pērum Immaiyilē niṉaitta kāriyamum cittiyām maṟumaiyilē moṣṣamumm [i.e. mokṣamum] uṇṭām – kāṟttikai naṣṣattiram kantar caṣṭi cevvāykkiḻamai cōmavāram itukaḷilē Oru poḻutiruntu mu-k-kāla-k kēṭṭa pērum mu-k-kālap paṭitta pērum eḻutiṉa pērum – Ivarkaḷukk’ ellām kantacu¡pā!vāmi tuṇai-y iruppār</v>
+      </c>
+      <c r="B2" t="str">
+        <v>Ākaiyiṉālē yinta vaḷḷiyammaipuṟāṇattai paṭitta pērum keṭṭa pērum Immaiyilē niṉaitta kāriyamum cittiyām maṟumaiyilē moṣṣamumm [i.e. mokṣamum] uṇṭām – kāṟttikai naṣṣattiram kantar caṣṭi cevvāykkiḻamai cōmavāram itukaḷilē Oru poḻutiruntu mukkālak kēṭṭa pērum mukkālap paṭitta pērum eḻutiṉa pērum – Ivarkaḷukk’ ellām kantacupāvāmi tuṇaiy iruppār</v>
+      </c>
       <c r="C2" t="str">
-        <v>Indien 134</v>
+        <v>Indien 309</v>
       </c>
       <c r="D2" t="str">
         <v>BnF</v>
       </c>
       <c r="E2" t="str">
-        <v>Cāsttiram Aintu</v>
+        <v>Vaḷḷiyammaipuṟāṇacāram</v>
       </c>
       <c r="F2" t="str">
-        <v>U3</v>
+        <v>U2</v>
+      </c>
+      <c r="G2" t="str">
+        <v>folio 288r</v>
       </c>
       <c r="H2" t="str">
-        <v>marginal</v>
+        <v>left margin</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Ākaiyiṉālē yinta vaḷḷiyammaipuṟāṇattai paṭitta pērum keṭṭa pērum Immaiyilē niṉaitta kāriyamum cittiyām maṟumaiyilē moṣṣamumm [i.e. mokṣamum] uṇṭām – kāṟttikai naṣṣattiram kantar caṣṭi cevvāykkiḻamai cōmavāram itukaḷilē Oru poḻutiruntu mu-k-kāla-k kēṭṭa pērum mu-k-kālap paṭitta pērum eḻutiṉa pērum – Ivarkaḷukk’ ellām kantacu¡pā!vāmi tuṇai-y iruppār</v>
+        <v>vēl uṇṭu viṉai y-illai</v>
       </c>
       <c r="B3" t="str">
-        <v>Ākaiyiṉālē yinta vaḷḷiyammaipuṟāṇattai paṭitta pērum keṭṭa pērum Immaiyilē niṉaitta kāriyamum cittiyām maṟumaiyilē moṣṣamumm [i.e. mokṣamum] uṇṭām – kāṟttikai naṣṣattiram kantar caṣṭi cevvāykkiḻamai cōmavāram itukaḷilē Oru poḻutiruntu mukkālak kēṭṭa pērum mukkālap paṭitta pērum eḻutiṉa pērum – Ivarkaḷukk’ ellām kantacupāvāmi tuṇaiy iruppār</v>
+        <v>vēl uṇṭu viṉai yillai</v>
       </c>
       <c r="C3" t="str">
-        <v>Indien 309</v>
+        <v>Indien 420</v>
       </c>
       <c r="D3" t="str">
         <v>BnF</v>
       </c>
       <c r="E3" t="str">
-        <v>Vaḷḷiyammaipuṟāṇacāram</v>
+        <v>Nālu Mantiri Katai</v>
       </c>
       <c r="F3" t="str">
         <v>U2</v>
       </c>
       <c r="G3" t="str">
-        <v>folio 288r</v>
+        <v>folio 53v</v>
       </c>
       <c r="H3" t="str">
-        <v>left margin</v>
+        <v>main text area</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>vēl uṇṭu viṉai y-illai</v>
+        <v>tēva-ñāṉa-p-piṟakāca-curupam-āy-irukkiṟa parāparavastu-v-ākiṟa pitā-v-ākiya caṟuvēcuraṉukku stottiramum avar-uṭaiya putti-vāṟtai y-ākiṟa y-ēka-cutaṉ-ākiya yēcu-ṉātacuvāmikku y-aṟcaṉaiyum pitāvukkum cutaṉukkum pantaṉam-āy-irukkiṟa tēvaciṉēkam ākiṟa svirittu-cāttuvukku y-ārātaṉaiyun tiṟittuva y-ēkatattu(va)māṉa kaṭavuḷukku namaskāramuñ cakala-paṭaippukaḷu(k)kum āṟutalum īṭeṟṟa y-aṭai māṉamum(āra)kkiṉiyum ākiṟa y-aṟciyaciṣṭa m-māriyavukku-p pukaḻcciyuñ cammaṉacukkaḷamutal-āṉa cakala-y-aṟciyaciṣṭa-pērkaḷukku y-ācaraṇaiyum uṇṭāka-k kaṭavatu({pcl})</v>
       </c>
       <c r="B4" t="str">
-        <v>vēl uṇṭu viṉai yillai</v>
+        <v>tēvañāṉappiṟakācacurupamāyirukkiṟa parāparavastuvākiṟa pitāvākiya caṟuvēcuraṉukku stottiramum avaruṭaiya puttivāṟtai yākiṟa yēkacutaṉākiya yēcuṉātacuvāmikku yaṟcaṉaiyum pitāvukkum cutaṉukkum pantaṉamāyirukkiṟa tēvaciṉēkam ākiṟa svirittucāttuvukku yārātaṉaiyun tiṟittuva yēkatattuvamāṉa kaṭavuḷukku namaskāramuñ cakalapaṭaippukaḷukkum āṟutalum īṭeṟṟa yaṭai māṉamum ārakkiṉiyum ākiṟa yaṟciyaciṣṭa mmāriyavukkup pukaḻcciyuñ cammaṉacukkaḷamutalāṉa cakalayaṟciyaciṣṭapērkaḷukku yācaraṇaiyum uṇṭākak kaṭavatu {pcl}</v>
       </c>
       <c r="C4" t="str">
-        <v>Indien 420</v>
+        <v>Indien 460</v>
       </c>
       <c r="D4" t="str">
         <v>BnF</v>
       </c>
       <c r="E4" t="str">
-        <v>Nālu Mantiri Katai</v>
+        <v>Ñāṉōpatēcam, Kāṇṭam 3 = Nobili's Catechism, Part 3</v>
       </c>
       <c r="F4" t="str">
         <v>U2</v>
       </c>
       <c r="G4" t="str">
-        <v>folio 53v</v>
-      </c>
-      <c r="H4" t="str">
-        <v>main text area</v>
+        <v>folio 366v</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -480,62 +486,36 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>tēva-ñāṉa-p-piṟakāca-curupam-āy-irukkiṟa parāparavastu-v-ākiṟa pitā-v-ākiya caṟuvēcuraṉukku stottiramum avar-uṭaiya putti-vāṟtai y-ākiṟa y-ēka-cutaṉ-ākiya yēcu-ṉātacuvāmikku y-aṟcaṉaiyum pitāvukkum cutaṉukkum pantaṉam-āy-irukkiṟa tēvaciṉēkam ākiṟa svirittu-cāttuvukku y-ārātaṉaiyun tiṟittuva y-ēkatattu(va)māṉa kaṭavuḷukku namaskāramuñ cakala-paṭaippukaḷu(k)kum āṟutalum īṭeṟṟa y-aṭai māṉamum(āra)kkiṉiyum ākiṟa y-aṟciyaciṣṭa m-māriyavukku-p pukaḻcciyuñ cammaṉacukkaḷamutal-āṉa cakala-y-aṟciyaciṣṭa-pērkaḷukku y-ācaraṇaiyum uṇṭāka-k kaṭavatu({pcl})</v>
+        <v>vēḻamukatu viṉāyakaṉait toḻ vāḻvu mikuttu varum {pcs}</v>
       </c>
       <c r="B5" t="str">
-        <v>tēvañāṉappiṟakācacurupamāyirukkiṟa parāparavastuvākiṟa pitāvākiya caṟuvēcuraṉukku stottiramum avaruṭaiya puttivāṟtai yākiṟa yēkacutaṉākiya yēcuṉātacuvāmikku yaṟcaṉaiyum pitāvukkum cutaṉukkum pantaṉamāyirukkiṟa tēvaciṉēkam ākiṟa svirittucāttuvukku yārātaṉaiyun tiṟittuva yēkatattuvamāṉa kaṭavuḷukku namaskāramuñ cakalapaṭaippukaḷukkum āṟutalum īṭeṟṟa yaṭai māṉamum ārakkiṉiyum ākiṟa yaṟciyaciṣṭa mmāriyavukkup pukaḻcciyuñ cammaṉacukkaḷamutalāṉa cakalayaṟciyaciṣṭapērkaḷukku yācaraṇaiyum uṇṭākak kaṭavatu {pcl}</v>
+        <v>vēḻamukatu viṉāyakaṉait toḻ vāḻvu mikuttu varum {pcs}</v>
       </c>
       <c r="C5" t="str">
-        <v>Indien 460</v>
+        <v>Indien 531</v>
       </c>
       <c r="D5" t="str">
         <v>BnF</v>
       </c>
       <c r="E5" t="str">
-        <v>Ñāṉōpatēcam, Kāṇṭam 3 = Nobili's Catechism, Part 3</v>
+        <v>Periya Purāṇam, preceded by the Tiruttoṇṭattokai and the Tiruttoṇṭar Tiruvantāti.</v>
       </c>
       <c r="F5" t="str">
-        <v>U2</v>
+        <v>U1</v>
       </c>
       <c r="G5" t="str">
-        <v>folio 366v</v>
+        <v>folio [1]r</v>
+      </c>
+      <c r="H5" t="str">
+        <v>main text area</v>
       </c>
       <c r="I5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>vēḻamukatu viṉāyakaṉait toḻ vāḻvu mikuttu varum {pcs}</v>
-      </c>
-      <c r="B6" t="str">
-        <v>vēḻamukatu viṉāyakaṉait toḻ vāḻvu mikuttu varum {pcs}</v>
-      </c>
-      <c r="C6" t="str">
-        <v>Indien 531</v>
-      </c>
-      <c r="D6" t="str">
-        <v>BnF</v>
-      </c>
-      <c r="E6" t="str">
-        <v>Periya Purāṇam, preceded by the Tiruttoṇṭattokai and the Tiruttoṇṭar Tiruvantāti.</v>
-      </c>
-      <c r="F6" t="str">
-        <v>U1</v>
-      </c>
-      <c r="G6" t="str">
-        <v>folio [1]r</v>
-      </c>
-      <c r="H6" t="str">
-        <v>main text area</v>
-      </c>
-      <c r="I6">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:I6"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:I5"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/benedictions.xlsx
+++ b/benedictions.xlsx
@@ -381,6 +381,12 @@
   </sheetViews>
   <sheetData>
     <row r="1">
+      <c r="A1" t="str">
+        <v>Āveṉṟē A¡ṣṣca!ṭcarattai Aṟint' uṇart=tatu ṉāḷ tōṟum O¿pe?meṉav Aṣṣarattai Uṟutiyāy maṉatil vayt=tu ṉāṉ eṉṟa Aṣṣarat=tai ṉāḷ tōṟum viṭṭakalātē ṉōṉṟāy niṉṟavaṉē tayavu paṇṇum kaṟttāvē {pcl}</v>
+      </c>
+      <c r="B1" t="str">
+        <v>Āveṉṟē Aṣṣcaṭcarattai Aṟint' uṇarttatu ṉāḷ tōṟum Opemeṉav Aṣṣarattai Uṟutiyāy maṉatil vayttu ṉāṉ eṉṟa Aṣṣarattai ṉāḷ tōṟum viṭṭakalātē ṉōṉṟāy niṉṟavaṉē tayavu paṇṇum kaṟttāvē {pcl}</v>
+      </c>
       <c r="C1" t="str">
         <v>Indien 101</v>
       </c>
@@ -393,8 +399,11 @@
       <c r="F1" t="str">
         <v>U5</v>
       </c>
+      <c r="G1" t="str">
+        <v>folio 154v</v>
+      </c>
       <c r="H1" t="str">
-        <v>end</v>
+        <v>main text area</v>
       </c>
       <c r="I1">
         <v>0</v>

--- a/benedictions.xlsx
+++ b/benedictions.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -522,9 +522,38 @@
         <v>0</v>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>Iḵtu caṭākṣkṣaravantātiyaip pāttu vācittavar murukaṉuṭaiya tuṇai y-uṇṭāci camparamāy vāḻvār ~</v>
+      </c>
+      <c r="B6" t="str">
+        <v>Iḵtu caṭākṣkṣaravantātiyaip pāttu vācittavar murukaṉuṭaiya tuṇai yuṇṭāci camparamāy vāḻvār ~</v>
+      </c>
+      <c r="C6" t="str">
+        <v>Indien 937</v>
+      </c>
+      <c r="D6" t="str">
+        <v>BnF</v>
+      </c>
+      <c r="E6" t="str">
+        <v>Collection (5 items)</v>
+      </c>
+      <c r="F6" t="str">
+        <v>U5</v>
+      </c>
+      <c r="G6" t="str">
+        <v>folio 27r</v>
+      </c>
+      <c r="H6" t="str">
+        <v>column 1</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:I5"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:I6"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/benedictions.xlsx
+++ b/benedictions.xlsx
@@ -375,35 +375,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
-        <v>Āveṉṟē A¡ṣṣca!ṭcarattai Aṟint' uṇart=tatu ṉāḷ tōṟum O¿pe?meṉav Aṣṣarattai Uṟutiyāy maṉatil vayt=tu ṉāṉ eṉṟa Aṣṣarat=tai ṉāḷ tōṟum viṭṭakalātē ṉōṉṟāy niṉṟavaṉē tayavu paṇṇum kaṟttāvē {pcl}</v>
+        <v>அகத்தியமகாமுனிக்கு சுப்பிறமணியசுவாமியார் அனுக்கிறகம்பண்ணினது</v>
       </c>
       <c r="B1" t="str">
-        <v>Āveṉṟē Aṣṣcaṭcarattai Aṟint' uṇarttatu ṉāḷ tōṟum Opemeṉav Aṣṣarattai Uṟutiyāy maṉatil vayttu ṉāṉ eṉṟa Aṣṣarattai ṉāḷ tōṟum viṭṭakalātē ṉōṉṟāy niṉṟavaṉē tayavu paṇṇum kaṟttāvē {pcl}</v>
+        <v>akattiyamakāmuṉikku cuppiṟamaṇiyacuvāmiyār aṉukkiṟakampaṇṇiṉatu</v>
       </c>
       <c r="C1" t="str">
-        <v>Indien 101</v>
+        <v>Indien 12</v>
       </c>
       <c r="D1" t="str">
         <v>BnF</v>
       </c>
       <c r="E1" t="str">
-        <v>Collection (5 works by Akattiyar)</v>
+        <v>Civatarumōttirakāviyam</v>
       </c>
       <c r="F1" t="str">
-        <v>U5</v>
+        <v>U2a</v>
       </c>
       <c r="G1" t="str">
-        <v>folio 154v</v>
+        <v>folio [1]r</v>
       </c>
       <c r="H1" t="str">
-        <v>main text area</v>
+        <v>column 3</v>
       </c>
       <c r="I1">
         <v>0</v>
@@ -411,83 +411,86 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Ākaiyiṉālē yinta vaḷḷiyammaipuṟāṇattai paṭitta pērum keṭṭa pērum Immaiyilē niṉaitta kāriyamum cittiyām maṟumaiyilē moṣṣamumm [i.e. mokṣamum] uṇṭām – kāṟttikai naṣṣattiram kantar caṣṭi cevvāykkiḻamai cōmavāram itukaḷilē Oru poḻutiruntu mu-k-kāla-k kēṭṭa pērum mu-k-kālap paṭitta pērum eḻutiṉa pērum – Ivarkaḷukk’ ellām kantacu¡pā!vāmi tuṇai-y iruppār</v>
+        <v>Āveṉṟē A¡ṣṣca!ṭcarattai Aṟint' uṇart=tatu ṉāḷ tōṟum O¿pe?meṉav Aṣṣarattai Uṟutiyāy maṉatil vayt=tu ṉāṉ eṉṟa Aṣṣarat=tai ṉāḷ tōṟum viṭṭakalātē ṉōṉṟāy niṉṟavaṉē tayavu paṇṇum kaṟttāvē {pcl}</v>
       </c>
       <c r="B2" t="str">
-        <v>Ākaiyiṉālē yinta vaḷḷiyammaipuṟāṇattai paṭitta pērum keṭṭa pērum Immaiyilē niṉaitta kāriyamum cittiyām maṟumaiyilē moṣṣamumm [i.e. mokṣamum] uṇṭām – kāṟttikai naṣṣattiram kantar caṣṭi cevvāykkiḻamai cōmavāram itukaḷilē Oru poḻutiruntu mukkālak kēṭṭa pērum mukkālap paṭitta pērum eḻutiṉa pērum – Ivarkaḷukk’ ellām kantacupāvāmi tuṇaiy iruppār</v>
+        <v>Āveṉṟē Aṣṣcaṭcarattai Aṟint' uṇarttatu ṉāḷ tōṟum Opemeṉav Aṣṣarattai Uṟutiyāy maṉatil vayttu ṉāṉ eṉṟa Aṣṣarattai ṉāḷ tōṟum viṭṭakalātē ṉōṉṟāy niṉṟavaṉē tayavu paṇṇum kaṟttāvē {pcl}</v>
       </c>
       <c r="C2" t="str">
-        <v>Indien 309</v>
+        <v>Indien 101</v>
       </c>
       <c r="D2" t="str">
         <v>BnF</v>
       </c>
       <c r="E2" t="str">
-        <v>Vaḷḷiyammaipuṟāṇacāram</v>
+        <v>Collection (5 works by Akattiyar)</v>
       </c>
       <c r="F2" t="str">
-        <v>U2</v>
+        <v>U5</v>
       </c>
       <c r="G2" t="str">
-        <v>folio 288r</v>
+        <v>folio 154v</v>
       </c>
       <c r="H2" t="str">
-        <v>left margin</v>
+        <v>main text area</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>vēl uṇṭu viṉai y-illai</v>
+        <v>Ākaiyiṉālē yinta vaḷḷiyammaipuṟāṇattai paṭitta pērum keṭṭa pērum Immaiyilē niṉaitta kāriyamum cittiyām maṟumaiyilē moṣṣamumm [i.e. mokṣamum] uṇṭām – kāṟttikai naṣṣattiram kantar caṣṭi cevvāykkiḻamai cōmavāram itukaḷilē Oru poḻutiruntu mu-k-kāla-k kēṭṭa pērum mu-k-kālap paṭitta pērum eḻutiṉa pērum – Ivarkaḷukk’ ellām kantacu¡pā!vāmi tuṇai-y iruppār</v>
       </c>
       <c r="B3" t="str">
-        <v>vēl uṇṭu viṉai yillai</v>
+        <v>Ākaiyiṉālē yinta vaḷḷiyammaipuṟāṇattai paṭitta pērum keṭṭa pērum Immaiyilē niṉaitta kāriyamum cittiyām maṟumaiyilē moṣṣamumm [i.e. mokṣamum] uṇṭām – kāṟttikai naṣṣattiram kantar caṣṭi cevvāykkiḻamai cōmavāram itukaḷilē Oru poḻutiruntu mukkālak kēṭṭa pērum mukkālap paṭitta pērum eḻutiṉa pērum – Ivarkaḷukk’ ellām kantacupāvāmi tuṇaiy iruppār</v>
       </c>
       <c r="C3" t="str">
-        <v>Indien 420</v>
+        <v>Indien 309</v>
       </c>
       <c r="D3" t="str">
         <v>BnF</v>
       </c>
       <c r="E3" t="str">
-        <v>Nālu Mantiri Katai</v>
+        <v>Vaḷḷiyammaipuṟāṇacāram</v>
       </c>
       <c r="F3" t="str">
         <v>U2</v>
       </c>
       <c r="G3" t="str">
-        <v>folio 53v</v>
+        <v>folio 288r</v>
       </c>
       <c r="H3" t="str">
-        <v>main text area</v>
+        <v>left margin</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>tēva-ñāṉa-p-piṟakāca-curupam-āy-irukkiṟa parāparavastu-v-ākiṟa pitā-v-ākiya caṟuvēcuraṉukku stottiramum avar-uṭaiya putti-vāṟtai y-ākiṟa y-ēka-cutaṉ-ākiya yēcu-ṉātacuvāmikku y-aṟcaṉaiyum pitāvukkum cutaṉukkum pantaṉam-āy-irukkiṟa tēvaciṉēkam ākiṟa svirittu-cāttuvukku y-ārātaṉaiyun tiṟittuva y-ēkatattu(va)māṉa kaṭavuḷukku namaskāramuñ cakala-paṭaippukaḷu(k)kum āṟutalum īṭeṟṟa y-aṭai māṉamum(āra)kkiṉiyum ākiṟa y-aṟciyaciṣṭa m-māriyavukku-p pukaḻcciyuñ cammaṉacukkaḷamutal-āṉa cakala-y-aṟciyaciṣṭa-pērkaḷukku y-ācaraṇaiyum uṇṭāka-k kaṭavatu({pcl})</v>
+        <v>vēl uṇṭu viṉai y-illai</v>
       </c>
       <c r="B4" t="str">
-        <v>tēvañāṉappiṟakācacurupamāyirukkiṟa parāparavastuvākiṟa pitāvākiya caṟuvēcuraṉukku stottiramum avaruṭaiya puttivāṟtai yākiṟa yēkacutaṉākiya yēcuṉātacuvāmikku yaṟcaṉaiyum pitāvukkum cutaṉukkum pantaṉamāyirukkiṟa tēvaciṉēkam ākiṟa svirittucāttuvukku yārātaṉaiyun tiṟittuva yēkatattuvamāṉa kaṭavuḷukku namaskāramuñ cakalapaṭaippukaḷukkum āṟutalum īṭeṟṟa yaṭai māṉamum ārakkiṉiyum ākiṟa yaṟciyaciṣṭa mmāriyavukkup pukaḻcciyuñ cammaṉacukkaḷamutalāṉa cakalayaṟciyaciṣṭapērkaḷukku yācaraṇaiyum uṇṭākak kaṭavatu {pcl}</v>
+        <v>vēl uṇṭu viṉai yillai</v>
       </c>
       <c r="C4" t="str">
-        <v>Indien 460</v>
+        <v>Indien 420</v>
       </c>
       <c r="D4" t="str">
         <v>BnF</v>
       </c>
       <c r="E4" t="str">
-        <v>Ñāṉōpatēcam, Kāṇṭam 3 = Nobili's Catechism, Part 3</v>
+        <v>Nālu Mantiri Katai</v>
       </c>
       <c r="F4" t="str">
         <v>U2</v>
       </c>
       <c r="G4" t="str">
-        <v>folio 366v</v>
+        <v>folio 53v</v>
+      </c>
+      <c r="H4" t="str">
+        <v>main text area</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -495,28 +498,25 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>vēḻamukatu viṉāyakaṉait toḻ vāḻvu mikuttu varum {pcs}</v>
+        <v>tēva-ñāṉa-p-piṟakāca-curupam-āy-irukkiṟa parāparavastu-v-ākiṟa pitā-v-ākiya caṟuvēcuraṉukku stottiramum avar-uṭaiya putti-vāṟtai y-ākiṟa y-ēka-cutaṉ-ākiya yēcu-ṉātacuvāmikku y-aṟcaṉaiyum pitāvukkum cutaṉukkum pantaṉam-āy-irukkiṟa tēvaciṉēkam ākiṟa svirittu-cāttuvukku y-ārātaṉaiyun tiṟittuva y-ēkatattu(va)māṉa kaṭavuḷukku namaskāramuñ cakala-paṭaippukaḷu(k)kum āṟutalum īṭeṟṟa y-aṭai māṉamum(āra)kkiṉiyum ākiṟa y-aṟciyaciṣṭa m-māriyavukku-p pukaḻcciyuñ cammaṉacukkaḷamutal-āṉa cakala-y-aṟciyaciṣṭa-pērkaḷukku y-ācaraṇaiyum uṇṭāka-k kaṭavatu({pcl})</v>
       </c>
       <c r="B5" t="str">
-        <v>vēḻamukatu viṉāyakaṉait toḻ vāḻvu mikuttu varum {pcs}</v>
+        <v>tēvañāṉappiṟakācacurupamāyirukkiṟa parāparavastuvākiṟa pitāvākiya caṟuvēcuraṉukku stottiramum avaruṭaiya puttivāṟtai yākiṟa yēkacutaṉākiya yēcuṉātacuvāmikku yaṟcaṉaiyum pitāvukkum cutaṉukkum pantaṉamāyirukkiṟa tēvaciṉēkam ākiṟa svirittucāttuvukku yārātaṉaiyun tiṟittuva yēkatattuvamāṉa kaṭavuḷukku namaskāramuñ cakalapaṭaippukaḷukkum āṟutalum īṭeṟṟa yaṭai māṉamum ārakkiṉiyum ākiṟa yaṟciyaciṣṭa mmāriyavukkup pukaḻcciyuñ cammaṉacukkaḷamutalāṉa cakalayaṟciyaciṣṭapērkaḷukku yācaraṇaiyum uṇṭākak kaṭavatu {pcl}</v>
       </c>
       <c r="C5" t="str">
-        <v>Indien 531</v>
+        <v>Indien 460</v>
       </c>
       <c r="D5" t="str">
         <v>BnF</v>
       </c>
       <c r="E5" t="str">
-        <v>Periya Purāṇam, preceded by the Tiruttoṇṭattokai and the Tiruttoṇṭar Tiruvantāti.</v>
+        <v>Ñāṉōpatēcam, Kāṇṭam 3 = Nobili's Catechism, Part 3</v>
       </c>
       <c r="F5" t="str">
-        <v>U1</v>
+        <v>U2</v>
       </c>
       <c r="G5" t="str">
-        <v>folio [1]r</v>
-      </c>
-      <c r="H5" t="str">
-        <v>main text area</v>
+        <v>folio 366v</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -524,36 +524,65 @@
     </row>
     <row r="6">
       <c r="A6" t="str">
+        <v>vēḻamukatu viṉāyakaṉait toḻ vāḻvu mikuttu varum {pcs}</v>
+      </c>
+      <c r="B6" t="str">
+        <v>vēḻamukatu viṉāyakaṉait toḻ vāḻvu mikuttu varum {pcs}</v>
+      </c>
+      <c r="C6" t="str">
+        <v>Indien 531</v>
+      </c>
+      <c r="D6" t="str">
+        <v>BnF</v>
+      </c>
+      <c r="E6" t="str">
+        <v>Periya Purāṇam, preceded by the Tiruttoṇṭattokai and the Tiruttoṇṭar Tiruvantāti.</v>
+      </c>
+      <c r="F6" t="str">
+        <v>U1</v>
+      </c>
+      <c r="G6" t="str">
+        <v>folio [1]r</v>
+      </c>
+      <c r="H6" t="str">
+        <v>main text area</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
         <v>Iḵtu caṭākṣkṣaravantātiyaip pāttu vācittavar murukaṉuṭaiya tuṇai y-uṇṭāci camparamāy vāḻvār ~</v>
       </c>
-      <c r="B6" t="str">
+      <c r="B7" t="str">
         <v>Iḵtu caṭākṣkṣaravantātiyaip pāttu vācittavar murukaṉuṭaiya tuṇai yuṇṭāci camparamāy vāḻvār ~</v>
       </c>
-      <c r="C6" t="str">
+      <c r="C7" t="str">
         <v>Indien 937</v>
       </c>
-      <c r="D6" t="str">
-        <v>BnF</v>
-      </c>
-      <c r="E6" t="str">
+      <c r="D7" t="str">
+        <v>BnF</v>
+      </c>
+      <c r="E7" t="str">
         <v>Collection (5 items)</v>
       </c>
-      <c r="F6" t="str">
+      <c r="F7" t="str">
         <v>U5</v>
       </c>
-      <c r="G6" t="str">
+      <c r="G7" t="str">
         <v>folio 27r</v>
       </c>
-      <c r="H6" t="str">
+      <c r="H7" t="str">
         <v>column 1</v>
       </c>
-      <c r="I6">
+      <c r="I7">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:I6"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:I7"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/benedictions.xlsx
+++ b/benedictions.xlsx
@@ -402,9 +402,6 @@
       <c r="G1" t="str">
         <v>folio [1]r</v>
       </c>
-      <c r="H1" t="str">
-        <v>column 3</v>
-      </c>
       <c r="I1">
         <v>0</v>
       </c>

--- a/benedictions.xlsx
+++ b/benedictions.xlsx
@@ -513,7 +513,7 @@
         <v>U2</v>
       </c>
       <c r="G5" t="str">
-        <v>folio 366v</v>
+        <v>folio 365v</v>
       </c>
       <c r="I5">
         <v>0</v>

--- a/benedictions.xlsx
+++ b/benedictions.xlsx
@@ -382,10 +382,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
-        <v>அகத்தியமகாமுனிக்கு சுப்பிறமணியசுவாமியார் அனுக்கிறகம்பண்ணினது</v>
+        <v>Akattiyamakāmuṉikku cuppiṟamaṇiyacuvāmiyār aṉukkiṟakampaṇṇiṉatu</v>
       </c>
       <c r="B1" t="str">
-        <v>akattiyamakāmuṉikku cuppiṟamaṇiyacuvāmiyār aṉukkiṟakampaṇṇiṉatu</v>
+        <v>Akattiyamakāmuṉikku cuppiṟamaṇiyacuvāmiyār aṉukkiṟakampaṇṇiṉatu</v>
       </c>
       <c r="C1" t="str">
         <v>Indien 12</v>

--- a/benedictions.xlsx
+++ b/benedictions.xlsx
@@ -42,8 +42,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -375,7 +376,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -521,28 +522,28 @@
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>vēḻamukatu viṉāyakaṉait toḻ vāḻvu mikuttu varum {pcs}</v>
+        <v>+ muṉṉāḷakkavi rācamārel voruṅkūṭi Akameytta vīramāmuṉiyākiya rācaricitayiriyaṉāta periyakurucuvāmiyavarkaḷ tiruvāyiṉ Amuṟtam poḻinta naṉṉītivuraiyāṉ tēmpāvaṇiyai vācittārāy antavarkaḷ vekulāpa yōkkiyam peṟuvārkaḷ yinta vaccirāyutamāṉa pōsttakattai vācikkiṟavarkaḷukkum kēḷkkiṟavarkaḻukkum vekupiṟaiyōcaṉam uṇṭām +</v>
       </c>
       <c r="B6" t="str">
-        <v>vēḻamukatu viṉāyakaṉait toḻ vāḻvu mikuttu varum {pcs}</v>
+        <v>+ muṉṉāḷakkavi rācamārel voruṅkūṭi Akameytta vīramāmuṉiyākiya rācaricitayiriyaṉāta periyakurucuvāmiyavarkaḷ tiruvāyiṉ Amuṟtam poḻinta naṉṉītivuraiyāṉ tēmpāvaṇiyai vācittārāy antavarkaḷ vekulāpa yōkkiyam peṟuvārkaḷ yinta vaccirāyutamāṉa pōsttakattai vācikkiṟavarkaḷukkum kēḷkkiṟavarkaḻukkum vekupiṟaiyōcaṉam uṇṭām +</v>
       </c>
       <c r="C6" t="str">
-        <v>Indien 531</v>
+        <v>Indien 474</v>
       </c>
       <c r="D6" t="str">
         <v>BnF</v>
       </c>
       <c r="E6" t="str">
-        <v>Periya Purāṇam, preceded by the Tiruttoṇṭattokai and the Tiruttoṇṭar Tiruvantāti.</v>
+        <v>Tēmpāvaṇi (Paṭalam 1-12)</v>
       </c>
       <c r="F6" t="str">
-        <v>U1</v>
+        <v>U2</v>
       </c>
       <c r="G6" t="str">
         <v>folio [1]r</v>
       </c>
-      <c r="H6" t="str">
-        <v>main text area</v>
+      <c r="H6" s="1">
+        <v>36951</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -550,36 +551,91 @@
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>Iḵtu caṭākṣkṣaravantātiyaip pāttu vācittavar murukaṉuṭaiya tuṇai y-uṇṭāci camparamāy vāḻvār ~</v>
+        <v>invocation to the Holy Family Ecumaricūcē yeṉakk’ utavit tuṇai yāyirum + + +</v>
       </c>
       <c r="B7" t="str">
-        <v>Iḵtu caṭākṣkṣaravantātiyaip pāttu vācittavar murukaṉuṭaiya tuṇai yuṇṭāci camparamāy vāḻvār ~</v>
+        <v>Ecumaricūcē yeṉakk’ utavit tuṇai yāyirum + + +</v>
       </c>
       <c r="C7" t="str">
-        <v>Indien 937</v>
+        <v>Indien 475</v>
       </c>
       <c r="D7" t="str">
         <v>BnF</v>
       </c>
       <c r="E7" t="str">
-        <v>Collection (5 items)</v>
+        <v>Tēmpāvaṇi (Paṭalam 13-24)</v>
       </c>
       <c r="F7" t="str">
-        <v>U5</v>
+        <v>U2</v>
       </c>
       <c r="G7" t="str">
-        <v>folio 27r</v>
-      </c>
-      <c r="H7" t="str">
-        <v>column 1</v>
+        <v>folio 267v</v>
       </c>
       <c r="I7">
         <v>1</v>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>vēḻamukatu viṉāyakaṉait toḻ vāḻvu mikuttu varum {pcs}</v>
+      </c>
+      <c r="B8" t="str">
+        <v>vēḻamukatu viṉāyakaṉait toḻ vāḻvu mikuttu varum {pcs}</v>
+      </c>
+      <c r="C8" t="str">
+        <v>Indien 531</v>
+      </c>
+      <c r="D8" t="str">
+        <v>BnF</v>
+      </c>
+      <c r="E8" t="str">
+        <v>Periya Purāṇam, preceded by the Tiruttoṇṭattokai and the Tiruttoṇṭar Tiruvantāti.</v>
+      </c>
+      <c r="F8" t="str">
+        <v>U1</v>
+      </c>
+      <c r="G8" t="str">
+        <v>folio [1]r</v>
+      </c>
+      <c r="H8" t="str">
+        <v>main text area</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>Iḵtu caṭākṣkṣaravantātiyaip pāttu vācittavar murukaṉuṭaiya tuṇai y-uṇṭāci camparamāy vāḻvār ~</v>
+      </c>
+      <c r="B9" t="str">
+        <v>Iḵtu caṭākṣkṣaravantātiyaip pāttu vācittavar murukaṉuṭaiya tuṇai yuṇṭāci camparamāy vāḻvār ~</v>
+      </c>
+      <c r="C9" t="str">
+        <v>Indien 937</v>
+      </c>
+      <c r="D9" t="str">
+        <v>BnF</v>
+      </c>
+      <c r="E9" t="str">
+        <v>Collection (5 items)</v>
+      </c>
+      <c r="F9" t="str">
+        <v>U5</v>
+      </c>
+      <c r="G9" t="str">
+        <v>folio 27r</v>
+      </c>
+      <c r="H9" t="str">
+        <v>column 1</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:I7"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:I9"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/benedictions.xlsx
+++ b/benedictions.xlsx
@@ -403,6 +403,9 @@
       <c r="G1" t="str">
         <v>folio [1]r</v>
       </c>
+      <c r="H1" t="str">
+        <v>column 3</v>
+      </c>
       <c r="I1">
         <v>0</v>
       </c>
@@ -543,7 +546,7 @@
         <v>folio [1]r</v>
       </c>
       <c r="H6" s="1">
-        <v>36951</v>
+        <v>36952</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -627,7 +630,7 @@
         <v>folio 27r</v>
       </c>
       <c r="H9" t="str">
-        <v>column 1</v>
+        <v>column 3</v>
       </c>
       <c r="I9">
         <v>1</v>

--- a/benedictions.xlsx
+++ b/benedictions.xlsx
@@ -376,7 +376,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -470,28 +470,25 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>vēl uṇṭu viṉai y-illai</v>
+        <v>civaṉ aṭiyārkaḷ cintaiyil vāḻun</v>
       </c>
       <c r="B4" t="str">
-        <v>vēl uṇṭu viṉai yillai</v>
+        <v>civaṉ aṭiyārkaḷ cintaiyil vāḻun</v>
       </c>
       <c r="C4" t="str">
-        <v>Indien 420</v>
+        <v>Indien 362</v>
       </c>
       <c r="D4" t="str">
         <v>BnF</v>
       </c>
       <c r="E4" t="str">
-        <v>Nālu Mantiri Katai</v>
+        <v>MTM: 3 poems in praise of gods</v>
       </c>
       <c r="F4" t="str">
-        <v>U2</v>
+        <v>U3</v>
       </c>
       <c r="G4" t="str">
-        <v>folio 53v</v>
-      </c>
-      <c r="H4" t="str">
-        <v>main text area</v>
+        <v>folio 17r</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -499,25 +496,28 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>tēva-ñāṉa-p-piṟakāca-curupam-āy-irukkiṟa parāparavastu-v-ākiṟa pitā-v-ākiya caṟuvēcuraṉukku stottiramum avar-uṭaiya putti-vāṟtai y-ākiṟa y-ēka-cutaṉ-ākiya yēcu-ṉātacuvāmikku y-aṟcaṉaiyum pitāvukkum cutaṉukkum pantaṉam-āy-irukkiṟa tēvaciṉēkam ākiṟa svirittu-cāttuvukku y-ārātaṉaiyun tiṟittuva y-ēkatattu(va)māṉa kaṭavuḷukku namaskāramuñ cakala-paṭaippukaḷu(k)kum āṟutalum īṭeṟṟa y-aṭai māṉamum(āra)kkiṉiyum ākiṟa y-aṟciyaciṣṭa m-māriyavukku-p pukaḻcciyuñ cammaṉacukkaḷamutal-āṉa cakala-y-aṟciyaciṣṭa-pērkaḷukku y-ācaraṇaiyum uṇṭāka-k kaṭavatu({pcl})</v>
+        <v>vēl uṇṭu viṉai y-illai</v>
       </c>
       <c r="B5" t="str">
-        <v>tēvañāṉappiṟakācacurupamāyirukkiṟa parāparavastuvākiṟa pitāvākiya caṟuvēcuraṉukku stottiramum avaruṭaiya puttivāṟtai yākiṟa yēkacutaṉākiya yēcuṉātacuvāmikku yaṟcaṉaiyum pitāvukkum cutaṉukkum pantaṉamāyirukkiṟa tēvaciṉēkam ākiṟa svirittucāttuvukku yārātaṉaiyun tiṟittuva yēkatattuvamāṉa kaṭavuḷukku namaskāramuñ cakalapaṭaippukaḷukkum āṟutalum īṭeṟṟa yaṭai māṉamum ārakkiṉiyum ākiṟa yaṟciyaciṣṭa mmāriyavukkup pukaḻcciyuñ cammaṉacukkaḷamutalāṉa cakalayaṟciyaciṣṭapērkaḷukku yācaraṇaiyum uṇṭākak kaṭavatu {pcl}</v>
+        <v>vēl uṇṭu viṉai yillai</v>
       </c>
       <c r="C5" t="str">
-        <v>Indien 460</v>
+        <v>Indien 420</v>
       </c>
       <c r="D5" t="str">
         <v>BnF</v>
       </c>
       <c r="E5" t="str">
-        <v>Ñāṉōpatēcam, Kāṇṭam 3 = Nobili's Catechism, Part 3</v>
+        <v>Nālu Mantiri Katai</v>
       </c>
       <c r="F5" t="str">
         <v>U2</v>
       </c>
       <c r="G5" t="str">
-        <v>folio 365v</v>
+        <v>folio 53v</v>
+      </c>
+      <c r="H5" t="str">
+        <v>main text area</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -525,28 +525,25 @@
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>+ muṉṉāḷakkavi rācamārel voruṅkūṭi Akameytta vīramāmuṉiyākiya rācaricitayiriyaṉāta periyakurucuvāmiyavarkaḷ tiruvāyiṉ Amuṟtam poḻinta naṉṉītivuraiyāṉ tēmpāvaṇiyai vācittārāy antavarkaḷ vekulāpa yōkkiyam peṟuvārkaḷ yinta vaccirāyutamāṉa pōsttakattai vācikkiṟavarkaḷukkum kēḷkkiṟavarkaḻukkum vekupiṟaiyōcaṉam uṇṭām +</v>
+        <v>tēva-ñāṉa-p-piṟakāca-curupam-āy-irukkiṟa parāparavastu-v-ākiṟa pitā-v-ākiya caṟuvēcuraṉukku stottiramum avar-uṭaiya putti-vāṟtai y-ākiṟa y-ēka-cutaṉ-ākiya yēcu-ṉātacuvāmikku y-aṟcaṉaiyum pitāvukkum cutaṉukkum pantaṉam-āy-irukkiṟa tēvaciṉēkam ākiṟa svirittu-cāttuvukku y-ārātaṉaiyun tiṟittuva y-ēkatattu(va)māṉa kaṭavuḷukku namaskāramuñ cakala-paṭaippukaḷu(k)kum āṟutalum īṭeṟṟa y-aṭai māṉamum(āra)kkiṉiyum ākiṟa y-aṟciyaciṣṭa m-māriyavukku-p pukaḻcciyuñ cammaṉacukkaḷamutal-āṉa cakala-y-aṟciyaciṣṭa-pērkaḷukku y-ācaraṇaiyum uṇṭāka-k kaṭavatu({pcl})</v>
       </c>
       <c r="B6" t="str">
-        <v>+ muṉṉāḷakkavi rācamārel voruṅkūṭi Akameytta vīramāmuṉiyākiya rācaricitayiriyaṉāta periyakurucuvāmiyavarkaḷ tiruvāyiṉ Amuṟtam poḻinta naṉṉītivuraiyāṉ tēmpāvaṇiyai vācittārāy antavarkaḷ vekulāpa yōkkiyam peṟuvārkaḷ yinta vaccirāyutamāṉa pōsttakattai vācikkiṟavarkaḷukkum kēḷkkiṟavarkaḻukkum vekupiṟaiyōcaṉam uṇṭām +</v>
+        <v>tēvañāṉappiṟakācacurupamāyirukkiṟa parāparavastuvākiṟa pitāvākiya caṟuvēcuraṉukku stottiramum avaruṭaiya puttivāṟtai yākiṟa yēkacutaṉākiya yēcuṉātacuvāmikku yaṟcaṉaiyum pitāvukkum cutaṉukkum pantaṉamāyirukkiṟa tēvaciṉēkam ākiṟa svirittucāttuvukku yārātaṉaiyun tiṟittuva yēkatattuvamāṉa kaṭavuḷukku namaskāramuñ cakalapaṭaippukaḷukkum āṟutalum īṭeṟṟa yaṭai māṉamum ārakkiṉiyum ākiṟa yaṟciyaciṣṭa mmāriyavukkup pukaḻcciyuñ cammaṉacukkaḷamutalāṉa cakalayaṟciyaciṣṭapērkaḷukku yācaraṇaiyum uṇṭākak kaṭavatu {pcl}</v>
       </c>
       <c r="C6" t="str">
-        <v>Indien 474</v>
+        <v>Indien 460</v>
       </c>
       <c r="D6" t="str">
         <v>BnF</v>
       </c>
       <c r="E6" t="str">
-        <v>Tēmpāvaṇi (Paṭalam 1-12)</v>
+        <v>Ñāṉōpatēcam, Kāṇṭam 3 = Nobili's Catechism, Part 3</v>
       </c>
       <c r="F6" t="str">
         <v>U2</v>
       </c>
       <c r="G6" t="str">
-        <v>folio [1]r</v>
-      </c>
-      <c r="H6" s="1">
-        <v>36952</v>
+        <v>folio 365v</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -554,91 +551,120 @@
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>invocation to the Holy Family Ecumaricūcē yeṉakk’ utavit tuṇai yāyirum + + +</v>
+        <v>+ muṉṉāḷakkavi rācamārel voruṅkūṭi Akameytta vīramāmuṉiyākiya rācaricitayiriyaṉāta periyakurucuvāmiyavarkaḷ tiruvāyiṉ Amuṟtam poḻinta naṉṉītivuraiyāṉ tēmpāvaṇiyai vācittārāy antavarkaḷ vekulāpa yōkkiyam peṟuvārkaḷ yinta vaccirāyutamāṉa pōsttakattai vācikkiṟavarkaḷukkum kēḷkkiṟavarkaḻukkum vekupiṟaiyōcaṉam uṇṭām +</v>
       </c>
       <c r="B7" t="str">
-        <v>Ecumaricūcē yeṉakk’ utavit tuṇai yāyirum + + +</v>
+        <v>+ muṉṉāḷakkavi rācamārel voruṅkūṭi Akameytta vīramāmuṉiyākiya rācaricitayiriyaṉāta periyakurucuvāmiyavarkaḷ tiruvāyiṉ Amuṟtam poḻinta naṉṉītivuraiyāṉ tēmpāvaṇiyai vācittārāy antavarkaḷ vekulāpa yōkkiyam peṟuvārkaḷ yinta vaccirāyutamāṉa pōsttakattai vācikkiṟavarkaḷukkum kēḷkkiṟavarkaḻukkum vekupiṟaiyōcaṉam uṇṭām +</v>
       </c>
       <c r="C7" t="str">
-        <v>Indien 475</v>
+        <v>Indien 474</v>
       </c>
       <c r="D7" t="str">
         <v>BnF</v>
       </c>
       <c r="E7" t="str">
-        <v>Tēmpāvaṇi (Paṭalam 13-24)</v>
+        <v>Tēmpāvaṇi (Paṭalam 1-12)</v>
       </c>
       <c r="F7" t="str">
         <v>U2</v>
       </c>
       <c r="G7" t="str">
-        <v>folio 267v</v>
+        <v>folio [1]r</v>
+      </c>
+      <c r="H7" s="1">
+        <v>36952</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>vēḻamukatu viṉāyakaṉait toḻ vāḻvu mikuttu varum {pcs}</v>
+        <v>invocation to the Holy Family Ecumaricūcē yeṉakk’ utavit tuṇai yāyirum + + +</v>
       </c>
       <c r="B8" t="str">
-        <v>vēḻamukatu viṉāyakaṉait toḻ vāḻvu mikuttu varum {pcs}</v>
+        <v>Ecumaricūcē yeṉakk’ utavit tuṇai yāyirum + + +</v>
       </c>
       <c r="C8" t="str">
-        <v>Indien 531</v>
+        <v>Indien 475</v>
       </c>
       <c r="D8" t="str">
         <v>BnF</v>
       </c>
       <c r="E8" t="str">
-        <v>Periya Purāṇam, preceded by the Tiruttoṇṭattokai and the Tiruttoṇṭar Tiruvantāti.</v>
+        <v>Tēmpāvaṇi (Paṭalam 13-24)</v>
       </c>
       <c r="F8" t="str">
-        <v>U1</v>
+        <v>U2</v>
       </c>
       <c r="G8" t="str">
-        <v>folio [1]r</v>
-      </c>
-      <c r="H8" t="str">
-        <v>main text area</v>
+        <v>folio 267v</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
+        <v>vēḻamukatu viṉāyakaṉait toḻ vāḻvu mikuttu varum {pcs}</v>
+      </c>
+      <c r="B9" t="str">
+        <v>vēḻamukatu viṉāyakaṉait toḻ vāḻvu mikuttu varum {pcs}</v>
+      </c>
+      <c r="C9" t="str">
+        <v>Indien 531</v>
+      </c>
+      <c r="D9" t="str">
+        <v>BnF</v>
+      </c>
+      <c r="E9" t="str">
+        <v>Periya Purāṇam, preceded by the Tiruttoṇṭattokai and the Tiruttoṇṭar Tiruvantāti.</v>
+      </c>
+      <c r="F9" t="str">
+        <v>U1</v>
+      </c>
+      <c r="G9" t="str">
+        <v>folio [1]r</v>
+      </c>
+      <c r="H9" t="str">
+        <v>main text area</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
         <v>Iḵtu caṭākṣkṣaravantātiyaip pāttu vācittavar murukaṉuṭaiya tuṇai y-uṇṭāci camparamāy vāḻvār ~</v>
       </c>
-      <c r="B9" t="str">
+      <c r="B10" t="str">
         <v>Iḵtu caṭākṣkṣaravantātiyaip pāttu vācittavar murukaṉuṭaiya tuṇai yuṇṭāci camparamāy vāḻvār ~</v>
       </c>
-      <c r="C9" t="str">
+      <c r="C10" t="str">
         <v>Indien 937</v>
       </c>
-      <c r="D9" t="str">
-        <v>BnF</v>
-      </c>
-      <c r="E9" t="str">
+      <c r="D10" t="str">
+        <v>BnF</v>
+      </c>
+      <c r="E10" t="str">
         <v>Collection (5 items)</v>
       </c>
-      <c r="F9" t="str">
+      <c r="F10" t="str">
         <v>U5</v>
       </c>
-      <c r="G9" t="str">
+      <c r="G10" t="str">
         <v>folio 27r</v>
       </c>
-      <c r="H9" t="str">
+      <c r="H10" t="str">
         <v>column 3</v>
       </c>
-      <c r="I9">
+      <c r="I10">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:I9"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:I10"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/benedictions.xlsx
+++ b/benedictions.xlsx
@@ -516,9 +516,6 @@
       <c r="G5" t="str">
         <v>folio 53v</v>
       </c>
-      <c r="H5" t="str">
-        <v>main text area</v>
-      </c>
       <c r="I5">
         <v>0</v>
       </c>

--- a/benedictions.xlsx
+++ b/benedictions.xlsx
@@ -383,10 +383,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
-        <v>Akattiyamakāmuṉikku cuppiṟamaṇiyacuvāmiyār aṉukkiṟakampaṇṇiṉatu</v>
+        <v>Aka­tti­ya­ma­kā­muṉikku cu­ppiṟamaṇiya­cu­vā­mi­yār aṉukkiṟaka­mpaṇṇiṉatu</v>
       </c>
       <c r="B1" t="str">
-        <v>Akattiyamakāmuṉikku cuppiṟamaṇiyacuvāmiyār aṉukkiṟakampaṇṇiṉatu</v>
+        <v>Aka­tti­ya­ma­kā­muṉikku cu­ppiṟamaṇiya­cu­vā­mi­yār aṉukkiṟaka­mpaṇṇiṉatu</v>
       </c>
       <c r="C1" t="str">
         <v>Indien 12</v>
@@ -412,10 +412,10 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Āveṉṟē A¡ṣṣca!ṭcarattai Aṟint' uṇart=tatu ṉāḷ tōṟum O¿pe?meṉav Aṣṣarattai Uṟutiyāy maṉatil vayt=tu ṉāṉ eṉṟa Aṣṣarat=tai ṉāḷ tōṟum viṭṭakalātē ṉōṉṟāy niṉṟavaṉē tayavu paṇṇum kaṟttāvē {pcl}</v>
+        <v>Āveṉṟē A¡ṣṣca!ṭcara­ttai Aṟint' uṇart=tatu ṉāḷ tōṟum O¿pe?meṉav Aṣṣara­ttai Uṟuti­yāy maṉatil vayt=tu ṉāṉ eṉṟa Aṣṣarat=tai ṉāḷ tōṟum viṭṭaka­lā­tē ṉō­ṉṟāy niṉṟavaṉē ta­ya­vu paṇṇum kaṟttā­vē {pcl}</v>
       </c>
       <c r="B2" t="str">
-        <v>Āveṉṟē Aṣṣcaṭcarattai Aṟint' uṇarttatu ṉāḷ tōṟum Opemeṉav Aṣṣarattai Uṟutiyāy maṉatil vayttu ṉāṉ eṉṟa Aṣṣarattai ṉāḷ tōṟum viṭṭakalātē ṉōṉṟāy niṉṟavaṉē tayavu paṇṇum kaṟttāvē {pcl}</v>
+        <v>Āveṉṟē Aṣṣcaṭca­ra­ttai Aṟint' uṇartta­tu ṉāḷ tōṟum Ope­meṉav Aṣṣara­ttai Uṟuti­yāy maṉatil va­yttu ṉāṉ eṉṟa Aṣṣara­ttai ṉāḷ tōṟum viṭṭaka­lā­tē ṉō­ṉṟāy niṉṟavaṉē ta­ya­vu paṇṇum kaṟttā­vē {pcl}</v>
       </c>
       <c r="C2" t="str">
         <v>Indien 101</v>
@@ -441,10 +441,10 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Ākaiyiṉālē yinta vaḷḷiyammaipuṟāṇattai paṭitta pērum keṭṭa pērum Immaiyilē niṉaitta kāriyamum cittiyām maṟumaiyilē moṣṣamumm [i.e. mokṣamum] uṇṭām – kāṟttikai naṣṣattiram kantar caṣṭi cevvāykkiḻamai cōmavāram itukaḷilē Oru poḻutiruntu mu-k-kāla-k kēṭṭa pērum mu-k-kālap paṭitta pērum eḻutiṉa pērum – Ivarkaḷukk’ ellām kantacu¡pā!vāmi tuṇai-y iruppār</v>
+        <v>Ākai­yiṉālē yi­nta vaḷḷiya­mmai­puṟāṇattai paṭitta pē­rum keṭṭa pē­rum Immai­yi­lē niṉai­tta kā­ri­ya­mum ci­tti­yām maṟumai­yi­lē moṣṣamu­mm [i.e. mokṣamum] uṇṭām – kāṟtti­kai naṣṣatti­ram ka­ntar caṣṭi ce­vvā­ykkiḻamai cōma­vā­ram itu­kaḷilē Oru poḻuti­ru­ntu mu-k-kāla-k kēṭṭa pē­rum mu-k-kā­lap paṭitta pē­rum eḻutiṉa pē­rum – Iva­rkaḷukk’ ellām ka­nta­cu¡pā!vāmi tuṇai-y iru­ppār</v>
       </c>
       <c r="B3" t="str">
-        <v>Ākaiyiṉālē yinta vaḷḷiyammaipuṟāṇattai paṭitta pērum keṭṭa pērum Immaiyilē niṉaitta kāriyamum cittiyām maṟumaiyilē moṣṣamumm [i.e. mokṣamum] uṇṭām – kāṟttikai naṣṣattiram kantar caṣṭi cevvāykkiḻamai cōmavāram itukaḷilē Oru poḻutiruntu mukkālak kēṭṭa pērum mukkālap paṭitta pērum eḻutiṉa pērum – Ivarkaḷukk’ ellām kantacupāvāmi tuṇaiy iruppār</v>
+        <v>Ākai­yiṉālē yi­nta vaḷḷiya­mmai­puṟāṇattai paṭitta pē­rum keṭṭa pē­rum Immai­yi­lē niṉai­tta kā­ri­ya­mum ci­tti­yām maṟumai­yi­lē moṣṣamu­mm [i.e. mokṣamum] uṇṭām – kāṟtti­kai naṣṣatti­ram ka­ntar caṣṭi ce­vvā­ykkiḻamai cōma­vā­ram itu­kaḷilē Oru poḻuti­ru­ntu mu­kkā­lak kēṭṭa pē­rum mu­kkā­lap paṭitta pē­rum eḻutiṉa pē­rum – Iva­rkaḷukk’ ellām ka­nta­cu­pā­vā­mi tuṇaiy iru­ppār</v>
       </c>
       <c r="C3" t="str">
         <v>Indien 309</v>
@@ -470,10 +470,10 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>civaṉ aṭiyārkaḷ cintaiyil vāḻun</v>
+        <v>civaṉ aṭiyā­rkaḷ ci­ntai­yil vāḻun</v>
       </c>
       <c r="B4" t="str">
-        <v>civaṉ aṭiyārkaḷ cintaiyil vāḻun</v>
+        <v>civaṉ aṭiyā­rkaḷ ci­ntai­yil vāḻun</v>
       </c>
       <c r="C4" t="str">
         <v>Indien 362</v>
@@ -499,7 +499,7 @@
         <v>vēl uṇṭu viṉai y-illai</v>
       </c>
       <c r="B5" t="str">
-        <v>vēl uṇṭu viṉai yillai</v>
+        <v>vēl uṇṭu viṉai yi­llai</v>
       </c>
       <c r="C5" t="str">
         <v>Indien 420</v>
@@ -522,10 +522,10 @@
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>tēva-ñāṉa-p-piṟakāca-curupam-āy-irukkiṟa parāparavastu-v-ākiṟa pitā-v-ākiya caṟuvēcuraṉukku stottiramum avar-uṭaiya putti-vāṟtai y-ākiṟa y-ēka-cutaṉ-ākiya yēcu-ṉātacuvāmikku y-aṟcaṉaiyum pitāvukkum cutaṉukkum pantaṉam-āy-irukkiṟa tēvaciṉēkam ākiṟa svirittu-cāttuvukku y-ārātaṉaiyun tiṟittuva y-ēkatattu(va)māṉa kaṭavuḷukku namaskāramuñ cakala-paṭaippukaḷu(k)kum āṟutalum īṭeṟṟa y-aṭai māṉamum(āra)kkiṉiyum ākiṟa y-aṟciyaciṣṭa m-māriyavukku-p pukaḻcciyuñ cammaṉacukkaḷamutal-āṉa cakala-y-aṟciyaciṣṭa-pērkaḷukku y-ācaraṇaiyum uṇṭāka-k kaṭavatu({pcl})</v>
+        <v>tēva-ñāṉa-p-piṟakā­ca-cu­ru­pam-āy-iru­kkiṟa pa­rā­pa­ra­va­stu-v-ākiṟa pitā-v-āki­ya caṟuvē­cu­raṉukku sto­tti­ra­mum avar-uṭaiya pu­tti-vāṟtai y-ākiṟa y-ēka-cutaṉ-āki­ya yēcu-ṉāta­cu­vā­mi­kku y-aṟcaṉai­yum pi­tā­vu­kkum cutaṉukkum pa­ntaṉam-āy-iru­kkiṟa tē­va­ciṉēkam ākiṟa svi­ri­ttu-cā­ttu­vu­kku y-ārā­taṉai­yun tiṟittu­va y-ēka­ta­ttu(va)māṉa kaṭavuḷukku na­ma­skā­ra­muñ ca­ka­la-paṭai­ppu­kaḷu(k)kum āṟuta­lum īṭeṟṟa y-aṭai māṉamum(āra)kkiṉiyum ākiṟa y-aṟci­ya­ciṣṭa m-mā­ri­ya­vu­kku-p pukaḻcci­yuñ ca­mmaṉacu­kkaḷamu­tal-āṉa ca­ka­la-y-aṟci­ya­ciṣṭa-pē­rkaḷukku y-āca­raṇai­yum uṇṭāka-k kaṭava­tu({pcl})</v>
       </c>
       <c r="B6" t="str">
-        <v>tēvañāṉappiṟakācacurupamāyirukkiṟa parāparavastuvākiṟa pitāvākiya caṟuvēcuraṉukku stottiramum avaruṭaiya puttivāṟtai yākiṟa yēkacutaṉākiya yēcuṉātacuvāmikku yaṟcaṉaiyum pitāvukkum cutaṉukkum pantaṉamāyirukkiṟa tēvaciṉēkam ākiṟa svirittucāttuvukku yārātaṉaiyun tiṟittuva yēkatattuvamāṉa kaṭavuḷukku namaskāramuñ cakalapaṭaippukaḷukkum āṟutalum īṭeṟṟa yaṭai māṉamum ārakkiṉiyum ākiṟa yaṟciyaciṣṭa mmāriyavukkup pukaḻcciyuñ cammaṉacukkaḷamutalāṉa cakalayaṟciyaciṣṭapērkaḷukku yācaraṇaiyum uṇṭākak kaṭavatu {pcl}</v>
+        <v>tē­va­ñāṉappiṟakā­ca­cu­ru­pa­mā­yi­ru­kkiṟa pa­rā­pa­ra­va­stu­vā­kiṟa pi­tā­vā­ki­ya caṟuvē­cu­raṉukku sto­tti­ra­mum ava­ruṭaiya pu­tti­vāṟtai yākiṟa yē­ka­cu­taṉāki­ya yēcuṉāta­cu­vā­mi­kku yaṟcaṉai­yum pi­tā­vu­kkum cutaṉukkum pa­ntaṉamā­yi­ru­kkiṟa tē­va­ciṉēkam ākiṟa svi­ri­ttu­cā­ttu­vu­kku yā­rā­taṉai­yun tiṟittu­va yē­ka­ta­ttu­va­māṉa kaṭavuḷukku na­ma­skā­ra­muñ ca­ka­la­paṭai­ppu­kaḷukkum āṟuta­lum īṭeṟṟa yaṭai māṉamum āra­kkiṉiyum ākiṟa yaṟci­ya­ciṣṭa mmā­ri­ya­vu­kkup pukaḻcci­yuñ ca­mmaṉacu­kkaḷamu­ta­lāṉa ca­ka­la­yaṟci­ya­ciṣṭapē­rkaḷukku yā­ca­raṇai­yum uṇṭākak kaṭava­tu {pcl}</v>
       </c>
       <c r="C6" t="str">
         <v>Indien 460</v>
@@ -548,10 +548,10 @@
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>+ muṉṉāḷakkavi rācamārel voruṅkūṭi Akameytta vīramāmuṉiyākiya rācaricitayiriyaṉāta periyakurucuvāmiyavarkaḷ tiruvāyiṉ Amuṟtam poḻinta naṉṉītivuraiyāṉ tēmpāvaṇiyai vācittārāy antavarkaḷ vekulāpa yōkkiyam peṟuvārkaḷ yinta vaccirāyutamāṉa pōsttakattai vācikkiṟavarkaḷukkum kēḷkkiṟavarkaḻukkum vekupiṟaiyōcaṉam uṇṭām +</v>
+        <v>+ muṉṉāḷakka­vi rā­ca­mā­rel voruṅkūṭi Aka­me­ytta vī­ra­mā­muṉiyā­ki­ya rā­ca­ri­ci­ta­yi­ri­yaṉāta pe­ri­ya­ku­ru­cu­vā­mi­ya­va­rkaḷ ti­ru­vā­yiṉ Amuṟtam poḻinta naṉṉīti­vu­rai­yāṉ tē­mpā­vaṇiyai vā­ci­ttā­rāy anta­va­rkaḷ ve­ku­lā­pa yōkki­yam peṟuvā­rkaḷ yi­nta va­cci­rā­yu­ta­māṉa pōstta­ka­ttai vā­ci­kkiṟava­rkaḷukkum kēḷkkiṟava­rkaḻukkum ve­ku­piṟaiyōcaṉam uṇṭām +</v>
       </c>
       <c r="B7" t="str">
-        <v>+ muṉṉāḷakkavi rācamārel voruṅkūṭi Akameytta vīramāmuṉiyākiya rācaricitayiriyaṉāta periyakurucuvāmiyavarkaḷ tiruvāyiṉ Amuṟtam poḻinta naṉṉītivuraiyāṉ tēmpāvaṇiyai vācittārāy antavarkaḷ vekulāpa yōkkiyam peṟuvārkaḷ yinta vaccirāyutamāṉa pōsttakattai vācikkiṟavarkaḷukkum kēḷkkiṟavarkaḻukkum vekupiṟaiyōcaṉam uṇṭām +</v>
+        <v>+ muṉṉāḷakka­vi rā­ca­mā­rel voruṅkūṭi Aka­me­ytta vī­ra­mā­muṉiyā­ki­ya rā­ca­ri­ci­ta­yi­ri­yaṉāta pe­ri­ya­ku­ru­cu­vā­mi­ya­va­rkaḷ ti­ru­vā­yiṉ Amuṟtam poḻinta naṉṉīti­vu­rai­yāṉ tē­mpā­vaṇiyai vā­ci­ttā­rāy anta­va­rkaḷ ve­ku­lā­pa yōkki­yam peṟuvā­rkaḷ yi­nta va­cci­rā­yu­ta­māṉa pōstta­ka­ttai vā­ci­kkiṟava­rkaḷukkum kēḷkkiṟava­rkaḻukkum ve­ku­piṟaiyōcaṉam uṇṭām +</v>
       </c>
       <c r="C7" t="str">
         <v>Indien 474</v>
@@ -577,10 +577,10 @@
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>invocation to the Holy Family Ecumaricūcē yeṉakk’ utavit tuṇai yāyirum + + +</v>
+        <v>invo­ca­ti­on to the Holy Fa­mi­ly Ecu­ma­ri­cū­cē yeṉakk’ uta­vit tuṇai yā­yi­rum + + +</v>
       </c>
       <c r="B8" t="str">
-        <v>Ecumaricūcē yeṉakk’ utavit tuṇai yāyirum + + +</v>
+        <v>Ecu­ma­ri­cū­cē yeṉakk’ uta­vit tuṇai yā­yi­rum + + +</v>
       </c>
       <c r="C8" t="str">
         <v>Indien 475</v>
@@ -603,10 +603,10 @@
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>vēḻamukatu viṉāyakaṉait toḻ vāḻvu mikuttu varum {pcs}</v>
+        <v>vēḻamu­ka­tu viṉāya­kaṉait toḻ vāḻvu mi­ku­ttu va­rum {pcs}</v>
       </c>
       <c r="B9" t="str">
-        <v>vēḻamukatu viṉāyakaṉait toḻ vāḻvu mikuttu varum {pcs}</v>
+        <v>vēḻamu­ka­tu viṉāya­kaṉait toḻ vāḻvu mi­ku­ttu va­rum {pcs}</v>
       </c>
       <c r="C9" t="str">
         <v>Indien 531</v>
@@ -632,10 +632,10 @@
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>Iḵtu caṭākṣkṣaravantātiyaip pāttu vācittavar murukaṉuṭaiya tuṇai y-uṇṭāci camparamāy vāḻvār ~</v>
+        <v>Iḵtu caṭākṣkṣara­va­ntā­ti­yaip pā­ttu vā­ci­tta­var mu­ru­kaṉuṭaiya tuṇai y-uṇṭāci ca­mpa­ra­māy vāḻvār ~</v>
       </c>
       <c r="B10" t="str">
-        <v>Iḵtu caṭākṣkṣaravantātiyaip pāttu vācittavar murukaṉuṭaiya tuṇai yuṇṭāci camparamāy vāḻvār ~</v>
+        <v>Iḵtu caṭākṣkṣara­va­ntā­ti­yaip pā­ttu vā­ci­tta­var mu­ru­kaṉuṭaiya tuṇai yuṇṭāci ca­mpa­ra­māy vāḻvār ~</v>
       </c>
       <c r="C10" t="str">
         <v>Indien 937</v>

--- a/benedictions.xlsx
+++ b/benedictions.xlsx
@@ -383,10 +383,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
-        <v>Aka­tti­ya­ma­kā­muṉikku cu­ppiṟamaṇiya­cu­vā­mi­yār aṉukkiṟaka­mpaṇṇiṉatu</v>
+        <v>Akattiyamakāmuṉikku cuppiṟamaṇiyacuvāmiyār aṉukkiṟakampaṇṇiṉatu</v>
       </c>
       <c r="B1" t="str">
-        <v>Aka­tti­ya­ma­kā­muṉikku cu­ppiṟamaṇiya­cu­vā­mi­yār aṉukkiṟaka­mpaṇṇiṉatu</v>
+        <v>Akattiyamakāmuṉikku cuppiṟamaṇiyacuvāmiyār aṉukkiṟakampaṇṇiṉatu</v>
       </c>
       <c r="C1" t="str">
         <v>Indien 12</v>
@@ -412,10 +412,10 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Āveṉṟē A¡ṣṣca!ṭcara­ttai Aṟint' uṇart=tatu ṉāḷ tōṟum O¿pe?meṉav Aṣṣara­ttai Uṟuti­yāy maṉatil vayt=tu ṉāṉ eṉṟa Aṣṣarat=tai ṉāḷ tōṟum viṭṭaka­lā­tē ṉō­ṉṟāy niṉṟavaṉē ta­ya­vu paṇṇum kaṟttā­vē {pcl}</v>
+        <v>Āveṉṟē A¡ṣṣca!ṭcarattai Aṟint' uṇart=tatu ṉāḷ tōṟum O¿pe?meṉav Aṣṣarattai Uṟutiyāy maṉatil vayt=tu ṉāṉ eṉṟa Aṣṣarat=tai ṉāḷ tōṟum viṭṭakalātē ṉōṉṟāy niṉṟavaṉē tayavu paṇṇum kaṟttāvē {pcl}</v>
       </c>
       <c r="B2" t="str">
-        <v>Āveṉṟē Aṣṣcaṭca­ra­ttai Aṟint' uṇartta­tu ṉāḷ tōṟum Ope­meṉav Aṣṣara­ttai Uṟuti­yāy maṉatil va­yttu ṉāṉ eṉṟa Aṣṣara­ttai ṉāḷ tōṟum viṭṭaka­lā­tē ṉō­ṉṟāy niṉṟavaṉē ta­ya­vu paṇṇum kaṟttā­vē {pcl}</v>
+        <v>Āveṉṟē Aṣṣcaṭcarattai Aṟint' uṇarttatu ṉāḷ tōṟum Opemeṉav Aṣṣarattai Uṟutiyāy maṉatil vayttu ṉāṉ eṉṟa Aṣṣarattai ṉāḷ tōṟum viṭṭakalātē ṉōṉṟāy niṉṟavaṉē tayavu paṇṇum kaṟttāvē {pcl}</v>
       </c>
       <c r="C2" t="str">
         <v>Indien 101</v>
@@ -441,10 +441,10 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Ākai­yiṉālē yi­nta vaḷḷiya­mmai­puṟāṇattai paṭitta pē­rum keṭṭa pē­rum Immai­yi­lē niṉai­tta kā­ri­ya­mum ci­tti­yām maṟumai­yi­lē moṣṣamu­mm [i.e. mokṣamum] uṇṭām – kāṟtti­kai naṣṣatti­ram ka­ntar caṣṭi ce­vvā­ykkiḻamai cōma­vā­ram itu­kaḷilē Oru poḻuti­ru­ntu mu-k-kāla-k kēṭṭa pē­rum mu-k-kā­lap paṭitta pē­rum eḻutiṉa pē­rum – Iva­rkaḷukk’ ellām ka­nta­cu¡pā!vāmi tuṇai-y iru­ppār</v>
+        <v>Ākaiyiṉālē yinta vaḷḷiyammaipuṟāṇattai paṭitta pērum keṭṭa pērum Immaiyilē niṉaitta kāriyamum cittiyām maṟumaiyilē moṣṣamumm [i.e. mokṣamum] uṇṭām – kāṟttikai naṣṣattiram kantar caṣṭi cevvāykkiḻamai cōmavāram itukaḷilē Oru poḻutiruntu mu-k-kāla-k kēṭṭa pērum mu-k-kālap paṭitta pērum eḻutiṉa pērum – Ivarkaḷukk’ ellām kantacu¡pā!vāmi tuṇai-y iruppār</v>
       </c>
       <c r="B3" t="str">
-        <v>Ākai­yiṉālē yi­nta vaḷḷiya­mmai­puṟāṇattai paṭitta pē­rum keṭṭa pē­rum Immai­yi­lē niṉai­tta kā­ri­ya­mum ci­tti­yām maṟumai­yi­lē moṣṣamu­mm [i.e. mokṣamum] uṇṭām – kāṟtti­kai naṣṣatti­ram ka­ntar caṣṭi ce­vvā­ykkiḻamai cōma­vā­ram itu­kaḷilē Oru poḻuti­ru­ntu mu­kkā­lak kēṭṭa pē­rum mu­kkā­lap paṭitta pē­rum eḻutiṉa pē­rum – Iva­rkaḷukk’ ellām ka­nta­cu­pā­vā­mi tuṇaiy iru­ppār</v>
+        <v>Ākaiyiṉālē yinta vaḷḷiyammaipuṟāṇattai paṭitta pērum keṭṭa pērum Immaiyilē niṉaitta kāriyamum cittiyām maṟumaiyilē moṣṣamumm [i.e. mokṣamum] uṇṭām – kāṟttikai naṣṣattiram kantar caṣṭi cevvāykkiḻamai cōmavāram itukaḷilē Oru poḻutiruntu mukkālak kēṭṭa pērum mukkālap paṭitta pērum eḻutiṉa pērum – Ivarkaḷukk’ ellām kantacupāvāmi tuṇaiy iruppār</v>
       </c>
       <c r="C3" t="str">
         <v>Indien 309</v>
@@ -470,10 +470,10 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>civaṉ aṭiyā­rkaḷ ci­ntai­yil vāḻun</v>
+        <v>civaṉ aṭiyārkaḷ cintaiyil vāḻun</v>
       </c>
       <c r="B4" t="str">
-        <v>civaṉ aṭiyā­rkaḷ ci­ntai­yil vāḻun</v>
+        <v>civaṉ aṭiyārkaḷ cintaiyil vāḻun</v>
       </c>
       <c r="C4" t="str">
         <v>Indien 362</v>
@@ -499,7 +499,7 @@
         <v>vēl uṇṭu viṉai y-illai</v>
       </c>
       <c r="B5" t="str">
-        <v>vēl uṇṭu viṉai yi­llai</v>
+        <v>vēl uṇṭu viṉai yillai</v>
       </c>
       <c r="C5" t="str">
         <v>Indien 420</v>
@@ -522,10 +522,10 @@
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>tēva-ñāṉa-p-piṟakā­ca-cu­ru­pam-āy-iru­kkiṟa pa­rā­pa­ra­va­stu-v-ākiṟa pitā-v-āki­ya caṟuvē­cu­raṉukku sto­tti­ra­mum avar-uṭaiya pu­tti-vāṟtai y-ākiṟa y-ēka-cutaṉ-āki­ya yēcu-ṉāta­cu­vā­mi­kku y-aṟcaṉai­yum pi­tā­vu­kkum cutaṉukkum pa­ntaṉam-āy-iru­kkiṟa tē­va­ciṉēkam ākiṟa svi­ri­ttu-cā­ttu­vu­kku y-ārā­taṉai­yun tiṟittu­va y-ēka­ta­ttu(va)māṉa kaṭavuḷukku na­ma­skā­ra­muñ ca­ka­la-paṭai­ppu­kaḷu(k)kum āṟuta­lum īṭeṟṟa y-aṭai māṉamum(āra)kkiṉiyum ākiṟa y-aṟci­ya­ciṣṭa m-mā­ri­ya­vu­kku-p pukaḻcci­yuñ ca­mmaṉacu­kkaḷamu­tal-āṉa ca­ka­la-y-aṟci­ya­ciṣṭa-pē­rkaḷukku y-āca­raṇai­yum uṇṭāka-k kaṭava­tu({pcl})</v>
+        <v>tēva-ñāṉa-p-piṟakāca-curupam-āy-irukkiṟa parāparavastu-v-ākiṟa pitā-v-ākiya caṟuvēcuraṉukku stottiramum avar-uṭaiya putti-vāṟtai y-ākiṟa y-ēka-cutaṉ-ākiya yēcu-ṉātacuvāmikku y-aṟcaṉaiyum pitāvukkum cutaṉukkum pantaṉam-āy-irukkiṟa tēvaciṉēkam ākiṟa svirittu-cāttuvukku y-ārātaṉaiyun tiṟittuva y-ēkatattu(va)māṉa kaṭavuḷukku namaskāramuñ cakala-paṭaippukaḷu(k)kum āṟutalum īṭeṟṟa y-aṭai māṉamum(āra)kkiṉiyum ākiṟa y-aṟciyaciṣṭa m-māriyavukku-p pukaḻcciyuñ cammaṉacukkaḷamutal-āṉa cakala-y-aṟciyaciṣṭa-pērkaḷukku y-ācaraṇaiyum uṇṭāka-k kaṭavatu({pcl})</v>
       </c>
       <c r="B6" t="str">
-        <v>tē­va­ñāṉappiṟakā­ca­cu­ru­pa­mā­yi­ru­kkiṟa pa­rā­pa­ra­va­stu­vā­kiṟa pi­tā­vā­ki­ya caṟuvē­cu­raṉukku sto­tti­ra­mum ava­ruṭaiya pu­tti­vāṟtai yākiṟa yē­ka­cu­taṉāki­ya yēcuṉāta­cu­vā­mi­kku yaṟcaṉai­yum pi­tā­vu­kkum cutaṉukkum pa­ntaṉamā­yi­ru­kkiṟa tē­va­ciṉēkam ākiṟa svi­ri­ttu­cā­ttu­vu­kku yā­rā­taṉai­yun tiṟittu­va yē­ka­ta­ttu­va­māṉa kaṭavuḷukku na­ma­skā­ra­muñ ca­ka­la­paṭai­ppu­kaḷukkum āṟuta­lum īṭeṟṟa yaṭai māṉamum āra­kkiṉiyum ākiṟa yaṟci­ya­ciṣṭa mmā­ri­ya­vu­kkup pukaḻcci­yuñ ca­mmaṉacu­kkaḷamu­ta­lāṉa ca­ka­la­yaṟci­ya­ciṣṭapē­rkaḷukku yā­ca­raṇai­yum uṇṭākak kaṭava­tu {pcl}</v>
+        <v>tēvañāṉappiṟakācacurupamāyirukkiṟa parāparavastuvākiṟa pitāvākiya caṟuvēcuraṉukku stottiramum avaruṭaiya puttivāṟtai yākiṟa yēkacutaṉākiya yēcuṉātacuvāmikku yaṟcaṉaiyum pitāvukkum cutaṉukkum pantaṉamāyirukkiṟa tēvaciṉēkam ākiṟa svirittucāttuvukku yārātaṉaiyun tiṟittuva yēkatattuvamāṉa kaṭavuḷukku namaskāramuñ cakalapaṭaippukaḷukkum āṟutalum īṭeṟṟa yaṭai māṉamum ārakkiṉiyum ākiṟa yaṟciyaciṣṭa mmāriyavukkup pukaḻcciyuñ cammaṉacukkaḷamutalāṉa cakalayaṟciyaciṣṭapērkaḷukku yācaraṇaiyum uṇṭākak kaṭavatu {pcl}</v>
       </c>
       <c r="C6" t="str">
         <v>Indien 460</v>
@@ -548,10 +548,10 @@
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>+ muṉṉāḷakka­vi rā­ca­mā­rel voruṅkūṭi Aka­me­ytta vī­ra­mā­muṉiyā­ki­ya rā­ca­ri­ci­ta­yi­ri­yaṉāta pe­ri­ya­ku­ru­cu­vā­mi­ya­va­rkaḷ ti­ru­vā­yiṉ Amuṟtam poḻinta naṉṉīti­vu­rai­yāṉ tē­mpā­vaṇiyai vā­ci­ttā­rāy anta­va­rkaḷ ve­ku­lā­pa yōkki­yam peṟuvā­rkaḷ yi­nta va­cci­rā­yu­ta­māṉa pōstta­ka­ttai vā­ci­kkiṟava­rkaḷukkum kēḷkkiṟava­rkaḻukkum ve­ku­piṟaiyōcaṉam uṇṭām +</v>
+        <v>+ muṉṉāḷakkavi rācamārel voruṅkūṭi Akameytta vīramāmuṉiyākiya rācaricitayiriyaṉāta periyakurucuvāmiyavarkaḷ tiruvāyiṉ Amuṟtam poḻinta naṉṉītivuraiyāṉ tēmpāvaṇiyai vācittārāy antavarkaḷ vekulāpa yōkkiyam peṟuvārkaḷ yinta vaccirāyutamāṉa pōsttakattai vācikkiṟavarkaḷukkum kēḷkkiṟavarkaḻukkum vekupiṟaiyōcaṉam uṇṭām +</v>
       </c>
       <c r="B7" t="str">
-        <v>+ muṉṉāḷakka­vi rā­ca­mā­rel voruṅkūṭi Aka­me­ytta vī­ra­mā­muṉiyā­ki­ya rā­ca­ri­ci­ta­yi­ri­yaṉāta pe­ri­ya­ku­ru­cu­vā­mi­ya­va­rkaḷ ti­ru­vā­yiṉ Amuṟtam poḻinta naṉṉīti­vu­rai­yāṉ tē­mpā­vaṇiyai vā­ci­ttā­rāy anta­va­rkaḷ ve­ku­lā­pa yōkki­yam peṟuvā­rkaḷ yi­nta va­cci­rā­yu­ta­māṉa pōstta­ka­ttai vā­ci­kkiṟava­rkaḷukkum kēḷkkiṟava­rkaḻukkum ve­ku­piṟaiyōcaṉam uṇṭām +</v>
+        <v>+ muṉṉāḷakkavi rācamārel voruṅkūṭi Akameytta vīramāmuṉiyākiya rācaricitayiriyaṉāta periyakurucuvāmiyavarkaḷ tiruvāyiṉ Amuṟtam poḻinta naṉṉītivuraiyāṉ tēmpāvaṇiyai vācittārāy antavarkaḷ vekulāpa yōkkiyam peṟuvārkaḷ yinta vaccirāyutamāṉa pōsttakattai vācikkiṟavarkaḷukkum kēḷkkiṟavarkaḻukkum vekupiṟaiyōcaṉam uṇṭām +</v>
       </c>
       <c r="C7" t="str">
         <v>Indien 474</v>
@@ -577,10 +577,10 @@
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>invo­ca­ti­on to the Holy Fa­mi­ly Ecu­ma­ri­cū­cē yeṉakk’ uta­vit tuṇai yā­yi­rum + + +</v>
+        <v>invocation to the Holy Family Ecumaricūcē yeṉakk’ utavit tuṇai yāyirum + + +</v>
       </c>
       <c r="B8" t="str">
-        <v>Ecu­ma­ri­cū­cē yeṉakk’ uta­vit tuṇai yā­yi­rum + + +</v>
+        <v>Ecumaricūcē yeṉakk’ utavit tuṇai yāyirum + + +</v>
       </c>
       <c r="C8" t="str">
         <v>Indien 475</v>
@@ -603,10 +603,10 @@
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>vēḻamu­ka­tu viṉāya­kaṉait toḻ vāḻvu mi­ku­ttu va­rum {pcs}</v>
+        <v>vēḻamukatu viṉāyakaṉait toḻ vāḻvu mikuttu varum {pcs}</v>
       </c>
       <c r="B9" t="str">
-        <v>vēḻamu­ka­tu viṉāya­kaṉait toḻ vāḻvu mi­ku­ttu va­rum {pcs}</v>
+        <v>vēḻamukatu viṉāyakaṉait toḻ vāḻvu mikuttu varum {pcs}</v>
       </c>
       <c r="C9" t="str">
         <v>Indien 531</v>
@@ -632,10 +632,10 @@
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>Iḵtu caṭākṣkṣara­va­ntā­ti­yaip pā­ttu vā­ci­tta­var mu­ru­kaṉuṭaiya tuṇai y-uṇṭāci ca­mpa­ra­māy vāḻvār ~</v>
+        <v>Iḵtu caṭākṣkṣaravantātiyaip pāttu vācittavar murukaṉuṭaiya tuṇai y-uṇṭāci camparamāy vāḻvār ~</v>
       </c>
       <c r="B10" t="str">
-        <v>Iḵtu caṭākṣkṣara­va­ntā­ti­yaip pā­ttu vā­ci­tta­var mu­ru­kaṉuṭaiya tuṇai yuṇṭāci ca­mpa­ra­māy vāḻvār ~</v>
+        <v>Iḵtu caṭākṣkṣaravantātiyaip pāttu vācittavar murukaṉuṭaiya tuṇai yuṇṭāci camparamāy vāḻvār ~</v>
       </c>
       <c r="C10" t="str">
         <v>Indien 937</v>

--- a/benedictions.xlsx
+++ b/benedictions.xlsx
@@ -514,7 +514,7 @@
         <v>U2</v>
       </c>
       <c r="G5" t="str">
-        <v>folio 53v</v>
+        <v>folio 54r</v>
       </c>
       <c r="I5">
         <v>0</v>

--- a/benedictions.xlsx
+++ b/benedictions.xlsx
@@ -441,10 +441,10 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Ākaiyiṉālē yinta vaḷḷiyammaipuṟāṇattai paṭitta pērum keṭṭa pērum Immaiyilē niṉaitta kāriyamum cittiyām maṟumaiyilē moṣṣamumm [i.e. mokṣamum] uṇṭām – kāṟttikai naṣṣattiram kantar caṣṭi cevvāykkiḻamai cōmavāram itukaḷilē Oru poḻutiruntu mu-k-kāla-k kēṭṭa pērum mu-k-kālap paṭitta pērum eḻutiṉa pērum – Ivarkaḷukk’ ellām kantacu¡pā!vāmi tuṇai-y iruppār</v>
+        <v>Ākaiyiṉālē yinta vaḷḷiyammaipuṟāṇattai paṭitta pērum keṭṭa pērum Immaiyilē niṉaitta kāriyamum cittiyām maṟumaiyilē mo¡ṣṣa!kṣamu{m}m uṇṭām – kāṟttikai naṣṣattiram kantar caṣṭi cevvāykkiḻamai cōmavāram itukaḷilē Oru poḻutiruntu mu-k-kāla-k kēṭṭa pērum mu-k-kālap paṭitta pērum eḻutiṉa pērum – Ivarkaḷukk’ ellām kantacu¡pā!vāmi tuṇai-y iruppār</v>
       </c>
       <c r="B3" t="str">
-        <v>Ākaiyiṉālē yinta vaḷḷiyammaipuṟāṇattai paṭitta pērum keṭṭa pērum Immaiyilē niṉaitta kāriyamum cittiyām maṟumaiyilē moṣṣamumm [i.e. mokṣamum] uṇṭām – kāṟttikai naṣṣattiram kantar caṣṭi cevvāykkiḻamai cōmavāram itukaḷilē Oru poḻutiruntu mukkālak kēṭṭa pērum mukkālap paṭitta pērum eḻutiṉa pērum – Ivarkaḷukk’ ellām kantacupāvāmi tuṇaiy iruppār</v>
+        <v>Ākaiyiṉālē yinta vaḷḷiyammaipuṟāṇattai paṭitta pērum keṭṭa pērum Immaiyilē niṉaitta kāriyamum cittiyām maṟumaiyilē moṣṣakṣamum uṇṭām – kāṟttikai naṣṣattiram kantar caṣṭi cevvāykkiḻamai cōmavāram itukaḷilē Oru poḻutiruntu mukkālak kēṭṭa pērum mukkālap paṭitta pērum eḻutiṉa pērum – Ivarkaḷukk’ ellām kantacupāvāmi tuṇaiy iruppār</v>
       </c>
       <c r="C3" t="str">
         <v>Indien 309</v>

--- a/benedictions.xlsx
+++ b/benedictions.xlsx
@@ -376,7 +376,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -441,80 +441,83 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Ākaiyiṉālē yinta vaḷḷiyammaipuṟāṇattai paṭitta pērum keṭṭa pērum Immaiyilē niṉaitta kāriyamum cittiyām maṟumaiyilē mo¡ṣṣa!kṣamu{m}m uṇṭām – kāṟttikai naṣṣattiram kantar caṣṭi cevvāykkiḻamai cōmavāram itukaḷilē Oru poḻutiruntu mu-k-kāla-k kēṭṭa pērum mu-k-kālap paṭitta pērum eḻutiṉa pērum – Ivarkaḷukk’ ellām kantacu¡pā!vāmi tuṇai-y iruppār</v>
+        <v>teyvāṉaiyammāḷ purāṇa=M naṉṟākavum {pcs}</v>
       </c>
       <c r="B3" t="str">
-        <v>Ākaiyiṉālē yinta vaḷḷiyammaipuṟāṇattai paṭitta pērum keṭṭa pērum Immaiyilē niṉaitta kāriyamum cittiyām maṟumaiyilē moṣṣakṣamum uṇṭām – kāṟttikai naṣṣattiram kantar caṣṭi cevvāykkiḻamai cōmavāram itukaḷilē Oru poḻutiruntu mukkālak kēṭṭa pērum mukkālap paṭitta pērum eḻutiṉa pērum – Ivarkaḷukk’ ellām kantacupāvāmi tuṇaiy iruppār</v>
+        <v>teyvāṉaiyammāḷ purāṇaM naṉṟākavum {pcs}</v>
       </c>
       <c r="C3" t="str">
-        <v>Indien 309</v>
+        <v>Indien 308</v>
       </c>
       <c r="D3" t="str">
         <v>BnF</v>
       </c>
       <c r="E3" t="str">
-        <v>Vaḷḷiyammaipuṟāṇacāram</v>
+        <v>Teyvayāṉaipurāṇam</v>
       </c>
       <c r="F3" t="str">
-        <v>U2</v>
+        <v>U2c</v>
       </c>
       <c r="G3" t="str">
-        <v>folio 288r</v>
+        <v>folio 295r</v>
       </c>
       <c r="H3" t="str">
-        <v>left margin</v>
+        <v>main text area</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>civaṉ aṭiyārkaḷ cintaiyil vāḻun</v>
+        <v>Ākaiyiṉālē yinta vaḷḷiyammaipuṟāṇattai paṭitta pērum keṭṭa pērum Immaiyilē niṉaitta kāriyamum cittiyām maṟumaiyilē mo¡ṣṣa!kṣamu{m}m uṇṭām – kāṟttikai naṣṣattiram kantar caṣṭi cevvāykkiḻamai cōmavāram itukaḷilē Oru poḻutiruntu mu-k-kāla-k kēṭṭa pērum mu-k-kālap paṭitta pērum eḻutiṉa pērum – Ivarkaḷukk’ ellām kantacu¡pā!vāmi tuṇai-y iruppār</v>
       </c>
       <c r="B4" t="str">
-        <v>civaṉ aṭiyārkaḷ cintaiyil vāḻun</v>
+        <v>Ākaiyiṉālē yinta vaḷḷiyammaipuṟāṇattai paṭitta pērum keṭṭa pērum Immaiyilē niṉaitta kāriyamum cittiyām maṟumaiyilē moṣṣakṣamum uṇṭām – kāṟttikai naṣṣattiram kantar caṣṭi cevvāykkiḻamai cōmavāram itukaḷilē Oru poḻutiruntu mukkālak kēṭṭa pērum mukkālap paṭitta pērum eḻutiṉa pērum – Ivarkaḷukk’ ellām kantacupāvāmi tuṇaiy iruppār</v>
       </c>
       <c r="C4" t="str">
-        <v>Indien 362</v>
+        <v>Indien 309</v>
       </c>
       <c r="D4" t="str">
         <v>BnF</v>
       </c>
       <c r="E4" t="str">
-        <v>MTM: 3 poems in praise of gods</v>
+        <v>Vaḷḷiyammaipuṟāṇacāram</v>
       </c>
       <c r="F4" t="str">
-        <v>U3</v>
+        <v>U2</v>
       </c>
       <c r="G4" t="str">
-        <v>folio 17r</v>
+        <v>folio 288r</v>
+      </c>
+      <c r="H4" t="str">
+        <v>left margin</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>vēl uṇṭu viṉai y-illai</v>
+        <v>civaṉ aṭiyārkaḷ cintaiyil vāḻun</v>
       </c>
       <c r="B5" t="str">
-        <v>vēl uṇṭu viṉai yillai</v>
+        <v>civaṉ aṭiyārkaḷ cintaiyil vāḻun</v>
       </c>
       <c r="C5" t="str">
-        <v>Indien 420</v>
+        <v>Indien 362</v>
       </c>
       <c r="D5" t="str">
         <v>BnF</v>
       </c>
       <c r="E5" t="str">
-        <v>Nālu Mantiri Katai</v>
+        <v>MTM: 3 poems in praise of gods</v>
       </c>
       <c r="F5" t="str">
-        <v>U2</v>
+        <v>U3</v>
       </c>
       <c r="G5" t="str">
-        <v>folio 54r</v>
+        <v>folio 17r</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -522,25 +525,25 @@
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>tēva-ñāṉa-p-piṟakāca-curupam-āy-irukkiṟa parāparavastu-v-ākiṟa pitā-v-ākiya caṟuvēcuraṉukku stottiramum avar-uṭaiya putti-vāṟtai y-ākiṟa y-ēka-cutaṉ-ākiya yēcu-ṉātacuvāmikku y-aṟcaṉaiyum pitāvukkum cutaṉukkum pantaṉam-āy-irukkiṟa tēvaciṉēkam ākiṟa svirittu-cāttuvukku y-ārātaṉaiyun tiṟittuva y-ēkatattu(va)māṉa kaṭavuḷukku namaskāramuñ cakala-paṭaippukaḷu(k)kum āṟutalum īṭeṟṟa y-aṭai māṉamum(āra)kkiṉiyum ākiṟa y-aṟciyaciṣṭa m-māriyavukku-p pukaḻcciyuñ cammaṉacukkaḷamutal-āṉa cakala-y-aṟciyaciṣṭa-pērkaḷukku y-ācaraṇaiyum uṇṭāka-k kaṭavatu({pcl})</v>
+        <v>vēl uṇṭu viṉai y-illai</v>
       </c>
       <c r="B6" t="str">
-        <v>tēvañāṉappiṟakācacurupamāyirukkiṟa parāparavastuvākiṟa pitāvākiya caṟuvēcuraṉukku stottiramum avaruṭaiya puttivāṟtai yākiṟa yēkacutaṉākiya yēcuṉātacuvāmikku yaṟcaṉaiyum pitāvukkum cutaṉukkum pantaṉamāyirukkiṟa tēvaciṉēkam ākiṟa svirittucāttuvukku yārātaṉaiyun tiṟittuva yēkatattuvamāṉa kaṭavuḷukku namaskāramuñ cakalapaṭaippukaḷukkum āṟutalum īṭeṟṟa yaṭai māṉamum ārakkiṉiyum ākiṟa yaṟciyaciṣṭa mmāriyavukkup pukaḻcciyuñ cammaṉacukkaḷamutalāṉa cakalayaṟciyaciṣṭapērkaḷukku yācaraṇaiyum uṇṭākak kaṭavatu {pcl}</v>
+        <v>vēl uṇṭu viṉai yillai</v>
       </c>
       <c r="C6" t="str">
-        <v>Indien 460</v>
+        <v>Indien 420</v>
       </c>
       <c r="D6" t="str">
         <v>BnF</v>
       </c>
       <c r="E6" t="str">
-        <v>Ñāṉōpatēcam, Kāṇṭam 3 = Nobili's Catechism, Part 3</v>
+        <v>Nālu Mantiri Katai</v>
       </c>
       <c r="F6" t="str">
         <v>U2</v>
       </c>
       <c r="G6" t="str">
-        <v>folio 365v</v>
+        <v>folio 54r</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -548,28 +551,25 @@
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>+ muṉṉāḷakkavi rācamārel voruṅkūṭi Akameytta vīramāmuṉiyākiya rācaricitayiriyaṉāta periyakurucuvāmiyavarkaḷ tiruvāyiṉ Amuṟtam poḻinta naṉṉītivuraiyāṉ tēmpāvaṇiyai vācittārāy antavarkaḷ vekulāpa yōkkiyam peṟuvārkaḷ yinta vaccirāyutamāṉa pōsttakattai vācikkiṟavarkaḷukkum kēḷkkiṟavarkaḻukkum vekupiṟaiyōcaṉam uṇṭām +</v>
+        <v>tēva-ñāṉa-p-piṟakāca-curupam-āy-irukkiṟa parāparavastu-v-ākiṟa pitā-v-ākiya caṟuvēcuraṉukku stottiramum avar-uṭaiya putti-vāṟtai y-ākiṟa y-ēka-cutaṉ-ākiya yēcu-ṉātacuvāmikku y-aṟcaṉaiyum pitāvukkum cutaṉukkum pantaṉam-āy-irukkiṟa tēvaciṉēkam ākiṟa svirittu-cāttuvukku y-ārātaṉaiyun tiṟittuva y-ēkatattu(va)māṉa kaṭavuḷukku namaskāramuñ cakala-paṭaippukaḷu(k)kum āṟutalum īṭeṟṟa y-aṭai māṉamum(āra)kkiṉiyum ākiṟa y-aṟciyaciṣṭa m-māriyavukku-p pukaḻcciyuñ cammaṉacukkaḷamutal-āṉa cakala-y-aṟciyaciṣṭa-pērkaḷukku y-ācaraṇaiyum uṇṭāka-k kaṭavatu({pcl})</v>
       </c>
       <c r="B7" t="str">
-        <v>+ muṉṉāḷakkavi rācamārel voruṅkūṭi Akameytta vīramāmuṉiyākiya rācaricitayiriyaṉāta periyakurucuvāmiyavarkaḷ tiruvāyiṉ Amuṟtam poḻinta naṉṉītivuraiyāṉ tēmpāvaṇiyai vācittārāy antavarkaḷ vekulāpa yōkkiyam peṟuvārkaḷ yinta vaccirāyutamāṉa pōsttakattai vācikkiṟavarkaḷukkum kēḷkkiṟavarkaḻukkum vekupiṟaiyōcaṉam uṇṭām +</v>
+        <v>tēvañāṉappiṟakācacurupamāyirukkiṟa parāparavastuvākiṟa pitāvākiya caṟuvēcuraṉukku stottiramum avaruṭaiya puttivāṟtai yākiṟa yēkacutaṉākiya yēcuṉātacuvāmikku yaṟcaṉaiyum pitāvukkum cutaṉukkum pantaṉamāyirukkiṟa tēvaciṉēkam ākiṟa svirittucāttuvukku yārātaṉaiyun tiṟittuva yēkatattuvamāṉa kaṭavuḷukku namaskāramuñ cakalapaṭaippukaḷukkum āṟutalum īṭeṟṟa yaṭai māṉamum ārakkiṉiyum ākiṟa yaṟciyaciṣṭa mmāriyavukkup pukaḻcciyuñ cammaṉacukkaḷamutalāṉa cakalayaṟciyaciṣṭapērkaḷukku yācaraṇaiyum uṇṭākak kaṭavatu {pcl}</v>
       </c>
       <c r="C7" t="str">
-        <v>Indien 474</v>
+        <v>Indien 460</v>
       </c>
       <c r="D7" t="str">
         <v>BnF</v>
       </c>
       <c r="E7" t="str">
-        <v>Tēmpāvaṇi (Paṭalam 1-12)</v>
+        <v>Ñāṉōpatēcam, Kāṇṭam 3 = Nobili's Catechism, Part 3</v>
       </c>
       <c r="F7" t="str">
         <v>U2</v>
       </c>
       <c r="G7" t="str">
-        <v>folio [1]r</v>
-      </c>
-      <c r="H7" s="1">
-        <v>36952</v>
+        <v>folio 365v</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -577,91 +577,120 @@
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>invocation to the Holy Family Ecumaricūcē yeṉakk’ utavit tuṇai yāyirum + + +</v>
+        <v>+ muṉṉāḷakkavi rācamārel voruṅkūṭi Akameytta vīramāmuṉiyākiya rācaricitayiriyaṉāta periyakurucuvāmiyavarkaḷ tiruvāyiṉ Amuṟtam poḻinta naṉṉītivuraiyāṉ tēmpāvaṇiyai vācittārāy antavarkaḷ vekulāpa yōkkiyam peṟuvārkaḷ yinta vaccirāyutamāṉa pōsttakattai vācikkiṟavarkaḷukkum kēḷkkiṟavarkaḻukkum vekupiṟaiyōcaṉam uṇṭām +</v>
       </c>
       <c r="B8" t="str">
-        <v>Ecumaricūcē yeṉakk’ utavit tuṇai yāyirum + + +</v>
+        <v>+ muṉṉāḷakkavi rācamārel voruṅkūṭi Akameytta vīramāmuṉiyākiya rācaricitayiriyaṉāta periyakurucuvāmiyavarkaḷ tiruvāyiṉ Amuṟtam poḻinta naṉṉītivuraiyāṉ tēmpāvaṇiyai vācittārāy antavarkaḷ vekulāpa yōkkiyam peṟuvārkaḷ yinta vaccirāyutamāṉa pōsttakattai vācikkiṟavarkaḷukkum kēḷkkiṟavarkaḻukkum vekupiṟaiyōcaṉam uṇṭām +</v>
       </c>
       <c r="C8" t="str">
-        <v>Indien 475</v>
+        <v>Indien 474</v>
       </c>
       <c r="D8" t="str">
         <v>BnF</v>
       </c>
       <c r="E8" t="str">
-        <v>Tēmpāvaṇi (Paṭalam 13-24)</v>
+        <v>Tēmpāvaṇi (Paṭalam 1-12)</v>
       </c>
       <c r="F8" t="str">
         <v>U2</v>
       </c>
       <c r="G8" t="str">
-        <v>folio 267v</v>
+        <v>folio [1]r</v>
+      </c>
+      <c r="H8" s="1">
+        <v>36952</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>vēḻamukatu viṉāyakaṉait toḻ vāḻvu mikuttu varum {pcs}</v>
+        <v>invocation to the Holy Family Ecumaricūcē yeṉakk’ utavit tuṇai yāyirum + + +</v>
       </c>
       <c r="B9" t="str">
-        <v>vēḻamukatu viṉāyakaṉait toḻ vāḻvu mikuttu varum {pcs}</v>
+        <v>Ecumaricūcē yeṉakk’ utavit tuṇai yāyirum + + +</v>
       </c>
       <c r="C9" t="str">
-        <v>Indien 531</v>
+        <v>Indien 475</v>
       </c>
       <c r="D9" t="str">
         <v>BnF</v>
       </c>
       <c r="E9" t="str">
-        <v>Periya Purāṇam, preceded by the Tiruttoṇṭattokai and the Tiruttoṇṭar Tiruvantāti.</v>
+        <v>Tēmpāvaṇi (Paṭalam 13-24)</v>
       </c>
       <c r="F9" t="str">
-        <v>U1</v>
+        <v>U2</v>
       </c>
       <c r="G9" t="str">
-        <v>folio [1]r</v>
-      </c>
-      <c r="H9" t="str">
-        <v>main text area</v>
+        <v>folio 267v</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
+        <v>vēḻamukatu viṉāyakaṉait toḻ vāḻvu mikuttu varum {pcs}</v>
+      </c>
+      <c r="B10" t="str">
+        <v>vēḻamukatu viṉāyakaṉait toḻ vāḻvu mikuttu varum {pcs}</v>
+      </c>
+      <c r="C10" t="str">
+        <v>Indien 531</v>
+      </c>
+      <c r="D10" t="str">
+        <v>BnF</v>
+      </c>
+      <c r="E10" t="str">
+        <v>Periya Purāṇam, preceded by the Tiruttoṇṭattokai and the Tiruttoṇṭar Tiruvantāti.</v>
+      </c>
+      <c r="F10" t="str">
+        <v>U1</v>
+      </c>
+      <c r="G10" t="str">
+        <v>folio [1]r</v>
+      </c>
+      <c r="H10" t="str">
+        <v>main text area</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
         <v>Iḵtu caṭākṣkṣaravantātiyaip pāttu vācittavar murukaṉuṭaiya tuṇai y-uṇṭāci camparamāy vāḻvār ~</v>
       </c>
-      <c r="B10" t="str">
+      <c r="B11" t="str">
         <v>Iḵtu caṭākṣkṣaravantātiyaip pāttu vācittavar murukaṉuṭaiya tuṇai yuṇṭāci camparamāy vāḻvār ~</v>
       </c>
-      <c r="C10" t="str">
+      <c r="C11" t="str">
         <v>Indien 937</v>
       </c>
-      <c r="D10" t="str">
-        <v>BnF</v>
-      </c>
-      <c r="E10" t="str">
+      <c r="D11" t="str">
+        <v>BnF</v>
+      </c>
+      <c r="E11" t="str">
         <v>Collection (5 items)</v>
       </c>
-      <c r="F10" t="str">
+      <c r="F11" t="str">
         <v>U5</v>
       </c>
-      <c r="G10" t="str">
+      <c r="G11" t="str">
         <v>folio 27r</v>
       </c>
-      <c r="H10" t="str">
+      <c r="H11" t="str">
         <v>column 3</v>
       </c>
-      <c r="I10">
+      <c r="I11">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:I10"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:I11"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/benedictions.xlsx
+++ b/benedictions.xlsx
@@ -383,10 +383,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
-        <v>Akattiyamakāmuṉikku cuppiṟamaṇiyacuvāmiyār aṉukkiṟakampaṇṇiṉatu</v>
+        <v>Akattiyamakāmuṉikku cuppiṟamaṇiyacuvāmiyār aṉukkiṟakam paṇṇiṉatu</v>
       </c>
       <c r="B1" t="str">
-        <v>Akattiyamakāmuṉikku cuppiṟamaṇiyacuvāmiyār aṉukkiṟakampaṇṇiṉatu</v>
+        <v>Akattiyamakāmuṉikku cuppiṟamaṇiyacuvāmiyār aṉukkiṟakam paṇṇiṉatu</v>
       </c>
       <c r="C1" t="str">
         <v>Indien 12</v>
@@ -395,7 +395,7 @@
         <v>BnF</v>
       </c>
       <c r="E1" t="str">
-        <v>Civatarumōttirakāviyam</v>
+        <v>Civatarumōttiram</v>
       </c>
       <c r="F1" t="str">
         <v>U2a</v>

--- a/benedictions.xlsx
+++ b/benedictions.xlsx
@@ -644,16 +644,13 @@
         <v>BnF</v>
       </c>
       <c r="E10" t="str">
-        <v>Periya Purāṇam, preceded by the Tiruttoṇṭattokai and the Tiruttoṇṭar Tiruvantāti.</v>
+        <v>Periya Purāṇam, preceded by the Tiruttoṇṭattokai and the Tiruttoṇṭar Tiruvantāti</v>
       </c>
       <c r="F10" t="str">
         <v>U1</v>
       </c>
       <c r="G10" t="str">
         <v>folio [1]r</v>
-      </c>
-      <c r="H10" t="str">
-        <v>main text area</v>
       </c>
       <c r="I10">
         <v>0</v>

--- a/benedictions.xlsx
+++ b/benedictions.xlsx
@@ -519,6 +519,9 @@
       <c r="G5" t="str">
         <v>folio 17r</v>
       </c>
+      <c r="H5" t="str">
+        <v>line 5</v>
+      </c>
       <c r="I5">
         <v>0</v>
       </c>
@@ -544,6 +547,9 @@
       </c>
       <c r="G6" t="str">
         <v>folio 54r</v>
+      </c>
+      <c r="H6" t="str">
+        <v>line 6</v>
       </c>
       <c r="I6">
         <v>0</v>

--- a/benedictions.xlsx
+++ b/benedictions.xlsx
@@ -376,35 +376,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
-        <v>Akattiyamakāmuṉikku cuppiṟamaṇiyacuvāmiyār aṉukkiṟakam paṇṇiṉatu</v>
+        <v>harī hari ndan namme bhagavate oṃ ṉṇame bhagavaṉe hari oṃ nnamo bhagavate mahakālāya namaḥ hari oṃ namaḥ - devāñ chitalābhā vande vāñcila(ttu)ākāreṇa śaśī girā parabhṛtaḥ pārāvataś cuṃbane haṃsaś caṃkramaṇe samaṃ dayitayā ratyāṃ vimatto gajaḥ | itthaṃ bharttari re samastayuvatiślākhyapidaivādasau madbhāgyena vivahitaḥ patir iti syān naikadoṣo yadi ||</v>
       </c>
       <c r="B1" t="str">
-        <v>Akattiyamakāmuṉikku cuppiṟamaṇiyacuvāmiyār aṉukkiṟakam paṇṇiṉatu</v>
+        <v>harī hari ndan namme bhagavate oṃ ṉṇame bhagavaṉe hari oṃ nnamo bhagavate mahakālāya namaḥ hari oṃ namaḥ devāñ chitalābhā vande vāñcilattu ākāreṇa śaśī girā parabhṛtaḥ pārāvataś cuṃbane haṃsaś caṃkramaṇe samaṃ dayitayā ratyāṃ vimatto gajaḥ itthaṃ bharttari re samastayuvatiślākhyapidaivādasau madbhāgyena vivahitaḥ patir iti syān naikadoṣo yadi</v>
       </c>
       <c r="C1" t="str">
-        <v>Indien 12</v>
+        <v>Cod. Palmbl. III 130</v>
       </c>
       <c r="D1" t="str">
-        <v>BnF</v>
+        <v>Hamburg Stabi</v>
       </c>
       <c r="E1" t="str">
-        <v>Civatarumōttiram</v>
+        <v>Anaṅgaraṅga</v>
       </c>
       <c r="F1" t="str">
-        <v>U2a</v>
-      </c>
-      <c r="G1" t="str">
-        <v>folio [1]r</v>
+        <v>guardFolio</v>
       </c>
       <c r="H1" t="str">
-        <v>column 3</v>
+        <v>guard folio</v>
       </c>
       <c r="I1">
         <v>0</v>
@@ -412,28 +409,28 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Āveṉṟē A¡ṣṣca!ṭcarattai Aṟint' uṇart=tatu ṉāḷ tōṟum O¿pe?meṉav Aṣṣarattai Uṟutiyāy maṉatil vayt=tu ṉāṉ eṉṟa Aṣṣarat=tai ṉāḷ tōṟum viṭṭakalātē ṉōṉṟāy niṉṟavaṉē tayavu paṇṇum kaṟttāvē {pcl}</v>
+        <v>Akattiyamakāmuṉikku cuppiṟamaṇiyacuvāmiyār aṉukkiṟakam paṇṇiṉatu</v>
       </c>
       <c r="B2" t="str">
-        <v>Āveṉṟē Aṣṣcaṭcarattai Aṟint' uṇarttatu ṉāḷ tōṟum Opemeṉav Aṣṣarattai Uṟutiyāy maṉatil vayttu ṉāṉ eṉṟa Aṣṣarattai ṉāḷ tōṟum viṭṭakalātē ṉōṉṟāy niṉṟavaṉē tayavu paṇṇum kaṟttāvē {pcl}</v>
+        <v>Akattiyamakāmuṉikku cuppiṟamaṇiyacuvāmiyār aṉukkiṟakam paṇṇiṉatu</v>
       </c>
       <c r="C2" t="str">
-        <v>Indien 101</v>
+        <v>Indien 12</v>
       </c>
       <c r="D2" t="str">
         <v>BnF</v>
       </c>
       <c r="E2" t="str">
-        <v>Collection (5 works by Akattiyar)</v>
+        <v>Civatarumōttiram</v>
       </c>
       <c r="F2" t="str">
-        <v>U5</v>
+        <v>U2a</v>
       </c>
       <c r="G2" t="str">
-        <v>folio 154v</v>
+        <v>folio [1]r</v>
       </c>
       <c r="H2" t="str">
-        <v>main text area</v>
+        <v>column 3</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -441,25 +438,25 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>teyvāṉaiyammāḷ purāṇa=M naṉṟākavum {pcs}</v>
+        <v>Āveṉṟē A¡ṣṣca!ṭcarattai Aṟint' uṇart=tatu ṉāḷ tōṟum O¿pe?meṉav Aṣṣarattai Uṟutiyāy maṉatil vayt=tu ṉāṉ eṉṟa Aṣṣarat=tai ṉāḷ tōṟum viṭṭakalātē ṉōṉṟāy niṉṟavaṉē tayavu paṇṇum kaṟttāvē {pcl}</v>
       </c>
       <c r="B3" t="str">
-        <v>teyvāṉaiyammāḷ purāṇaM naṉṟākavum {pcs}</v>
+        <v>Āveṉṟē Aṣṣcaṭcarattai Aṟint' uṇarttatu ṉāḷ tōṟum Opemeṉav Aṣṣarattai Uṟutiyāy maṉatil vayttu ṉāṉ eṉṟa Aṣṣarattai ṉāḷ tōṟum viṭṭakalātē ṉōṉṟāy niṉṟavaṉē tayavu paṇṇum kaṟttāvē {pcl}</v>
       </c>
       <c r="C3" t="str">
-        <v>Indien 308</v>
+        <v>Indien 101</v>
       </c>
       <c r="D3" t="str">
         <v>BnF</v>
       </c>
       <c r="E3" t="str">
-        <v>Teyvayāṉaipurāṇam</v>
+        <v>Collection (5 works by Akattiyar)</v>
       </c>
       <c r="F3" t="str">
-        <v>U2c</v>
+        <v>U5</v>
       </c>
       <c r="G3" t="str">
-        <v>folio 295r</v>
+        <v>folio 154v</v>
       </c>
       <c r="H3" t="str">
         <v>main text area</v>
@@ -470,86 +467,86 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Ākaiyiṉālē yinta vaḷḷiyammaipuṟāṇattai paṭitta pērum keṭṭa pērum Immaiyilē niṉaitta kāriyamum cittiyām maṟumaiyilē mo¡ṣṣa!kṣamu{m}m uṇṭām – kāṟttikai naṣṣattiram kantar caṣṭi cevvāykkiḻamai cōmavāram itukaḷilē Oru poḻutiruntu mu-k-kāla-k kēṭṭa pērum mu-k-kālap paṭitta pērum eḻutiṉa pērum – Ivarkaḷukk’ ellām kantacu¡pā!vāmi tuṇai-y iruppār</v>
+        <v>teyvāṉaiyammāḷ purāṇa=M naṉṟākavum {pcs}</v>
       </c>
       <c r="B4" t="str">
-        <v>Ākaiyiṉālē yinta vaḷḷiyammaipuṟāṇattai paṭitta pērum keṭṭa pērum Immaiyilē niṉaitta kāriyamum cittiyām maṟumaiyilē moṣṣakṣamum uṇṭām – kāṟttikai naṣṣattiram kantar caṣṭi cevvāykkiḻamai cōmavāram itukaḷilē Oru poḻutiruntu mukkālak kēṭṭa pērum mukkālap paṭitta pērum eḻutiṉa pērum – Ivarkaḷukk’ ellām kantacupāvāmi tuṇaiy iruppār</v>
+        <v>teyvāṉaiyammāḷ purāṇaM naṉṟākavum {pcs}</v>
       </c>
       <c r="C4" t="str">
-        <v>Indien 309</v>
+        <v>Indien 308</v>
       </c>
       <c r="D4" t="str">
         <v>BnF</v>
       </c>
       <c r="E4" t="str">
-        <v>Vaḷḷiyammaipuṟāṇacāram</v>
+        <v>Teyvayāṉaipurāṇam</v>
       </c>
       <c r="F4" t="str">
-        <v>U2</v>
+        <v>U2c</v>
       </c>
       <c r="G4" t="str">
-        <v>folio 288r</v>
+        <v>folio 295r</v>
       </c>
       <c r="H4" t="str">
-        <v>left margin</v>
+        <v>main text area</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>civaṉ aṭiyārkaḷ cintaiyil vāḻun</v>
+        <v>Ākaiyiṉālē yinta vaḷḷiyammaipuṟāṇattai paṭitta pērum keṭṭa pērum Immaiyilē niṉaitta kāriyamum cittiyām maṟumaiyilē mo¡ṣṣa!kṣamu{m}m uṇṭām – kāṟttikai naṣṣattiram kantar caṣṭi cevvāykkiḻamai cōmavāram itukaḷilē Oru poḻutiruntu mu-k-kāla-k kēṭṭa pērum mu-k-kālap paṭitta pērum eḻutiṉa pērum – Ivarkaḷukk’ ellām kantacu¡pā!vāmi tuṇai-y iruppār</v>
       </c>
       <c r="B5" t="str">
-        <v>civaṉ aṭiyārkaḷ cintaiyil vāḻun</v>
+        <v>Ākaiyiṉālē yinta vaḷḷiyammaipuṟāṇattai paṭitta pērum keṭṭa pērum Immaiyilē niṉaitta kāriyamum cittiyām maṟumaiyilē moṣṣakṣamum uṇṭām – kāṟttikai naṣṣattiram kantar caṣṭi cevvāykkiḻamai cōmavāram itukaḷilē Oru poḻutiruntu mukkālak kēṭṭa pērum mukkālap paṭitta pērum eḻutiṉa pērum – Ivarkaḷukk’ ellām kantacupāvāmi tuṇaiy iruppār</v>
       </c>
       <c r="C5" t="str">
-        <v>Indien 362</v>
+        <v>Indien 309</v>
       </c>
       <c r="D5" t="str">
         <v>BnF</v>
       </c>
       <c r="E5" t="str">
-        <v>MTM: 3 poems in praise of gods</v>
+        <v>Vaḷḷiyammaipuṟāṇacāram</v>
       </c>
       <c r="F5" t="str">
-        <v>U3</v>
+        <v>U2</v>
       </c>
       <c r="G5" t="str">
-        <v>folio 17r</v>
+        <v>folio 288r</v>
       </c>
       <c r="H5" t="str">
-        <v>line 5</v>
+        <v>left margin</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>vēl uṇṭu viṉai y-illai</v>
+        <v>civaṉ aṭiyārkaḷ cintaiyil vāḻun</v>
       </c>
       <c r="B6" t="str">
-        <v>vēl uṇṭu viṉai yillai</v>
+        <v>civaṉ aṭiyārkaḷ cintaiyil vāḻun</v>
       </c>
       <c r="C6" t="str">
-        <v>Indien 420</v>
+        <v>Indien 362</v>
       </c>
       <c r="D6" t="str">
         <v>BnF</v>
       </c>
       <c r="E6" t="str">
-        <v>Nālu Mantiri Katai</v>
+        <v>MTM: 3 poems in praise of gods</v>
       </c>
       <c r="F6" t="str">
-        <v>U2</v>
+        <v>U3</v>
       </c>
       <c r="G6" t="str">
-        <v>folio 54r</v>
+        <v>folio 17r</v>
       </c>
       <c r="H6" t="str">
-        <v>line 6</v>
+        <v>line 5</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -557,25 +554,28 @@
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>tēva-ñāṉa-p-piṟakāca-curupam-āy-irukkiṟa parāparavastu-v-ākiṟa pitā-v-ākiya caṟuvēcuraṉukku stottiramum avar-uṭaiya putti-vāṟtai y-ākiṟa y-ēka-cutaṉ-ākiya yēcu-ṉātacuvāmikku y-aṟcaṉaiyum pitāvukkum cutaṉukkum pantaṉam-āy-irukkiṟa tēvaciṉēkam ākiṟa svirittu-cāttuvukku y-ārātaṉaiyun tiṟittuva y-ēkatattu(va)māṉa kaṭavuḷukku namaskāramuñ cakala-paṭaippukaḷu(k)kum āṟutalum īṭeṟṟa y-aṭai māṉamum(āra)kkiṉiyum ākiṟa y-aṟciyaciṣṭa m-māriyavukku-p pukaḻcciyuñ cammaṉacukkaḷamutal-āṉa cakala-y-aṟciyaciṣṭa-pērkaḷukku y-ācaraṇaiyum uṇṭāka-k kaṭavatu({pcl})</v>
+        <v>vēl uṇṭu viṉai y-illai</v>
       </c>
       <c r="B7" t="str">
-        <v>tēvañāṉappiṟakācacurupamāyirukkiṟa parāparavastuvākiṟa pitāvākiya caṟuvēcuraṉukku stottiramum avaruṭaiya puttivāṟtai yākiṟa yēkacutaṉākiya yēcuṉātacuvāmikku yaṟcaṉaiyum pitāvukkum cutaṉukkum pantaṉamāyirukkiṟa tēvaciṉēkam ākiṟa svirittucāttuvukku yārātaṉaiyun tiṟittuva yēkatattuvamāṉa kaṭavuḷukku namaskāramuñ cakalapaṭaippukaḷukkum āṟutalum īṭeṟṟa yaṭai māṉamum ārakkiṉiyum ākiṟa yaṟciyaciṣṭa mmāriyavukkup pukaḻcciyuñ cammaṉacukkaḷamutalāṉa cakalayaṟciyaciṣṭapērkaḷukku yācaraṇaiyum uṇṭākak kaṭavatu {pcl}</v>
+        <v>vēl uṇṭu viṉai yillai</v>
       </c>
       <c r="C7" t="str">
-        <v>Indien 460</v>
+        <v>Indien 420</v>
       </c>
       <c r="D7" t="str">
         <v>BnF</v>
       </c>
       <c r="E7" t="str">
-        <v>Ñāṉōpatēcam, Kāṇṭam 3 = Nobili's Catechism, Part 3</v>
+        <v>Nālu Mantiri Katai</v>
       </c>
       <c r="F7" t="str">
         <v>U2</v>
       </c>
       <c r="G7" t="str">
-        <v>folio 365v</v>
+        <v>folio 54r</v>
+      </c>
+      <c r="H7" t="str">
+        <v>line 6</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -583,28 +583,25 @@
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>+ muṉṉāḷakkavi rācamārel voruṅkūṭi Akameytta vīramāmuṉiyākiya rācaricitayiriyaṉāta periyakurucuvāmiyavarkaḷ tiruvāyiṉ Amuṟtam poḻinta naṉṉītivuraiyāṉ tēmpāvaṇiyai vācittārāy antavarkaḷ vekulāpa yōkkiyam peṟuvārkaḷ yinta vaccirāyutamāṉa pōsttakattai vācikkiṟavarkaḷukkum kēḷkkiṟavarkaḻukkum vekupiṟaiyōcaṉam uṇṭām +</v>
+        <v>tēva-ñāṉa-p-piṟakāca-curupam-āy-irukkiṟa parāparavastu-v-ākiṟa pitā-v-ākiya caṟuvēcuraṉukku stottiramum avar-uṭaiya putti-vāṟtai y-ākiṟa y-ēka-cutaṉ-ākiya yēcu-ṉātacuvāmikku y-aṟcaṉaiyum pitāvukkum cutaṉukkum pantaṉam-āy-irukkiṟa tēvaciṉēkam ākiṟa svirittu-cāttuvukku y-ārātaṉaiyun tiṟittuva y-ēkatattu(va)māṉa kaṭavuḷukku namaskāramuñ cakala-paṭaippukaḷu(k)kum āṟutalum īṭeṟṟa y-aṭai māṉamum(āra)kkiṉiyum ākiṟa y-aṟciyaciṣṭa m-māriyavukku-p pukaḻcciyuñ cammaṉacukkaḷamutal-āṉa cakala-y-aṟciyaciṣṭa-pērkaḷukku y-ācaraṇaiyum uṇṭāka-k kaṭavatu({pcl})</v>
       </c>
       <c r="B8" t="str">
-        <v>+ muṉṉāḷakkavi rācamārel voruṅkūṭi Akameytta vīramāmuṉiyākiya rācaricitayiriyaṉāta periyakurucuvāmiyavarkaḷ tiruvāyiṉ Amuṟtam poḻinta naṉṉītivuraiyāṉ tēmpāvaṇiyai vācittārāy antavarkaḷ vekulāpa yōkkiyam peṟuvārkaḷ yinta vaccirāyutamāṉa pōsttakattai vācikkiṟavarkaḷukkum kēḷkkiṟavarkaḻukkum vekupiṟaiyōcaṉam uṇṭām +</v>
+        <v>tēvañāṉappiṟakācacurupamāyirukkiṟa parāparavastuvākiṟa pitāvākiya caṟuvēcuraṉukku stottiramum avaruṭaiya puttivāṟtai yākiṟa yēkacutaṉākiya yēcuṉātacuvāmikku yaṟcaṉaiyum pitāvukkum cutaṉukkum pantaṉamāyirukkiṟa tēvaciṉēkam ākiṟa svirittucāttuvukku yārātaṉaiyun tiṟittuva yēkatattuvamāṉa kaṭavuḷukku namaskāramuñ cakalapaṭaippukaḷukkum āṟutalum īṭeṟṟa yaṭai māṉamum ārakkiṉiyum ākiṟa yaṟciyaciṣṭa mmāriyavukkup pukaḻcciyuñ cammaṉacukkaḷamutalāṉa cakalayaṟciyaciṣṭapērkaḷukku yācaraṇaiyum uṇṭākak kaṭavatu {pcl}</v>
       </c>
       <c r="C8" t="str">
-        <v>Indien 474</v>
+        <v>Indien 460</v>
       </c>
       <c r="D8" t="str">
         <v>BnF</v>
       </c>
       <c r="E8" t="str">
-        <v>Tēmpāvaṇi (Paṭalam 1-12)</v>
+        <v>Ñāṉōpatēcam, Kāṇṭam 3 = Nobili's Catechism, Part 3</v>
       </c>
       <c r="F8" t="str">
         <v>U2</v>
       </c>
       <c r="G8" t="str">
-        <v>folio [1]r</v>
-      </c>
-      <c r="H8" s="1">
-        <v>36952</v>
+        <v>folio 365v</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -612,88 +609,117 @@
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>invocation to the Holy Family Ecumaricūcē yeṉakk’ utavit tuṇai yāyirum + + +</v>
+        <v>+ muṉṉāḷakkavi rācamārel voruṅkūṭi Akameytta vīramāmuṉiyākiya rācaricitayiriyaṉāta periyakurucuvāmiyavarkaḷ tiruvāyiṉ Amuṟtam poḻinta naṉṉītivuraiyāṉ tēmpāvaṇiyai vācittārāy antavarkaḷ vekulāpa yōkkiyam peṟuvārkaḷ yinta vaccirāyutamāṉa pōsttakattai vācikkiṟavarkaḷukkum kēḷkkiṟavarkaḻukkum vekupiṟaiyōcaṉam uṇṭām +</v>
       </c>
       <c r="B9" t="str">
-        <v>Ecumaricūcē yeṉakk’ utavit tuṇai yāyirum + + +</v>
+        <v>+ muṉṉāḷakkavi rācamārel voruṅkūṭi Akameytta vīramāmuṉiyākiya rācaricitayiriyaṉāta periyakurucuvāmiyavarkaḷ tiruvāyiṉ Amuṟtam poḻinta naṉṉītivuraiyāṉ tēmpāvaṇiyai vācittārāy antavarkaḷ vekulāpa yōkkiyam peṟuvārkaḷ yinta vaccirāyutamāṉa pōsttakattai vācikkiṟavarkaḷukkum kēḷkkiṟavarkaḻukkum vekupiṟaiyōcaṉam uṇṭām +</v>
       </c>
       <c r="C9" t="str">
-        <v>Indien 475</v>
+        <v>Indien 474</v>
       </c>
       <c r="D9" t="str">
         <v>BnF</v>
       </c>
       <c r="E9" t="str">
-        <v>Tēmpāvaṇi (Paṭalam 13-24)</v>
+        <v>Tēmpāvaṇi (Paṭalam 1-12)</v>
       </c>
       <c r="F9" t="str">
         <v>U2</v>
       </c>
       <c r="G9" t="str">
-        <v>folio 267v</v>
+        <v>folio [1]r</v>
+      </c>
+      <c r="H9" s="1">
+        <v>36952</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>vēḻamukatu viṉāyakaṉait toḻ vāḻvu mikuttu varum {pcs}</v>
+        <v>invocation to the Holy Family Ecumaricūcē yeṉakk’ utavit tuṇai yāyirum + + +</v>
       </c>
       <c r="B10" t="str">
-        <v>vēḻamukatu viṉāyakaṉait toḻ vāḻvu mikuttu varum {pcs}</v>
+        <v>Ecumaricūcē yeṉakk’ utavit tuṇai yāyirum + + +</v>
       </c>
       <c r="C10" t="str">
-        <v>Indien 531</v>
+        <v>Indien 475</v>
       </c>
       <c r="D10" t="str">
         <v>BnF</v>
       </c>
       <c r="E10" t="str">
-        <v>Periya Purāṇam, preceded by the Tiruttoṇṭattokai and the Tiruttoṇṭar Tiruvantāti</v>
+        <v>Tēmpāvaṇi (Paṭalam 13-24)</v>
       </c>
       <c r="F10" t="str">
-        <v>U1</v>
+        <v>U2</v>
       </c>
       <c r="G10" t="str">
-        <v>folio [1]r</v>
+        <v>folio 267v</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
+        <v>vēḻamukatu viṉāyakaṉait toḻ vāḻvu mikuttu varum {pcs}</v>
+      </c>
+      <c r="B11" t="str">
+        <v>vēḻamukatu viṉāyakaṉait toḻ vāḻvu mikuttu varum {pcs}</v>
+      </c>
+      <c r="C11" t="str">
+        <v>Indien 531</v>
+      </c>
+      <c r="D11" t="str">
+        <v>BnF</v>
+      </c>
+      <c r="E11" t="str">
+        <v>Periya Purāṇam, preceded by the Tiruttoṇṭattokai and the Tiruttoṇṭar Tiruvantāti</v>
+      </c>
+      <c r="F11" t="str">
+        <v>U1</v>
+      </c>
+      <c r="G11" t="str">
+        <v>folio [1]r</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
         <v>Iḵtu caṭākṣkṣaravantātiyaip pāttu vācittavar murukaṉuṭaiya tuṇai y-uṇṭāci camparamāy vāḻvār ~</v>
       </c>
-      <c r="B11" t="str">
+      <c r="B12" t="str">
         <v>Iḵtu caṭākṣkṣaravantātiyaip pāttu vācittavar murukaṉuṭaiya tuṇai yuṇṭāci camparamāy vāḻvār ~</v>
       </c>
-      <c r="C11" t="str">
+      <c r="C12" t="str">
         <v>Indien 937</v>
       </c>
-      <c r="D11" t="str">
-        <v>BnF</v>
-      </c>
-      <c r="E11" t="str">
+      <c r="D12" t="str">
+        <v>BnF</v>
+      </c>
+      <c r="E12" t="str">
         <v>Collection (5 items)</v>
       </c>
-      <c r="F11" t="str">
+      <c r="F12" t="str">
         <v>U5</v>
       </c>
-      <c r="G11" t="str">
+      <c r="G12" t="str">
         <v>folio 27r</v>
       </c>
-      <c r="H11" t="str">
+      <c r="H12" t="str">
         <v>column 3</v>
       </c>
-      <c r="I11">
+      <c r="I12">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:I11"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:I12"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/benedictions.xlsx
+++ b/benedictions.xlsx
@@ -376,7 +376,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -496,57 +496,57 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>Ākaiyiṉālē yinta vaḷḷiyammaipuṟāṇattai paṭitta pērum keṭṭa pērum Immaiyilē niṉaitta kāriyamum cittiyām maṟumaiyilē mo¡ṣṣa!kṣamu{m}m uṇṭām – kāṟttikai naṣṣattiram kantar caṣṭi cevvāykkiḻamai cōmavāram itukaḷilē Oru poḻutiruntu mu-k-kāla-k kēṭṭa pērum mu-k-kālap paṭitta pērum eḻutiṉa pērum – Ivarkaḷukk’ ellām kantacu¡pā!vāmi tuṇai-y iruppār</v>
+        <v>civaṉ aṭiyārkaḷ cintaiyil vāḻun</v>
       </c>
       <c r="B5" t="str">
-        <v>Ākaiyiṉālē yinta vaḷḷiyammaipuṟāṇattai paṭitta pērum keṭṭa pērum Immaiyilē niṉaitta kāriyamum cittiyām maṟumaiyilē moṣṣakṣamum uṇṭām – kāṟttikai naṣṣattiram kantar caṣṭi cevvāykkiḻamai cōmavāram itukaḷilē Oru poḻutiruntu mukkālak kēṭṭa pērum mukkālap paṭitta pērum eḻutiṉa pērum – Ivarkaḷukk’ ellām kantacupāvāmi tuṇaiy iruppār</v>
+        <v>civaṉ aṭiyārkaḷ cintaiyil vāḻun</v>
       </c>
       <c r="C5" t="str">
-        <v>Indien 309</v>
+        <v>Indien 362</v>
       </c>
       <c r="D5" t="str">
         <v>BnF</v>
       </c>
       <c r="E5" t="str">
-        <v>Vaḷḷiyammaipuṟāṇacāram</v>
+        <v>MTM: 3 poems in praise of gods</v>
       </c>
       <c r="F5" t="str">
-        <v>U2</v>
+        <v>U3</v>
       </c>
       <c r="G5" t="str">
-        <v>folio 288r</v>
+        <v>folio 17r</v>
       </c>
       <c r="H5" t="str">
-        <v>left margin</v>
+        <v>line 5</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>civaṉ aṭiyārkaḷ cintaiyil vāḻun</v>
+        <v>vēl uṇṭu viṉai y-illai</v>
       </c>
       <c r="B6" t="str">
-        <v>civaṉ aṭiyārkaḷ cintaiyil vāḻun</v>
+        <v>vēl uṇṭu viṉai yillai</v>
       </c>
       <c r="C6" t="str">
-        <v>Indien 362</v>
+        <v>Indien 420</v>
       </c>
       <c r="D6" t="str">
         <v>BnF</v>
       </c>
       <c r="E6" t="str">
-        <v>MTM: 3 poems in praise of gods</v>
+        <v>Nālu Mantiri Katai</v>
       </c>
       <c r="F6" t="str">
-        <v>U3</v>
+        <v>U2</v>
       </c>
       <c r="G6" t="str">
-        <v>folio 17r</v>
+        <v>folio 54r</v>
       </c>
       <c r="H6" t="str">
-        <v>line 5</v>
+        <v>line 6</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -554,28 +554,25 @@
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>vēl uṇṭu viṉai y-illai</v>
+        <v>tēva-ñāṉa-p-piṟakāca-curupam-āy-irukkiṟa parāparavastu-v-ākiṟa pitā-v-ākiya caṟuvēcuraṉukku stottiramum avar-uṭaiya putti-vāṟtai y-ākiṟa y-ēka-cutaṉ-ākiya yēcu-ṉātacuvāmikku y-aṟcaṉaiyum pitāvukkum cutaṉukkum pantaṉam-āy-irukkiṟa tēvaciṉēkam ākiṟa svirittu-cāttuvukku y-ārātaṉaiyun tiṟittuva y-ēkatattu(va)māṉa kaṭavuḷukku namaskāramuñ cakala-paṭaippukaḷu(k)kum āṟutalum īṭeṟṟa y-aṭai māṉamum(āra)kkiṉiyum ākiṟa y-aṟciyaciṣṭa m-māriyavukku-p pukaḻcciyuñ cammaṉacukkaḷamutal-āṉa cakala-y-aṟciyaciṣṭa-pērkaḷukku y-ācaraṇaiyum uṇṭāka-k kaṭavatu({pcl})</v>
       </c>
       <c r="B7" t="str">
-        <v>vēl uṇṭu viṉai yillai</v>
+        <v>tēvañāṉappiṟakācacurupamāyirukkiṟa parāparavastuvākiṟa pitāvākiya caṟuvēcuraṉukku stottiramum avaruṭaiya puttivāṟtai yākiṟa yēkacutaṉākiya yēcuṉātacuvāmikku yaṟcaṉaiyum pitāvukkum cutaṉukkum pantaṉamāyirukkiṟa tēvaciṉēkam ākiṟa svirittucāttuvukku yārātaṉaiyun tiṟittuva yēkatattuvamāṉa kaṭavuḷukku namaskāramuñ cakalapaṭaippukaḷukkum āṟutalum īṭeṟṟa yaṭai māṉamum ārakkiṉiyum ākiṟa yaṟciyaciṣṭa mmāriyavukkup pukaḻcciyuñ cammaṉacukkaḷamutalāṉa cakalayaṟciyaciṣṭapērkaḷukku yācaraṇaiyum uṇṭākak kaṭavatu {pcl}</v>
       </c>
       <c r="C7" t="str">
-        <v>Indien 420</v>
+        <v>Indien 460</v>
       </c>
       <c r="D7" t="str">
         <v>BnF</v>
       </c>
       <c r="E7" t="str">
-        <v>Nālu Mantiri Katai</v>
+        <v>Ñāṉōpatēcam, Kāṇṭam 3 = Nobili's Catechism, Part 3</v>
       </c>
       <c r="F7" t="str">
         <v>U2</v>
       </c>
       <c r="G7" t="str">
-        <v>folio 54r</v>
-      </c>
-      <c r="H7" t="str">
-        <v>line 6</v>
+        <v>folio 365v</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -583,25 +580,28 @@
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>tēva-ñāṉa-p-piṟakāca-curupam-āy-irukkiṟa parāparavastu-v-ākiṟa pitā-v-ākiya caṟuvēcuraṉukku stottiramum avar-uṭaiya putti-vāṟtai y-ākiṟa y-ēka-cutaṉ-ākiya yēcu-ṉātacuvāmikku y-aṟcaṉaiyum pitāvukkum cutaṉukkum pantaṉam-āy-irukkiṟa tēvaciṉēkam ākiṟa svirittu-cāttuvukku y-ārātaṉaiyun tiṟittuva y-ēkatattu(va)māṉa kaṭavuḷukku namaskāramuñ cakala-paṭaippukaḷu(k)kum āṟutalum īṭeṟṟa y-aṭai māṉamum(āra)kkiṉiyum ākiṟa y-aṟciyaciṣṭa m-māriyavukku-p pukaḻcciyuñ cammaṉacukkaḷamutal-āṉa cakala-y-aṟciyaciṣṭa-pērkaḷukku y-ācaraṇaiyum uṇṭāka-k kaṭavatu({pcl})</v>
+        <v>+ muṉṉāḷakkavi rācamārel voruṅkūṭi Akameytta vīramāmuṉiyākiya rācaricitayiriyaṉāta periyakurucuvāmiyavarkaḷ tiruvāyiṉ Amuṟtam poḻinta naṉṉītivuraiyāṉ tēmpāvaṇiyai vācittārāy antavarkaḷ vekulāpa yōkkiyam peṟuvārkaḷ yinta vaccirāyutamāṉa pōsttakattai vācikkiṟavarkaḷukkum kēḷkkiṟavarkaḻukkum vekupiṟaiyōcaṉam uṇṭām +</v>
       </c>
       <c r="B8" t="str">
-        <v>tēvañāṉappiṟakācacurupamāyirukkiṟa parāparavastuvākiṟa pitāvākiya caṟuvēcuraṉukku stottiramum avaruṭaiya puttivāṟtai yākiṟa yēkacutaṉākiya yēcuṉātacuvāmikku yaṟcaṉaiyum pitāvukkum cutaṉukkum pantaṉamāyirukkiṟa tēvaciṉēkam ākiṟa svirittucāttuvukku yārātaṉaiyun tiṟittuva yēkatattuvamāṉa kaṭavuḷukku namaskāramuñ cakalapaṭaippukaḷukkum āṟutalum īṭeṟṟa yaṭai māṉamum ārakkiṉiyum ākiṟa yaṟciyaciṣṭa mmāriyavukkup pukaḻcciyuñ cammaṉacukkaḷamutalāṉa cakalayaṟciyaciṣṭapērkaḷukku yācaraṇaiyum uṇṭākak kaṭavatu {pcl}</v>
+        <v>+ muṉṉāḷakkavi rācamārel voruṅkūṭi Akameytta vīramāmuṉiyākiya rācaricitayiriyaṉāta periyakurucuvāmiyavarkaḷ tiruvāyiṉ Amuṟtam poḻinta naṉṉītivuraiyāṉ tēmpāvaṇiyai vācittārāy antavarkaḷ vekulāpa yōkkiyam peṟuvārkaḷ yinta vaccirāyutamāṉa pōsttakattai vācikkiṟavarkaḷukkum kēḷkkiṟavarkaḻukkum vekupiṟaiyōcaṉam uṇṭām +</v>
       </c>
       <c r="C8" t="str">
-        <v>Indien 460</v>
+        <v>Indien 474</v>
       </c>
       <c r="D8" t="str">
         <v>BnF</v>
       </c>
       <c r="E8" t="str">
-        <v>Ñāṉōpatēcam, Kāṇṭam 3 = Nobili's Catechism, Part 3</v>
+        <v>Tēmpāvaṇi (Paṭalam 1-12)</v>
       </c>
       <c r="F8" t="str">
         <v>U2</v>
       </c>
       <c r="G8" t="str">
-        <v>folio 365v</v>
+        <v>folio [1]r</v>
+      </c>
+      <c r="H8" s="1">
+        <v>36952</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -609,117 +609,88 @@
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>+ muṉṉāḷakkavi rācamārel voruṅkūṭi Akameytta vīramāmuṉiyākiya rācaricitayiriyaṉāta periyakurucuvāmiyavarkaḷ tiruvāyiṉ Amuṟtam poḻinta naṉṉītivuraiyāṉ tēmpāvaṇiyai vācittārāy antavarkaḷ vekulāpa yōkkiyam peṟuvārkaḷ yinta vaccirāyutamāṉa pōsttakattai vācikkiṟavarkaḷukkum kēḷkkiṟavarkaḻukkum vekupiṟaiyōcaṉam uṇṭām +</v>
+        <v>invocation to the Holy Family Ecumaricūcē yeṉakk’ utavit tuṇai yāyirum + + +</v>
       </c>
       <c r="B9" t="str">
-        <v>+ muṉṉāḷakkavi rācamārel voruṅkūṭi Akameytta vīramāmuṉiyākiya rācaricitayiriyaṉāta periyakurucuvāmiyavarkaḷ tiruvāyiṉ Amuṟtam poḻinta naṉṉītivuraiyāṉ tēmpāvaṇiyai vācittārāy antavarkaḷ vekulāpa yōkkiyam peṟuvārkaḷ yinta vaccirāyutamāṉa pōsttakattai vācikkiṟavarkaḷukkum kēḷkkiṟavarkaḻukkum vekupiṟaiyōcaṉam uṇṭām +</v>
+        <v>Ecumaricūcē yeṉakk’ utavit tuṇai yāyirum + + +</v>
       </c>
       <c r="C9" t="str">
-        <v>Indien 474</v>
+        <v>Indien 475</v>
       </c>
       <c r="D9" t="str">
         <v>BnF</v>
       </c>
       <c r="E9" t="str">
-        <v>Tēmpāvaṇi (Paṭalam 1-12)</v>
+        <v>Tēmpāvaṇi (Paṭalam 13-24)</v>
       </c>
       <c r="F9" t="str">
         <v>U2</v>
       </c>
       <c r="G9" t="str">
-        <v>folio [1]r</v>
-      </c>
-      <c r="H9" s="1">
-        <v>36952</v>
+        <v>folio 267v</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>invocation to the Holy Family Ecumaricūcē yeṉakk’ utavit tuṇai yāyirum + + +</v>
+        <v>vēḻamukatu viṉāyakaṉait toḻ vāḻvu mikuttu varum {pcs}</v>
       </c>
       <c r="B10" t="str">
-        <v>Ecumaricūcē yeṉakk’ utavit tuṇai yāyirum + + +</v>
+        <v>vēḻamukatu viṉāyakaṉait toḻ vāḻvu mikuttu varum {pcs}</v>
       </c>
       <c r="C10" t="str">
-        <v>Indien 475</v>
+        <v>Indien 531</v>
       </c>
       <c r="D10" t="str">
         <v>BnF</v>
       </c>
       <c r="E10" t="str">
-        <v>Tēmpāvaṇi (Paṭalam 13-24)</v>
+        <v>Periya Purāṇam, preceded by the Tiruttoṇṭattokai and the Tiruttoṇṭar Tiruvantāti</v>
       </c>
       <c r="F10" t="str">
-        <v>U2</v>
+        <v>U1</v>
       </c>
       <c r="G10" t="str">
-        <v>folio 267v</v>
+        <v>folio [1]r</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>vēḻamukatu viṉāyakaṉait toḻ vāḻvu mikuttu varum {pcs}</v>
+        <v>Iḵtu caṭākṣkṣaravantātiyaip pāttu vācittavar murukaṉuṭaiya tuṇai y-uṇṭāci camparamāy vāḻvār ~</v>
       </c>
       <c r="B11" t="str">
-        <v>vēḻamukatu viṉāyakaṉait toḻ vāḻvu mikuttu varum {pcs}</v>
+        <v>Iḵtu caṭākṣkṣaravantātiyaip pāttu vācittavar murukaṉuṭaiya tuṇai yuṇṭāci camparamāy vāḻvār ~</v>
       </c>
       <c r="C11" t="str">
-        <v>Indien 531</v>
+        <v>Indien 937</v>
       </c>
       <c r="D11" t="str">
         <v>BnF</v>
       </c>
       <c r="E11" t="str">
-        <v>Periya Purāṇam, preceded by the Tiruttoṇṭattokai and the Tiruttoṇṭar Tiruvantāti</v>
+        <v>Collection (5 items)</v>
       </c>
       <c r="F11" t="str">
-        <v>U1</v>
+        <v>U5</v>
       </c>
       <c r="G11" t="str">
-        <v>folio [1]r</v>
+        <v>folio 27r</v>
+      </c>
+      <c r="H11" t="str">
+        <v>column 3</v>
       </c>
       <c r="I11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="str">
-        <v>Iḵtu caṭākṣkṣaravantātiyaip pāttu vācittavar murukaṉuṭaiya tuṇai y-uṇṭāci camparamāy vāḻvār ~</v>
-      </c>
-      <c r="B12" t="str">
-        <v>Iḵtu caṭākṣkṣaravantātiyaip pāttu vācittavar murukaṉuṭaiya tuṇai yuṇṭāci camparamāy vāḻvār ~</v>
-      </c>
-      <c r="C12" t="str">
-        <v>Indien 937</v>
-      </c>
-      <c r="D12" t="str">
-        <v>BnF</v>
-      </c>
-      <c r="E12" t="str">
-        <v>Collection (5 items)</v>
-      </c>
-      <c r="F12" t="str">
-        <v>U5</v>
-      </c>
-      <c r="G12" t="str">
-        <v>folio 27r</v>
-      </c>
-      <c r="H12" t="str">
-        <v>column 3</v>
-      </c>
-      <c r="I12">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:I12"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:I11"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/benedictions.xlsx
+++ b/benedictions.xlsx
@@ -376,7 +376,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -659,38 +659,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="str">
-        <v>Iḵtu caṭākṣkṣaravantātiyaip pāttu vācittavar murukaṉuṭaiya tuṇai y-uṇṭāci camparamāy vāḻvār ~</v>
-      </c>
-      <c r="B11" t="str">
-        <v>Iḵtu caṭākṣkṣaravantātiyaip pāttu vācittavar murukaṉuṭaiya tuṇai yuṇṭāci camparamāy vāḻvār ~</v>
-      </c>
-      <c r="C11" t="str">
-        <v>Indien 937</v>
-      </c>
-      <c r="D11" t="str">
-        <v>BnF</v>
-      </c>
-      <c r="E11" t="str">
-        <v>Collection (5 items)</v>
-      </c>
-      <c r="F11" t="str">
-        <v>U5</v>
-      </c>
-      <c r="G11" t="str">
-        <v>folio 27r</v>
-      </c>
-      <c r="H11" t="str">
-        <v>column 3</v>
-      </c>
-      <c r="I11">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:I11"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:I10"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/benedictions.xlsx
+++ b/benedictions.xlsx
@@ -42,9 +42,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -376,292 +375,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>harī hari ndan namme bhagavate oṃ ṉṇame bhagavaṉe hari oṃ nnamo bhagavate mahakālāya namaḥ hari oṃ namaḥ - devāñ chitalābhā vande vāñcila(ttu)ākāreṇa śaśī girā parabhṛtaḥ pārāvataś cuṃbane haṃsaś caṃkramaṇe samaṃ dayitayā ratyāṃ vimatto gajaḥ | itthaṃ bharttari re samastayuvatiślākhyapidaivādasau madbhāgyena vivahitaḥ patir iti syān naikadoṣo yadi ||</v>
-      </c>
-      <c r="B1" t="str">
-        <v>harī hari ndan namme bhagavate oṃ ṉṇame bhagavaṉe hari oṃ nnamo bhagavate mahakālāya namaḥ hari oṃ namaḥ devāñ chitalābhā vande vāñcilattu ākāreṇa śaśī girā parabhṛtaḥ pārāvataś cuṃbane haṃsaś caṃkramaṇe samaṃ dayitayā ratyāṃ vimatto gajaḥ itthaṃ bharttari re samastayuvatiślākhyapidaivādasau madbhāgyena vivahitaḥ patir iti syān naikadoṣo yadi</v>
-      </c>
-      <c r="C1" t="str">
-        <v>Cod. Palmbl. III 130</v>
-      </c>
-      <c r="D1" t="str">
-        <v>Hamburg Stabi</v>
-      </c>
-      <c r="E1" t="str">
-        <v>Anaṅgaraṅga</v>
-      </c>
-      <c r="F1" t="str">
-        <v>guardFolio</v>
-      </c>
-      <c r="H1" t="str">
-        <v>guard folio</v>
-      </c>
-      <c r="I1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>Akattiyamakāmuṉikku cuppiṟamaṇiyacuvāmiyār aṉukkiṟakam paṇṇiṉatu</v>
-      </c>
-      <c r="B2" t="str">
-        <v>Akattiyamakāmuṉikku cuppiṟamaṇiyacuvāmiyār aṉukkiṟakam paṇṇiṉatu</v>
-      </c>
-      <c r="C2" t="str">
-        <v>Indien 12</v>
-      </c>
-      <c r="D2" t="str">
-        <v>BnF</v>
-      </c>
-      <c r="E2" t="str">
-        <v>Civatarumōttiram</v>
-      </c>
-      <c r="F2" t="str">
-        <v>U2a</v>
-      </c>
-      <c r="G2" t="str">
-        <v>folio [1]r</v>
-      </c>
-      <c r="H2" t="str">
-        <v>column 3</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>Āveṉṟē A¡ṣṣca!ṭcarattai Aṟint' uṇart=tatu ṉāḷ tōṟum O¿pe?meṉav Aṣṣarattai Uṟutiyāy maṉatil vayt=tu ṉāṉ eṉṟa Aṣṣarat=tai ṉāḷ tōṟum viṭṭakalātē ṉōṉṟāy niṉṟavaṉē tayavu paṇṇum kaṟttāvē {pcl}</v>
-      </c>
-      <c r="B3" t="str">
-        <v>Āveṉṟē Aṣṣcaṭcarattai Aṟint' uṇarttatu ṉāḷ tōṟum Opemeṉav Aṣṣarattai Uṟutiyāy maṉatil vayttu ṉāṉ eṉṟa Aṣṣarattai ṉāḷ tōṟum viṭṭakalātē ṉōṉṟāy niṉṟavaṉē tayavu paṇṇum kaṟttāvē {pcl}</v>
-      </c>
-      <c r="C3" t="str">
-        <v>Indien 101</v>
-      </c>
-      <c r="D3" t="str">
-        <v>BnF</v>
-      </c>
-      <c r="E3" t="str">
-        <v>Collection (5 works by Akattiyar)</v>
-      </c>
-      <c r="F3" t="str">
-        <v>U5</v>
-      </c>
-      <c r="G3" t="str">
-        <v>folio 154v</v>
-      </c>
-      <c r="H3" t="str">
-        <v>main text area</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>teyvāṉaiyammāḷ purāṇa=M naṉṟākavum {pcs}</v>
-      </c>
-      <c r="B4" t="str">
-        <v>teyvāṉaiyammāḷ purāṇaM naṉṟākavum {pcs}</v>
-      </c>
-      <c r="C4" t="str">
-        <v>Indien 308</v>
-      </c>
-      <c r="D4" t="str">
-        <v>BnF</v>
-      </c>
-      <c r="E4" t="str">
-        <v>Teyvayāṉaipurāṇam</v>
-      </c>
-      <c r="F4" t="str">
-        <v>U2c</v>
-      </c>
-      <c r="G4" t="str">
-        <v>folio 295r</v>
-      </c>
-      <c r="H4" t="str">
-        <v>main text area</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>civaṉ aṭiyārkaḷ cintaiyil vāḻun</v>
-      </c>
-      <c r="B5" t="str">
-        <v>civaṉ aṭiyārkaḷ cintaiyil vāḻun</v>
-      </c>
-      <c r="C5" t="str">
-        <v>Indien 362</v>
-      </c>
-      <c r="D5" t="str">
-        <v>BnF</v>
-      </c>
-      <c r="E5" t="str">
-        <v>MTM: 3 poems in praise of gods</v>
-      </c>
-      <c r="F5" t="str">
-        <v>U3</v>
-      </c>
-      <c r="G5" t="str">
-        <v>folio 17r</v>
-      </c>
-      <c r="H5" t="str">
-        <v>line 5</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>vēl uṇṭu viṉai y-illai</v>
-      </c>
-      <c r="B6" t="str">
-        <v>vēl uṇṭu viṉai yillai</v>
-      </c>
-      <c r="C6" t="str">
-        <v>Indien 420</v>
-      </c>
-      <c r="D6" t="str">
-        <v>BnF</v>
-      </c>
-      <c r="E6" t="str">
-        <v>Nālu Mantiri Katai</v>
-      </c>
-      <c r="F6" t="str">
-        <v>U2</v>
-      </c>
-      <c r="G6" t="str">
-        <v>folio 54r</v>
-      </c>
-      <c r="H6" t="str">
-        <v>line 6</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>tēva-ñāṉa-p-piṟakāca-curupam-āy-irukkiṟa parāparavastu-v-ākiṟa pitā-v-ākiya caṟuvēcuraṉukku stottiramum avar-uṭaiya putti-vāṟtai y-ākiṟa y-ēka-cutaṉ-ākiya yēcu-ṉātacuvāmikku y-aṟcaṉaiyum pitāvukkum cutaṉukkum pantaṉam-āy-irukkiṟa tēvaciṉēkam ākiṟa svirittu-cāttuvukku y-ārātaṉaiyun tiṟittuva y-ēkatattu(va)māṉa kaṭavuḷukku namaskāramuñ cakala-paṭaippukaḷu(k)kum āṟutalum īṭeṟṟa y-aṭai māṉamum(āra)kkiṉiyum ākiṟa y-aṟciyaciṣṭa m-māriyavukku-p pukaḻcciyuñ cammaṉacukkaḷamutal-āṉa cakala-y-aṟciyaciṣṭa-pērkaḷukku y-ācaraṇaiyum uṇṭāka-k kaṭavatu({pcl})</v>
-      </c>
-      <c r="B7" t="str">
-        <v>tēvañāṉappiṟakācacurupamāyirukkiṟa parāparavastuvākiṟa pitāvākiya caṟuvēcuraṉukku stottiramum avaruṭaiya puttivāṟtai yākiṟa yēkacutaṉākiya yēcuṉātacuvāmikku yaṟcaṉaiyum pitāvukkum cutaṉukkum pantaṉamāyirukkiṟa tēvaciṉēkam ākiṟa svirittucāttuvukku yārātaṉaiyun tiṟittuva yēkatattuvamāṉa kaṭavuḷukku namaskāramuñ cakalapaṭaippukaḷukkum āṟutalum īṭeṟṟa yaṭai māṉamum ārakkiṉiyum ākiṟa yaṟciyaciṣṭa mmāriyavukkup pukaḻcciyuñ cammaṉacukkaḷamutalāṉa cakalayaṟciyaciṣṭapērkaḷukku yācaraṇaiyum uṇṭākak kaṭavatu {pcl}</v>
-      </c>
-      <c r="C7" t="str">
-        <v>Indien 460</v>
-      </c>
-      <c r="D7" t="str">
-        <v>BnF</v>
-      </c>
-      <c r="E7" t="str">
-        <v>Ñāṉōpatēcam, Kāṇṭam 3 = Nobili's Catechism, Part 3</v>
-      </c>
-      <c r="F7" t="str">
-        <v>U2</v>
-      </c>
-      <c r="G7" t="str">
-        <v>folio 365v</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v>+ muṉṉāḷakkavi rācamārel voruṅkūṭi Akameytta vīramāmuṉiyākiya rācaricitayiriyaṉāta periyakurucuvāmiyavarkaḷ tiruvāyiṉ Amuṟtam poḻinta naṉṉītivuraiyāṉ tēmpāvaṇiyai vācittārāy antavarkaḷ vekulāpa yōkkiyam peṟuvārkaḷ yinta vaccirāyutamāṉa pōsttakattai vācikkiṟavarkaḷukkum kēḷkkiṟavarkaḻukkum vekupiṟaiyōcaṉam uṇṭām +</v>
-      </c>
-      <c r="B8" t="str">
-        <v>+ muṉṉāḷakkavi rācamārel voruṅkūṭi Akameytta vīramāmuṉiyākiya rācaricitayiriyaṉāta periyakurucuvāmiyavarkaḷ tiruvāyiṉ Amuṟtam poḻinta naṉṉītivuraiyāṉ tēmpāvaṇiyai vācittārāy antavarkaḷ vekulāpa yōkkiyam peṟuvārkaḷ yinta vaccirāyutamāṉa pōsttakattai vācikkiṟavarkaḷukkum kēḷkkiṟavarkaḻukkum vekupiṟaiyōcaṉam uṇṭām +</v>
-      </c>
-      <c r="C8" t="str">
-        <v>Indien 474</v>
-      </c>
-      <c r="D8" t="str">
-        <v>BnF</v>
-      </c>
-      <c r="E8" t="str">
-        <v>Tēmpāvaṇi (Paṭalam 1-12)</v>
-      </c>
-      <c r="F8" t="str">
-        <v>U2</v>
-      </c>
-      <c r="G8" t="str">
-        <v>folio [1]r</v>
-      </c>
-      <c r="H8" s="1">
-        <v>36952</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="str">
-        <v>invocation to the Holy Family Ecumaricūcē yeṉakk’ utavit tuṇai yāyirum + + +</v>
-      </c>
-      <c r="B9" t="str">
-        <v>Ecumaricūcē yeṉakk’ utavit tuṇai yāyirum + + +</v>
-      </c>
-      <c r="C9" t="str">
-        <v>Indien 475</v>
-      </c>
-      <c r="D9" t="str">
-        <v>BnF</v>
-      </c>
-      <c r="E9" t="str">
-        <v>Tēmpāvaṇi (Paṭalam 13-24)</v>
-      </c>
-      <c r="F9" t="str">
-        <v>U2</v>
-      </c>
-      <c r="G9" t="str">
-        <v>folio 267v</v>
-      </c>
-      <c r="I9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="str">
-        <v>vēḻamukatu viṉāyakaṉait toḻ vāḻvu mikuttu varum {pcs}</v>
-      </c>
-      <c r="B10" t="str">
-        <v>vēḻamukatu viṉāyakaṉait toḻ vāḻvu mikuttu varum {pcs}</v>
-      </c>
-      <c r="C10" t="str">
-        <v>Indien 531</v>
-      </c>
-      <c r="D10" t="str">
-        <v>BnF</v>
-      </c>
-      <c r="E10" t="str">
-        <v>Periya Purāṇam, preceded by the Tiruttoṇṭattokai and the Tiruttoṇṭar Tiruvantāti</v>
-      </c>
-      <c r="F10" t="str">
-        <v>U1</v>
-      </c>
-      <c r="G10" t="str">
-        <v>folio [1]r</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:I10"/>
+    <ignoredError numberStoredAsText="1" sqref="A1"/>
   </ignoredErrors>
 </worksheet>
 </file>